--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="16935" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="LimitedRegistrationData" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"LimitedRegistrationData"</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" codePage="1252"/>
+  <calcPr calcId="0" iterate="1"/>
+  <webPublishing css="0" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="794">
   <si>
     <t>Mr.</t>
   </si>
@@ -292,35 +292,2137 @@
   </si>
   <si>
     <t>Yu</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>FNAME</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>LNAME</t>
+  </si>
+  <si>
+    <t>AFFILIATION</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>ATTENDEETYPE</t>
+  </si>
+  <si>
+    <t>WORKGROUP1</t>
+  </si>
+  <si>
+    <t>WORKGROUP2</t>
+  </si>
+  <si>
+    <t>DATECREATED</t>
+  </si>
+  <si>
+    <t>Convenor</t>
+  </si>
+  <si>
+    <t>Organizing</t>
+  </si>
+  <si>
+    <t>Corey</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>corey.adams@yale.edu</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Alonso</t>
+  </si>
+  <si>
+    <t>925 254 7656</t>
+  </si>
+  <si>
+    <t>JRAlonso@LBL.gov</t>
+  </si>
+  <si>
+    <t>Artur</t>
+  </si>
+  <si>
+    <t>Ankowski</t>
+  </si>
+  <si>
+    <t>540-231-8731</t>
+  </si>
+  <si>
+    <t>artank@vt.edu</t>
+  </si>
+  <si>
+    <t>Asaadi</t>
+  </si>
+  <si>
+    <t>979-846-8510</t>
+  </si>
+  <si>
+    <t>jaasaadi@syr.edu</t>
+  </si>
+  <si>
+    <t>Jeffery</t>
+  </si>
+  <si>
+    <t>Ashenfelter</t>
+  </si>
+  <si>
+    <t>203-687-7628</t>
+  </si>
+  <si>
+    <t>jeffery.ashenfelter@yale.edu</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Axani</t>
+  </si>
+  <si>
+    <t>saxani@mit.edu</t>
+  </si>
+  <si>
+    <t>Kaladi</t>
+  </si>
+  <si>
+    <t>Babu</t>
+  </si>
+  <si>
+    <t>Oklahoma State University</t>
+  </si>
+  <si>
+    <t>405-744-5810</t>
+  </si>
+  <si>
+    <t>babu@okstate.edu</t>
+  </si>
+  <si>
+    <t>Backhouse</t>
+  </si>
+  <si>
+    <t>bckhouse@caltech.edu</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>henry.band@yale.edu</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Barbeau</t>
+  </si>
+  <si>
+    <t>psbarbeau@phy.duke.edu</t>
+  </si>
+  <si>
+    <t>Nuno</t>
+  </si>
+  <si>
+    <t>Barros</t>
+  </si>
+  <si>
+    <t>nfbarros@hep.upenn.edu</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Bernstein</t>
+  </si>
+  <si>
+    <t>925-422-5918</t>
+  </si>
+  <si>
+    <t>bernstein3@llnl.gov</t>
+  </si>
+  <si>
+    <t>Minerba</t>
+  </si>
+  <si>
+    <t>Betancourt</t>
+  </si>
+  <si>
+    <t>630-840-2382</t>
+  </si>
+  <si>
+    <t>betan009@fnal.gov</t>
+  </si>
+  <si>
+    <t>Anwar</t>
+  </si>
+  <si>
+    <t>Bhatti</t>
+  </si>
+  <si>
+    <t>301-903-4115</t>
+  </si>
+  <si>
+    <t>anwar.bhatti@science.doe.gov</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Bishai</t>
+  </si>
+  <si>
+    <t>mbishai@bnl.gov</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Blucher</t>
+  </si>
+  <si>
+    <t>773-702-7486</t>
+  </si>
+  <si>
+    <t>blucher@hep.uchicago.edu</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Bouffard</t>
+  </si>
+  <si>
+    <t>SUNY Albany</t>
+  </si>
+  <si>
+    <t>jmbouffa@gmail.com</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Bowden</t>
+  </si>
+  <si>
+    <t>925 422 4923</t>
+  </si>
+  <si>
+    <t>nbowden@llnl.gov</t>
+  </si>
+  <si>
+    <t>Brice</t>
+  </si>
+  <si>
+    <t>630-840-8748</t>
+  </si>
+  <si>
+    <t>sbrice@fnal.gov</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>865-241-4336</t>
+  </si>
+  <si>
+    <t>bryancd@ornl.gov</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Camilleri</t>
+  </si>
+  <si>
+    <t>914 591 2829</t>
+  </si>
+  <si>
+    <t>camil@nevis.columbia.edu</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Institute of High Energy Physics, Beijing</t>
+  </si>
+  <si>
+    <t>86-10-8823 5808</t>
+  </si>
+  <si>
+    <t>caoj@ihep.ac.cn</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Carlson</t>
+  </si>
+  <si>
+    <t>505-667-6245</t>
+  </si>
+  <si>
+    <t>carlson@lanl.gov</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Carr</t>
+  </si>
+  <si>
+    <t>917-596-1199</t>
+  </si>
+  <si>
+    <t>rec2126@columbia.edu</t>
+  </si>
+  <si>
+    <t>Animesh</t>
+  </si>
+  <si>
+    <t>Chatterjee</t>
+  </si>
+  <si>
+    <t>469-684-2059</t>
+  </si>
+  <si>
+    <t>animesh.chetterjee@gmail.com</t>
+  </si>
+  <si>
+    <t>Mu-Chun</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>muchunc@uci.edu</t>
+  </si>
+  <si>
+    <t>Shaomin</t>
+  </si>
+  <si>
+    <t>CHEN</t>
+  </si>
+  <si>
+    <t>Tsinghua University</t>
+  </si>
+  <si>
+    <t>86-62795757</t>
+  </si>
+  <si>
+    <t>chenshaomin@tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Chiu</t>
+  </si>
+  <si>
+    <t>631-344-8428</t>
+  </si>
+  <si>
+    <t>chiu@bnl.gov</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>FNAL/PNNL</t>
+  </si>
+  <si>
+    <t>echurch@fnal.gov</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Collar</t>
+  </si>
+  <si>
+    <t>collar@uchicago.edu</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
+    <t>(617) 615-9620</t>
+  </si>
+  <si>
+    <t>gabrielc@mit.edu</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>617-324-6281</t>
+  </si>
+  <si>
+    <t>conrad@mit.edu</t>
+  </si>
+  <si>
+    <t>Convery</t>
+  </si>
+  <si>
+    <t>SLAC National Accelerator Laboratory</t>
+  </si>
+  <si>
+    <t>convery@slac.stanford.edu</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>roblcoop@indiana.edu</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Cowen</t>
+  </si>
+  <si>
+    <t>cowen@phys.psu.edu</t>
+  </si>
+  <si>
+    <t>Glen</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>301-903-4829</t>
+  </si>
+  <si>
+    <t>glen.crawford@science.doe.gov</t>
+  </si>
+  <si>
+    <t>Hooman</t>
+  </si>
+  <si>
+    <t>Davoudiasl</t>
+  </si>
+  <si>
+    <t>x 3856</t>
+  </si>
+  <si>
+    <t>hooman@bnl.gov</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>De Gouvea</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>847 467-6462</t>
+  </si>
+  <si>
+    <t>degouvea@northwestern.edu</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>deandj@ornl.gov</t>
+  </si>
+  <si>
+    <t>Deichert</t>
+  </si>
+  <si>
+    <t>865-241-3946</t>
+  </si>
+  <si>
+    <t>deichertgg@ornl.gov</t>
+  </si>
+  <si>
+    <t>Freija</t>
+  </si>
+  <si>
+    <t>Descamps</t>
+  </si>
+  <si>
+    <t>fbdescamps@lbl.gov</t>
+  </si>
+  <si>
+    <t>Tyce</t>
+  </si>
+  <si>
+    <t>DeYoung</t>
+  </si>
+  <si>
+    <t>Michigan State University</t>
+  </si>
+  <si>
+    <t>deyoung@pa.msu.edu</t>
+  </si>
+  <si>
+    <t>Milind</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Diwan</t>
+  </si>
+  <si>
+    <t>631-344-3327</t>
+  </si>
+  <si>
+    <t>diwan@bnl.gov</t>
+  </si>
+  <si>
+    <t>Zelimir</t>
+  </si>
+  <si>
+    <t>Djurcic</t>
+  </si>
+  <si>
+    <t>zdjurcic@anl.gov</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Dolinski</t>
+  </si>
+  <si>
+    <t>dolinski@drexel.edu</t>
+  </si>
+  <si>
+    <t>Dolph</t>
+  </si>
+  <si>
+    <t>631-344-5777</t>
+  </si>
+  <si>
+    <t>jdolph@bnl.gov</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Donnelly</t>
+  </si>
+  <si>
+    <t>617-253-4847</t>
+  </si>
+  <si>
+    <t>donnelly@mit.edu</t>
+  </si>
+  <si>
+    <t>Dwyer</t>
+  </si>
+  <si>
+    <t>510-486-4254</t>
+  </si>
+  <si>
+    <t>dadwyer@lbl.gov</t>
+  </si>
+  <si>
+    <t>Dytman</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>dytman@pitt.edu</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Efremenko</t>
+  </si>
+  <si>
+    <t>865-406-4846</t>
+  </si>
+  <si>
+    <t>yefremen@utk.edu</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t>leverett@wisc.edu</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Fava</t>
+  </si>
+  <si>
+    <t>393495226817</t>
+  </si>
+  <si>
+    <t>fava@pd.infn.it</t>
+  </si>
+  <si>
+    <t>Enectali</t>
+  </si>
+  <si>
+    <t>Figueroa-Feliciano</t>
+  </si>
+  <si>
+    <t>617-304-0003</t>
+  </si>
+  <si>
+    <t>enectali@mit.edu</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>203-231-0733</t>
+  </si>
+  <si>
+    <t>bonnie.fleming@yale.edu</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Friedland</t>
+  </si>
+  <si>
+    <t>505-664-0083</t>
+  </si>
+  <si>
+    <t>alexfriedland@gmail.com</t>
+  </si>
+  <si>
+    <t>Fujikawa</t>
+  </si>
+  <si>
+    <t>bkfujikawa@lbl.gov</t>
+  </si>
+  <si>
+    <t>Gaisser</t>
+  </si>
+  <si>
+    <t>302-831-8113</t>
+  </si>
+  <si>
+    <t>gaisser@udel.edu</t>
+  </si>
+  <si>
+    <t>Massimiliano</t>
+  </si>
+  <si>
+    <t>Galeazzi</t>
+  </si>
+  <si>
+    <t>University of Miami</t>
+  </si>
+  <si>
+    <t>305-284-7141</t>
+  </si>
+  <si>
+    <t>galeazzi@physics.miami.edu</t>
+  </si>
+  <si>
+    <t>Galehouse</t>
+  </si>
+  <si>
+    <t>University of Akron</t>
+  </si>
+  <si>
+    <t>330-658-3556</t>
+  </si>
+  <si>
+    <t>dcg@uakron.edu</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Galindo-Uribarri</t>
+  </si>
+  <si>
+    <t>uribarri@ornl.gov</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Garvey</t>
+  </si>
+  <si>
+    <t>505-667-9497</t>
+  </si>
+  <si>
+    <t>garvey@lanl.gov</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>Tribhuvan University</t>
+  </si>
+  <si>
+    <t>frenzsuman@gmail.com</t>
+  </si>
+  <si>
+    <t>Ardavan</t>
+  </si>
+  <si>
+    <t>Ghassemi</t>
+  </si>
+  <si>
+    <t>Hamamatsu Photonics USA</t>
+  </si>
+  <si>
+    <t>908-285-8483</t>
+  </si>
+  <si>
+    <t>aghassemi@hamamatsu.com</t>
+  </si>
+  <si>
+    <t>Karin</t>
+  </si>
+  <si>
+    <t>Gilje</t>
+  </si>
+  <si>
+    <t>kgilje@iit.edu</t>
+  </si>
+  <si>
+    <t>Maria Concepcion</t>
+  </si>
+  <si>
+    <t>Gonzalez-Garcia</t>
+  </si>
+  <si>
+    <t>maria.gonzalez-garcia@stonybrook.edu</t>
+  </si>
+  <si>
+    <t>Maury</t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>630-252-3646</t>
+  </si>
+  <si>
+    <t>maury.goodman@anl.gov</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>+1 631 344 3740</t>
+  </si>
+  <si>
+    <t>gordon@bnl.gov</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Gramellini</t>
+  </si>
+  <si>
+    <t>elena.gramellini@yale.edu</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>greenmp@ornl.gov</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Guglielmi</t>
+  </si>
+  <si>
+    <t>hack@bnl.gov</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>ariana.hackenburg@yale.edu</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Halzen</t>
+  </si>
+  <si>
+    <t>608-890-1124</t>
+  </si>
+  <si>
+    <t>halzen@icecube.wisc.edu</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>203-436-9504</t>
+  </si>
+  <si>
+    <t>ke.han@yale.edu</t>
+  </si>
+  <si>
+    <t>Sunej</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>516-673-1973</t>
+  </si>
+  <si>
+    <t>shans@bnl.gov</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>dharris@fnal.gov</t>
+  </si>
+  <si>
+    <t>Karsten</t>
+  </si>
+  <si>
+    <t>Heeger</t>
+  </si>
+  <si>
+    <t>karsten.heeger@yale.edu</t>
+  </si>
+  <si>
+    <t>Heisel</t>
+  </si>
+  <si>
+    <t>Max-Planck-Institut fuer Kernphysik</t>
+  </si>
+  <si>
+    <t>+49-6221-516827</t>
+  </si>
+  <si>
+    <t>mark.heisel@mpi-hd.mpg.de</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>mwherman@bnl.gov</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>773-702-7635</t>
+  </si>
+  <si>
+    <t>richardhill@uchicago.edu</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Holin</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>anna.holin@ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>Hotta</t>
+  </si>
+  <si>
+    <t>Hamamatsu Photonics K.K.</t>
+  </si>
+  <si>
+    <t>81-539-62-5248</t>
+  </si>
+  <si>
+    <t>hotta@etd.hpk.co.jp</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Huber</t>
+  </si>
+  <si>
+    <t>pahuber@vt.edu</t>
+  </si>
+  <si>
+    <t>Jaffe</t>
+  </si>
+  <si>
+    <t>djaffe@bnl.gov</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>513-376-1230</t>
+  </si>
+  <si>
+    <t>randy.johnson@uc.edu</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>631-344-8231</t>
+  </si>
+  <si>
+    <t>jjoshi@bnl.gov</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Karagiorgi</t>
+  </si>
+  <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
+    <t>321-604-1183</t>
+  </si>
+  <si>
+    <t>georgiak@FNAL.GOV</t>
+  </si>
+  <si>
+    <t>Kaufman</t>
+  </si>
+  <si>
+    <t>413-687-3666</t>
+  </si>
+  <si>
+    <t>ljkauf@indiana.edu</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Kayser</t>
+  </si>
+  <si>
+    <t>boris@fnal.gov</t>
+  </si>
+  <si>
+    <t>Kettell</t>
+  </si>
+  <si>
+    <t>kettell@bnl.gov</t>
+  </si>
+  <si>
+    <t>Kilgore</t>
+  </si>
+  <si>
+    <t>631-344-3748</t>
+  </si>
+  <si>
+    <t>william.kilgore@science.doe.gov</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>bkirby@bnl.gov</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>215-583-3599</t>
+  </si>
+  <si>
+    <t>jrk@hep.upenn.edu</t>
+  </si>
+  <si>
+    <t>Yury</t>
+  </si>
+  <si>
+    <t>Kolomensky</t>
+  </si>
+  <si>
+    <t>ygkolomensky@lbl.gov</t>
+  </si>
+  <si>
+    <t>Kriske</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>612-213-7051</t>
+  </si>
+  <si>
+    <t>kis0022@umn.edu</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>215-895-1545</t>
+  </si>
+  <si>
+    <t>lane@duphy4.physics.drexel.edu</t>
+  </si>
+  <si>
+    <t>Langford</t>
+  </si>
+  <si>
+    <t>thomas.langford@yale.edu</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Lankford</t>
+  </si>
+  <si>
+    <t>949-824-2632</t>
+  </si>
+  <si>
+    <t>Andrew.Lankford@uci.edu</t>
+  </si>
+  <si>
+    <t>Kwong</t>
+  </si>
+  <si>
+    <t>Lau</t>
+  </si>
+  <si>
+    <t>713-743-3618</t>
+  </si>
+  <si>
+    <t>lau@uh.edu</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Learned</t>
+  </si>
+  <si>
+    <t>808-722-0289</t>
+  </si>
+  <si>
+    <t>jlearned@hawaii.edu</t>
+  </si>
+  <si>
+    <t>Jiajie</t>
+  </si>
+  <si>
+    <t>Ling</t>
+  </si>
+  <si>
+    <t>jjling@illinois.edu</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>540-231-5321</t>
+  </si>
+  <si>
+    <t>jmlink@vt.edu</t>
+  </si>
+  <si>
+    <t>Lissauer</t>
+  </si>
+  <si>
+    <t>344-4864</t>
+  </si>
+  <si>
+    <t>lissauer@bnl.gov</t>
+  </si>
+  <si>
+    <t>Laurence</t>
+  </si>
+  <si>
+    <t>Littenberg</t>
+  </si>
+  <si>
+    <t>631 344-3811</t>
+  </si>
+  <si>
+    <t>littenbe@bnl.gov</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>Littlejohn</t>
+  </si>
+  <si>
+    <t>blittlej@iit.edu</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>CAEN Technologies</t>
+  </si>
+  <si>
+    <t>marco@caentech.com</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Lockwitz</t>
+  </si>
+  <si>
+    <t>269-932-8673</t>
+  </si>
+  <si>
+    <t>lockwitz@fnal.gov</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Lokajicek</t>
+  </si>
+  <si>
+    <t>Insitute of Physics of the Academy of Sciences of the Czech Republic</t>
+  </si>
+  <si>
+    <t>420604239805</t>
+  </si>
+  <si>
+    <t>lokajick@fzu.cz</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>505-667-6723</t>
+  </si>
+  <si>
+    <t>louis@lanl.gov</t>
+  </si>
+  <si>
+    <t>Kam-Biu</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>510-486-7054</t>
+  </si>
+  <si>
+    <t>k_luk@berkeley.edu</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Lykken</t>
+  </si>
+  <si>
+    <t>Marciano</t>
+  </si>
+  <si>
+    <t>marciano@bnl.gov</t>
+  </si>
+  <si>
+    <t>Jelena</t>
+  </si>
+  <si>
+    <t>Maricic</t>
+  </si>
+  <si>
+    <t>jelena@phys.hawaii.edu</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Markoff</t>
+  </si>
+  <si>
+    <t>North Carolina Central University</t>
+  </si>
+  <si>
+    <t>919-530-6452</t>
+  </si>
+  <si>
+    <t>dmarkoff@nccu.edu</t>
+  </si>
+  <si>
+    <t>Martinez Caicedo</t>
+  </si>
+  <si>
+    <t>damartin83@gmail.com</t>
+  </si>
+  <si>
+    <t>Mauger</t>
+  </si>
+  <si>
+    <t>505-667-6025</t>
+  </si>
+  <si>
+    <t>cmauger@lanl.gov</t>
+  </si>
+  <si>
+    <t>Konstantinos</t>
+  </si>
+  <si>
+    <t>Mavrokoridis</t>
+  </si>
+  <si>
+    <t>University of Liverpool</t>
+  </si>
+  <si>
+    <t>k.mavrokoridis@liv.ac.uk</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>McCluskey</t>
+  </si>
+  <si>
+    <t>mccluskey@fnal.gov</t>
+  </si>
+  <si>
+    <t>McKeen</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>mckeen@gmail.com</t>
+  </si>
+  <si>
+    <t>McKeown</t>
+  </si>
+  <si>
+    <t>Thomas Jefferson National Accelerator Facility</t>
+  </si>
+  <si>
+    <t>bmck@jlab.org</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>(505)667-7330</t>
+  </si>
+  <si>
+    <t>mills@lanl.gov</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>Mocioiu</t>
+  </si>
+  <si>
+    <t>irina@phys.psu.edu</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Monreal</t>
+  </si>
+  <si>
+    <t>University of California, Santa Barbara</t>
+  </si>
+  <si>
+    <t>bmonreal@physics.ucsb.edu</t>
+  </si>
+  <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>mooney@bnl.gov</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Morfin</t>
+  </si>
+  <si>
+    <t>1 630 840 4561</t>
+  </si>
+  <si>
+    <t>morfin@fnal.gov</t>
+  </si>
+  <si>
+    <t>Pieter</t>
+  </si>
+  <si>
+    <t>Mumm</t>
+  </si>
+  <si>
+    <t>National Institute of Standards and Technology</t>
+  </si>
+  <si>
+    <t>301.975.8355</t>
+  </si>
+  <si>
+    <t>pieter@nist.gov</t>
+  </si>
+  <si>
+    <t>Napolitano</t>
+  </si>
+  <si>
+    <t>Temple University</t>
+  </si>
+  <si>
+    <t>518-577-6630</t>
+  </si>
+  <si>
+    <t>tuf43817@temple.edu</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Neilson</t>
+  </si>
+  <si>
+    <t>neilson@drexel.edu</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>William and Mary</t>
+  </si>
+  <si>
+    <t>757-259-9006</t>
+  </si>
+  <si>
+    <t>jknels@wm.edu</t>
+  </si>
+  <si>
+    <t>Marzio</t>
+  </si>
+  <si>
+    <t>Nessi</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>marzio.nessi@cern.ch</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Norcini</t>
+  </si>
+  <si>
+    <t>203-436-9287</t>
+  </si>
+  <si>
+    <t>danielle.norcini@yale.edu</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>University of Texas at Austin</t>
+  </si>
+  <si>
+    <t>nova@physics.utexas.edu</t>
+  </si>
+  <si>
+    <t>Nygren</t>
+  </si>
+  <si>
+    <t>510 207 4747</t>
+  </si>
+  <si>
+    <t>nygren@uta.edu</t>
+  </si>
+  <si>
+    <t>Orebi Gann</t>
+  </si>
+  <si>
+    <t>gorebigann@lbl.gov</t>
+  </si>
+  <si>
+    <t>Ornella</t>
+  </si>
+  <si>
+    <t>Palamara</t>
+  </si>
+  <si>
+    <t>palamara@fnal.gov</t>
+  </si>
+  <si>
+    <t>Zohreh</t>
+  </si>
+  <si>
+    <t>Parsa</t>
+  </si>
+  <si>
+    <t>631 344 2085</t>
+  </si>
+  <si>
+    <t>parsa@bnl.gov</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>626-395-5753</t>
+  </si>
+  <si>
+    <t>rbpatter@caltech.edu</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>632-8102</t>
+  </si>
+  <si>
+    <t>peter.paul@stonybrook.edu</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Peres</t>
+  </si>
+  <si>
+    <t>UNICAMP</t>
+  </si>
+  <si>
+    <t>55-19-35215275</t>
+  </si>
+  <si>
+    <t>ORLANDO@IFI.UNICAMP.BR</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Pocar</t>
+  </si>
+  <si>
+    <t>University of Massachusetts, Amherst</t>
+  </si>
+  <si>
+    <t>650-7961853</t>
+  </si>
+  <si>
+    <t>pocar@umass.edu</t>
+  </si>
+  <si>
+    <t>Xin</t>
+  </si>
+  <si>
+    <t>Qian</t>
+  </si>
+  <si>
+    <t>1-631-344-3828</t>
+  </si>
+  <si>
+    <t>xqian@bnl.gov</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Raaf</t>
+  </si>
+  <si>
+    <t>jlraaf@fnal.gov</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Rameika</t>
+  </si>
+  <si>
+    <t>707-954-0945</t>
+  </si>
+  <si>
+    <t>rameika@fnal.gov</t>
+  </si>
+  <si>
+    <t>Gioacchino</t>
+  </si>
+  <si>
+    <t>Ranucci</t>
+  </si>
+  <si>
+    <t>Istituto Nazionale di Fisica Nucleare, Milano</t>
+  </si>
+  <si>
+    <t>393341262494</t>
+  </si>
+  <si>
+    <t>gioacchino.ranucci@mi.infn.it</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>drhray@ufl.edu</t>
+  </si>
+  <si>
+    <t>Reyna</t>
+  </si>
+  <si>
+    <t>Sandia National Laboratories</t>
+  </si>
+  <si>
+    <t>925-294-6283</t>
+  </si>
+  <si>
+    <t>dreyna@sandia.gov</t>
+  </si>
+  <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Triangle Universities Nuclear Laboratory</t>
+  </si>
+  <si>
+    <t>grayson@tunl.duke.edu</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Rodrigues</t>
+  </si>
+  <si>
+    <t>University of Rochester</t>
+  </si>
+  <si>
+    <t>prodrigues@pas.rochester.edu</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Romero Romero</t>
+  </si>
+  <si>
+    <t>ORNL/UTK</t>
+  </si>
+  <si>
+    <t>eromeror@vols.utk.edu</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Rosenberg</t>
+  </si>
+  <si>
+    <t>redmount@iastate.edu</t>
+  </si>
+  <si>
+    <t>Rosero</t>
+  </si>
+  <si>
+    <t>631-344-4992</t>
+  </si>
+  <si>
+    <t>rrosero@bnl.gov</t>
+  </si>
+  <si>
+    <t>Rountree</t>
+  </si>
+  <si>
+    <t>540 250 1648</t>
+  </si>
+  <si>
+    <t>rountree@vt.edu</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Rybolt</t>
+  </si>
+  <si>
+    <t>(865) 974-3342</t>
+  </si>
+  <si>
+    <t>brybolt@utk.edu</t>
+  </si>
+  <si>
+    <t>Mayly</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Iowa State University</t>
+  </si>
+  <si>
+    <t>617-7717531</t>
+  </si>
+  <si>
+    <t>mayly.sanchez@iastate.edu</t>
+  </si>
+  <si>
+    <t>Santucci</t>
+  </si>
+  <si>
+    <t>gabriel.santucci@stonybrook.edu</t>
+  </si>
+  <si>
+    <t>Schmitz</t>
+  </si>
+  <si>
+    <t>773-702-7477</t>
+  </si>
+  <si>
+    <t>dwschmitz@uchicago.edu</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Scholberg</t>
+  </si>
+  <si>
+    <t>schol@phy.duke.edu</t>
+  </si>
+  <si>
+    <t>Seckel</t>
+  </si>
+  <si>
+    <t>302-292-2198</t>
+  </si>
+  <si>
+    <t>seckel@bartol.udel.edu</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Shaevitz</t>
+  </si>
+  <si>
+    <t>shaevitz@nevis.columbia.edu</t>
+  </si>
+  <si>
+    <t>Shrock</t>
+  </si>
+  <si>
+    <t>robert.shrock@stonybrook.edu</t>
+  </si>
+  <si>
+    <t>Smy</t>
+  </si>
+  <si>
+    <t>smy@michael.ps.uci.edu</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>Soderberg</t>
+  </si>
+  <si>
+    <t>315-443-2565</t>
+  </si>
+  <si>
+    <t>msoderbe@syr.edu</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Sonzogni</t>
+  </si>
+  <si>
+    <t>(631) 344-5334</t>
+  </si>
+  <si>
+    <t>sonzogni@bnl.gov</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Alex.Sousa@uc.edu</t>
+  </si>
+  <si>
+    <t>Spitz</t>
+  </si>
+  <si>
+    <t>spitzj@mit.edu</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>St. John</t>
+  </si>
+  <si>
+    <t>205-568-6479</t>
+  </si>
+  <si>
+    <t>stjohn@fnal.gov</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>631 344 3262</t>
+  </si>
+  <si>
+    <t>stewart@bnl.gov</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>301-903-7998</t>
+  </si>
+  <si>
+    <t>alan.stone@science.doe.gov</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Strait</t>
+  </si>
+  <si>
+    <t>strait@fnal.gov</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>University of Maryland</t>
+  </si>
+  <si>
+    <t>301-405-6035</t>
+  </si>
+  <si>
+    <t>sullivan@icecube.umd.edu</t>
+  </si>
+  <si>
+    <t>Svoboda</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>916-412-8556</t>
+  </si>
+  <si>
+    <t>rsvoboda@physics.ucdavis.edu</t>
+  </si>
+  <si>
+    <t>Andrzej</t>
+  </si>
+  <si>
+    <t>Szelc</t>
+  </si>
+  <si>
+    <t>andrzej.szelc@yale.edu</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Tayloe</t>
+  </si>
+  <si>
+    <t>rtayloe@indiana.edu</t>
+  </si>
+  <si>
+    <t>Thomson</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>44-7512-250090</t>
+  </si>
+  <si>
+    <t>thomson@hep.phy.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Toups</t>
+  </si>
+  <si>
+    <t>919-451-2633</t>
+  </si>
+  <si>
+    <t>mtoups@mit.edu</t>
+  </si>
+  <si>
+    <t>Antonin</t>
+  </si>
+  <si>
+    <t>Vacheret</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>441865273411</t>
+  </si>
+  <si>
+    <t>Antonin.Vacheret@physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>Vagins</t>
+  </si>
+  <si>
+    <t>mvagins@uci.edu</t>
+  </si>
+  <si>
+    <t>Van de Water</t>
+  </si>
+  <si>
+    <t>505-695-8364</t>
+  </si>
+  <si>
+    <t>vdwater@lanl.gov</t>
+  </si>
+  <si>
+    <t>R Bruce</t>
+  </si>
+  <si>
+    <t>Vogelaar</t>
+  </si>
+  <si>
+    <t>540 231 8735</t>
+  </si>
+  <si>
+    <t>vogelaar@vt.edu</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>weber@lhep.unibe.ch</t>
+  </si>
+  <si>
+    <t>Wu-tsung</t>
+  </si>
+  <si>
+    <t>Weng</t>
+  </si>
+  <si>
+    <t>631-344-2135</t>
+  </si>
+  <si>
+    <t>weng@bnl.gov</t>
+  </si>
+  <si>
+    <t>Wetstein</t>
+  </si>
+  <si>
+    <t>630-885-9742</t>
+  </si>
+  <si>
+    <t>mwetstein@uchicago.edu</t>
+  </si>
+  <si>
+    <t>312-567-3734</t>
+  </si>
+  <si>
+    <t>whitec@iit.edu</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>865 335-9136</t>
+  </si>
+  <si>
+    <t>whitebr@ornl.gov</t>
+  </si>
+  <si>
+    <t>Whitehead</t>
+  </si>
+  <si>
+    <t>713-743-3502</t>
+  </si>
+  <si>
+    <t>lawhitehead@uh.edu</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Whittington</t>
+  </si>
+  <si>
+    <t>812-327-1912</t>
+  </si>
+  <si>
+    <t>dwwhitti@indiana.edu</t>
+  </si>
+  <si>
+    <t>Wilking</t>
+  </si>
+  <si>
+    <t>631-601-4322</t>
+  </si>
+  <si>
+    <t>michael.wilking@stonybrook.edu</t>
+  </si>
+  <si>
+    <t>Colorado State University</t>
+  </si>
+  <si>
+    <t>wilson@lamar.colostate.edu</t>
+  </si>
+  <si>
+    <t>pjw@fnal.gov</t>
+  </si>
+  <si>
+    <t>Winklehner</t>
+  </si>
+  <si>
+    <t>617 715 4280</t>
+  </si>
+  <si>
+    <t>winklehn@mit.edu</t>
+  </si>
+  <si>
+    <t>Winn</t>
+  </si>
+  <si>
+    <t>Fairfield University</t>
+  </si>
+  <si>
+    <t>winn@fairfield.edu</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>etw@bnl.gov</t>
+  </si>
+  <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>217-244-2792</t>
+  </si>
+  <si>
+    <t>liangyg@illinois.edu</t>
+  </si>
+  <si>
+    <t>Minfang</t>
+  </si>
+  <si>
+    <t>Yeh</t>
+  </si>
+  <si>
+    <t>yeh@bnl.gov</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Yokley</t>
+  </si>
+  <si>
+    <t>zwyokley@vt.edu</t>
+  </si>
+  <si>
+    <t>Jonghee</t>
+  </si>
+  <si>
+    <t>Yoo</t>
+  </si>
+  <si>
+    <t>630-840-3665</t>
+  </si>
+  <si>
+    <t>yoo@fnal.gov</t>
+  </si>
+  <si>
+    <t>Yoshizawa</t>
+  </si>
+  <si>
+    <t>Hamamatsu Photonics</t>
+  </si>
+  <si>
+    <t>81539-623151</t>
+  </si>
+  <si>
+    <t>yuji.yoshizawa@etd.hpk.co.jp</t>
+  </si>
+  <si>
+    <t>Bo</t>
+  </si>
+  <si>
+    <t>631 344 5184</t>
+  </si>
+  <si>
+    <t>yu@bnl.gov</t>
+  </si>
+  <si>
+    <t>Jaehoon</t>
+  </si>
+  <si>
+    <t>(817)272-2814</t>
+  </si>
+  <si>
+    <t>jaehoonyu@uta.edu</t>
+  </si>
+  <si>
+    <t>Chao</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>chao@bnl.gov</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
-      <b val="0"/>
-      <i val="0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11"/>
-      <strike val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,153 +2435,425 @@
   </fills>
   <borders count="2">
     <border>
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="22" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="14" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0" showGridLines="0" tabSelected="1">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="5.425781" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" style="1" width="18.28516" customWidth="1"/>
-    <col min="3" max="3" style="1" width="3.425781" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" style="1" width="17.71094" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" style="1" width="39.42578" customWidth="1"/>
-    <col min="6" max="6" style="2" width="28.42578" customWidth="1"/>
-    <col min="7" max="7" style="1" width="39" customWidth="1"/>
-    <col min="8" max="8" style="1" width="17" customWidth="1"/>
-    <col min="9" max="9" style="1" width="23.28516" customWidth="1"/>
-    <col min="10" max="10" style="1" width="51" customWidth="1"/>
-    <col min="11" max="11" style="1" width="15.85547" customWidth="1"/>
-    <col min="12" max="12" style="3" width="10.42578" customWidth="1"/>
-    <col min="13" max="13" style="3" width="10.71094" customWidth="1"/>
-    <col min="14" max="16384" style="1"/>
+    <col min="1" max="1" width="5.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="51" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="str">
-        <v>TITLE</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>FNAME</v>
-      </c>
-      <c r="C1" s="4" t="str">
-        <v>MI</v>
-      </c>
-      <c r="D1" s="4" t="str">
-        <v>LNAME</v>
-      </c>
-      <c r="E1" s="4" t="str">
-        <v>AFFILIATION</v>
-      </c>
-      <c r="F1" s="5" t="str">
-        <v>PHONE</v>
-      </c>
-      <c r="G1" s="4" t="str">
-        <v>EMAIL</v>
-      </c>
-      <c r="H1" s="4" t="str">
-        <v>ATTENDEETYPE</v>
-      </c>
-      <c r="I1" s="4" t="str">
-        <v>WORKGROUP1</v>
-      </c>
-      <c r="J1" s="4" t="str">
-        <v>WORKGROUP2</v>
-      </c>
-      <c r="K1" s="4" t="str">
-        <v>DATECREATED</v>
-      </c>
-      <c r="L1" s="4" t="str">
-        <v>Convenor</v>
-      </c>
-      <c r="M1" s="4" t="str">
-        <v>Organizing</v>
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="str">
-        <v>Corey</v>
+      <c r="B2" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6" t="str">
-        <v>Adams</v>
+      <c r="D2" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -487,8 +2861,8 @@
       <c r="F2" s="7">
         <v>6102466091</v>
       </c>
-      <c r="G2" s="6" t="str">
-        <v>corey.adams@yale.edu</v>
+      <c r="G2" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -500,30 +2874,30 @@
         <v>4</v>
       </c>
       <c r="K2" s="8">
-        <v>42033.5967476852</v>
+        <v>42033.596747685202</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <v>Jose</v>
+      <c r="B3" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="str">
-        <v>Alonso</v>
+      <c r="D3" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="str">
-        <v>925 254 7656</v>
-      </c>
-      <c r="G3" s="6" t="str">
-        <v>JRAlonso@LBL.gov</v>
+      <c r="F3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -535,30 +2909,30 @@
         <v>9</v>
       </c>
       <c r="K3" s="8">
-        <v>42013.9327314815</v>
+        <v>42013.932731481502</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="str">
-        <v>Artur</v>
+      <c r="B4" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="str">
-        <v>Ankowski</v>
+      <c r="D4" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="str">
-        <v>540-231-8731</v>
-      </c>
-      <c r="G4" s="6" t="str">
-        <v>artank@vt.edu</v>
+      <c r="F4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
@@ -570,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="8">
-        <v>42013.4141782407</v>
+        <v>42013.414178240702</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -581,17 +2955,17 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="str">
-        <v>Asaadi</v>
+      <c r="D5" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="str">
-        <v>979-846-8510</v>
-      </c>
-      <c r="G5" s="6" t="str">
-        <v>jaasaadi@syr.edu</v>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>2</v>
@@ -603,26 +2977,26 @@
         <v>4</v>
       </c>
       <c r="K5" s="8">
-        <v>42033.4767592593</v>
+        <v>42033.476759259298</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6"/>
-      <c r="B6" s="6" t="str">
-        <v>Jeffery</v>
+      <c r="B6" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6" t="str">
-        <v>Ashenfelter</v>
+      <c r="D6" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="str">
-        <v>203-687-7628</v>
-      </c>
-      <c r="G6" s="6" t="str">
-        <v>jeffery.ashenfelter@yale.edu</v>
+      <c r="F6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>8</v>
@@ -634,21 +3008,21 @@
         <v>18</v>
       </c>
       <c r="K6" s="8">
-        <v>42011.7204398148</v>
+        <v>42011.720439814802</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="str">
-        <v>Spencer</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <v>N</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <v>Axani</v>
+      <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>7</v>
@@ -656,8 +3030,8 @@
       <c r="F7" s="7">
         <v>6178523880</v>
       </c>
-      <c r="G7" s="6" t="str">
-        <v>saxani@mit.edu</v>
+      <c r="G7" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -669,26 +3043,26 @@
         <v>9</v>
       </c>
       <c r="K7" s="8">
-        <v>42013.802962963</v>
+        <v>42013.802962962996</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="6"/>
-      <c r="B8" s="6" t="str">
-        <v>Kaladi</v>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6" t="str">
-        <v>Babu</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <v>Oklahoma State University</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <v>405-744-5810</v>
-      </c>
-      <c r="G8" s="6" t="str">
-        <v>babu@okstate.edu</v>
+      <c r="D8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>8</v>
@@ -700,7 +3074,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="8">
-        <v>42012.4936342593</v>
+        <v>42012.493634259299</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -712,8 +3086,8 @@
         <v>22</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6" t="str">
-        <v>Backhouse</v>
+      <c r="D9" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>23</v>
@@ -721,8 +3095,8 @@
       <c r="F9" s="7">
         <v>6268407517</v>
       </c>
-      <c r="G9" s="6" t="str">
-        <v>bckhouse@caltech.edu</v>
+      <c r="G9" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>24</v>
@@ -734,21 +3108,21 @@
         <v>4</v>
       </c>
       <c r="K9" s="8">
-        <v>42012.627349537</v>
+        <v>42012.627349536997</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="str">
-        <v>Henry</v>
+      <c r="B10" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="str">
-        <v>Band</v>
+      <c r="D10" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1</v>
@@ -756,8 +3130,8 @@
       <c r="F10" s="7">
         <v>6599262655</v>
       </c>
-      <c r="G10" s="6" t="str">
-        <v>henry.band@yale.edu</v>
+      <c r="G10" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>8</v>
@@ -776,14 +3150,14 @@
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="str">
-        <v>Phillip</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <v>S</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <v>Barbeau</v>
+      <c r="B11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
@@ -791,8 +3165,8 @@
       <c r="F11" s="7">
         <v>7733690348</v>
       </c>
-      <c r="G11" s="6" t="str">
-        <v>psbarbeau@phy.duke.edu</v>
+      <c r="G11" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>24</v>
@@ -804,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="8">
-        <v>42013.5604976852</v>
+        <v>42013.560497685197</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
@@ -814,12 +3188,12 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="str">
-        <v>Nuno</v>
+      <c r="B12" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="6" t="str">
-        <v>Barros</v>
+      <c r="D12" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -827,8 +3201,8 @@
       <c r="F12" s="7">
         <v>2674018088</v>
       </c>
-      <c r="G12" s="6" t="str">
-        <v>nfbarros@hep.upenn.edu</v>
+      <c r="G12" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>2</v>
@@ -840,28 +3214,28 @@
         <v>4</v>
       </c>
       <c r="K12" s="8">
-        <v>42035.7748032407</v>
+        <v>42035.774803240703</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="str">
-        <v>Adam</v>
+      <c r="B13" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6" t="str">
-        <v>Bernstein</v>
+      <c r="D13" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="7" t="str">
-        <v>925-422-5918</v>
-      </c>
-      <c r="G13" s="6" t="str">
-        <v>bernstein3@llnl.gov</v>
+      <c r="F13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>24</v>
@@ -873,28 +3247,28 @@
         <v>18</v>
       </c>
       <c r="K13" s="8">
-        <v>41984.5856018519</v>
+        <v>41984.585601851897</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="str">
-        <v>Minerba</v>
+      <c r="B14" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6" t="str">
-        <v>Betancourt</v>
+      <c r="D14" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="7" t="str">
-        <v>630-840-2382</v>
-      </c>
-      <c r="G14" s="6" t="str">
-        <v>betan009@fnal.gov</v>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>2</v>
@@ -906,28 +3280,28 @@
         <v>4</v>
       </c>
       <c r="K14" s="8">
-        <v>42017.4887615741</v>
+        <v>42017.488761574103</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="str">
-        <v>Anwar</v>
+      <c r="B15" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6" t="str">
-        <v>Bhatti</v>
+      <c r="D15" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="7" t="str">
-        <v>301-903-4115</v>
-      </c>
-      <c r="G15" s="6" t="str">
-        <v>anwar.bhatti@science.doe.gov</v>
+      <c r="F15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>8</v>
@@ -939,17 +3313,17 @@
         <v>32</v>
       </c>
       <c r="K15" s="8">
-        <v>42031.3914467593</v>
+        <v>42031.391446759299</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6"/>
-      <c r="B16" s="6" t="str">
-        <v>Mary</v>
+      <c r="B16" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6" t="str">
-        <v>Bishai</v>
+      <c r="D16" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>33</v>
@@ -957,8 +3331,8 @@
       <c r="F16" s="7">
         <v>6313444877</v>
       </c>
-      <c r="G16" s="6" t="str">
-        <v>mbishai@bnl.gov</v>
+      <c r="G16" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>34</v>
@@ -970,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="8">
-        <v>41961.4940393519</v>
+        <v>41961.494039351899</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -978,21 +3352,21 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
-      <c r="B17" s="6" t="str">
-        <v>Edward</v>
+      <c r="B17" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6" t="str">
-        <v>Blucher</v>
+      <c r="D17" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="7" t="str">
-        <v>773-702-7486</v>
-      </c>
-      <c r="G17" s="6" t="str">
-        <v>blucher@hep.uchicago.edu</v>
+      <c r="F17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>24</v>
@@ -1004,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="K17" s="8">
-        <v>42023.4043981481</v>
+        <v>42023.404398148101</v>
       </c>
       <c r="M17" t="s">
         <v>21</v>
@@ -1012,21 +3386,21 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
-      <c r="B18" s="6" t="str">
-        <v>Julian</v>
+      <c r="B18" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6" t="str">
-        <v>Bouffard</v>
-      </c>
-      <c r="E18" s="6" t="str">
-        <v>SUNY Albany</v>
+      <c r="D18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="F18" s="7">
         <v>8022498505</v>
       </c>
-      <c r="G18" s="6" t="str">
-        <v>jmbouffa@gmail.com</v>
+      <c r="G18" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>2</v>
@@ -1038,26 +3412,26 @@
         <v>4</v>
       </c>
       <c r="K18" s="8">
-        <v>42037.5029513889</v>
+        <v>42037.502951388902</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
-      <c r="B19" s="6" t="str">
-        <v>Nathaniel</v>
+      <c r="B19" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6" t="str">
-        <v>Bowden</v>
+      <c r="D19" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="7" t="str">
-        <v>925 422 4923</v>
-      </c>
-      <c r="G19" s="6" t="str">
-        <v>nbowden@llnl.gov</v>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>8</v>
@@ -1069,7 +3443,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="8">
-        <v>41996.6307986111</v>
+        <v>41996.630798611099</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1078,17 +3452,17 @@
         <v>36</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6" t="str">
-        <v>Brice</v>
+      <c r="D20" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="7" t="str">
-        <v>630-840-8748</v>
-      </c>
-      <c r="G20" s="6" t="str">
-        <v>sbrice@fnal.gov</v>
+      <c r="F20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>24</v>
@@ -1111,17 +3485,17 @@
         <v>22</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="6" t="str">
-        <v>Bryan</v>
+      <c r="D21" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="7" t="str">
-        <v>865-241-4336</v>
-      </c>
-      <c r="G21" s="6" t="str">
-        <v>bryancd@ornl.gov</v>
+      <c r="F21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>24</v>
@@ -1133,28 +3507,28 @@
         <v>18</v>
       </c>
       <c r="K21" s="8">
-        <v>42013.4224884259</v>
+        <v>42013.422488425902</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="str">
-        <v>Leslie</v>
+      <c r="B22" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="6" t="str">
-        <v>Camilleri</v>
+      <c r="D22" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="7" t="str">
-        <v>914 591 2829</v>
-      </c>
-      <c r="G22" s="6" t="str">
-        <v>camil@nevis.columbia.edu</v>
+      <c r="F22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>8</v>
@@ -1166,7 +3540,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="8">
-        <v>41992.6967824074</v>
+        <v>41992.696782407402</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
@@ -1176,21 +3550,21 @@
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6" t="str">
-        <v>Jun</v>
+      <c r="B23" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6" t="str">
-        <v>Cao</v>
-      </c>
-      <c r="E23" s="6" t="str">
-        <v>Institute of High Energy Physics, Beijing</v>
-      </c>
-      <c r="F23" s="7" t="str">
-        <v>86-10-8823 5808</v>
-      </c>
-      <c r="G23" s="6" t="str">
-        <v>caoj@ihep.ac.cn</v>
+      <c r="D23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>8</v>
@@ -1202,28 +3576,28 @@
         <v>18</v>
       </c>
       <c r="K23" s="8">
-        <v>41962.9546643519</v>
+        <v>41962.954664351899</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="str">
-        <v>Joseph</v>
+      <c r="B24" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6" t="str">
-        <v>Carlson</v>
+      <c r="D24" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="7" t="str">
-        <v>505-667-6245</v>
-      </c>
-      <c r="G24" s="6" t="str">
-        <v>carlson@lanl.gov</v>
+      <c r="F24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>24</v>
@@ -1235,28 +3609,28 @@
         <v>13</v>
       </c>
       <c r="K24" s="8">
-        <v>41997.6788657407</v>
+        <v>41997.678865740701</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="6"/>
-      <c r="B25" s="6" t="str">
-        <v>Rachel</v>
+      <c r="B25" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="6" t="str">
-        <v>Carr</v>
+      <c r="D25" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="7" t="str">
-        <v>917-596-1199</v>
-      </c>
-      <c r="G25" s="6" t="str">
-        <v>rec2126@columbia.edu</v>
+      <c r="F25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>2</v>
@@ -1268,28 +3642,28 @@
         <v>18</v>
       </c>
       <c r="K25" s="8">
-        <v>42013.5353009259</v>
+        <v>42013.535300925898</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="6" t="str">
-        <v>Animesh</v>
+      <c r="B26" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="6" t="str">
-        <v>Chatterjee</v>
+      <c r="D26" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="7" t="str">
-        <v>469-684-2059</v>
-      </c>
-      <c r="G26" s="6" t="str">
-        <v>animesh.chetterjee@gmail.com</v>
+      <c r="F26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>2</v>
@@ -1301,19 +3675,19 @@
         <v>32</v>
       </c>
       <c r="K26" s="8">
-        <v>42026.7328587963</v>
+        <v>42026.732858796298</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="str">
-        <v>Mu-Chun</v>
+      <c r="B27" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6" t="str">
-        <v>Chen</v>
+      <c r="D27" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>42</v>
@@ -1321,8 +3695,8 @@
       <c r="F27" s="7">
         <v>9498247291</v>
       </c>
-      <c r="G27" s="6" t="str">
-        <v>muchunc@uci.edu</v>
+      <c r="G27" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>24</v>
@@ -1334,7 +3708,7 @@
         <v>13</v>
       </c>
       <c r="K27" s="8">
-        <v>41992.5005902778</v>
+        <v>41992.500590277799</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -1344,21 +3718,21 @@
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="str">
-        <v>Shaomin</v>
+      <c r="B28" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6" t="str">
-        <v>CHEN</v>
-      </c>
-      <c r="E28" s="6" t="str">
-        <v>Tsinghua University</v>
-      </c>
-      <c r="F28" s="7" t="str">
-        <v>86-62795757</v>
-      </c>
-      <c r="G28" s="6" t="str">
-        <v>chenshaomin@tsinghua.edu.cn</v>
+      <c r="D28" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>8</v>
@@ -1370,28 +3744,28 @@
         <v>32</v>
       </c>
       <c r="K28" s="8">
-        <v>42011.8468981481</v>
+        <v>42011.846898148098</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="str">
-        <v>Mickey</v>
+      <c r="B29" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6" t="str">
-        <v>Chiu</v>
+      <c r="D29" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="7" t="str">
-        <v>631-344-8428</v>
-      </c>
-      <c r="G29" s="6" t="str">
-        <v>chiu@bnl.gov</v>
+      <c r="F29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>34</v>
@@ -1403,30 +3777,30 @@
         <v>32</v>
       </c>
       <c r="K29" s="8">
-        <v>42032.6070023148</v>
+        <v>42032.607002314799</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="6" t="str">
-        <v>Eric</v>
+      <c r="B30" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="6" t="str">
-        <v>Church</v>
-      </c>
-      <c r="E30" s="6" t="str">
-        <v>FNAL/PNNL</v>
+      <c r="D30" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="F30" s="7">
         <v>5056033708</v>
       </c>
-      <c r="G30" s="6" t="str">
-        <v>echurch@fnal.gov</v>
+      <c r="G30" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>8</v>
@@ -1445,14 +3819,14 @@
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="str">
-        <v>Juan</v>
+      <c r="B31" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="6" t="str">
-        <v>Collar</v>
+      <c r="D31" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>35</v>
@@ -1460,8 +3834,8 @@
       <c r="F31" s="7">
         <v>7737101898</v>
       </c>
-      <c r="G31" s="6" t="str">
-        <v>collar@uchicago.edu</v>
+      <c r="G31" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>8</v>
@@ -1473,7 +3847,7 @@
         <v>9</v>
       </c>
       <c r="K31" s="8">
-        <v>41964.6084143519</v>
+        <v>41964.608414351896</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1484,17 +3858,17 @@
         <v>45</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6" t="str">
-        <v>Collin</v>
+      <c r="D32" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="7" t="str">
-        <v>(617) 615-9620</v>
-      </c>
-      <c r="G32" s="6" t="str">
-        <v>gabrielc@mit.edu</v>
+      <c r="F32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>2</v>
@@ -1506,30 +3880,30 @@
         <v>4</v>
       </c>
       <c r="K32" s="8">
-        <v>42013.7060069444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>42013.706006944398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="6" t="str">
-        <v>Janet</v>
+      <c r="B33" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6" t="str">
-        <v>Conrad</v>
+      <c r="D33" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="7" t="str">
-        <v>617-324-6281</v>
-      </c>
-      <c r="G33" s="6" t="str">
-        <v>conrad@mit.edu</v>
+      <c r="F33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>8</v>
@@ -1544,7 +3918,7 @@
         <v>42013.4845138889</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:12">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -1554,17 +3928,17 @@
       <c r="C34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="6" t="str">
-        <v>Convery</v>
-      </c>
-      <c r="E34" s="6" t="str">
-        <v>SLAC National Accelerator Laboratory</v>
+      <c r="D34" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="F34" s="7">
         <v>6507032473</v>
       </c>
-      <c r="G34" s="6" t="str">
-        <v>convery@slac.stanford.edu</v>
+      <c r="G34" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>8</v>
@@ -1576,13 +3950,13 @@
         <v>32</v>
       </c>
       <c r="K34" s="8">
-        <v>42027.6353935185</v>
+        <v>42027.635393518503</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>47</v>
@@ -1590,8 +3964,8 @@
       <c r="C35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="6" t="str">
-        <v>Cooper</v>
+      <c r="D35" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>49</v>
@@ -1599,8 +3973,8 @@
       <c r="F35" s="7">
         <v>8128554590</v>
       </c>
-      <c r="G35" s="6" t="str">
-        <v>roblcoop@indiana.edu</v>
+      <c r="G35" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>2</v>
@@ -1615,14 +3989,14 @@
         <v>42013.705775463</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:12">
       <c r="A36" s="6"/>
-      <c r="B36" s="6" t="str">
-        <v>Doug</v>
+      <c r="B36" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="6" t="str">
-        <v>Cowen</v>
+      <c r="D36" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>50</v>
@@ -1630,8 +4004,8 @@
       <c r="F36" s="7">
         <v>8148635943</v>
       </c>
-      <c r="G36" s="6" t="str">
-        <v>cowen@phys.psu.edu</v>
+      <c r="G36" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>8</v>
@@ -1643,29 +4017,29 @@
         <v>32</v>
       </c>
       <c r="K36" s="8">
-        <v>41962.7149189815</v>
+        <v>41962.714918981503</v>
       </c>
       <c r="L36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:12">
       <c r="A37" s="6"/>
-      <c r="B37" s="6" t="str">
-        <v>Glen</v>
+      <c r="B37" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6" t="str">
-        <v>Crawford</v>
+      <c r="D37" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="7" t="str">
-        <v>301-903-4829</v>
-      </c>
-      <c r="G37" s="6" t="str">
-        <v>glen.crawford@science.doe.gov</v>
+      <c r="F37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>24</v>
@@ -1677,28 +4051,28 @@
         <v>32</v>
       </c>
       <c r="K37" s="8">
-        <v>42012.4102546296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>42012.410254629598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="6" t="str">
-        <v>Hooman</v>
+      <c r="B38" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6" t="str">
-        <v>Davoudiasl</v>
+      <c r="D38" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="7" t="str">
-        <v>x 3856</v>
-      </c>
-      <c r="G38" s="6" t="str">
-        <v>hooman@bnl.gov</v>
+      <c r="F38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>34</v>
@@ -1710,28 +4084,28 @@
         <v>13</v>
       </c>
       <c r="K38" s="8">
-        <v>42027.6353703704</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>42027.635370370401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="6" t="str">
-        <v>Andre</v>
+      <c r="B39" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="6" t="str">
-        <v>De Gouvea</v>
-      </c>
-      <c r="E39" s="6" t="str">
-        <v>Northwestern University</v>
-      </c>
-      <c r="F39" s="7" t="str">
-        <v>847 467-6462</v>
-      </c>
-      <c r="G39" s="6" t="str">
-        <v>degouvea@northwestern.edu</v>
+      <c r="D39" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>24</v>
@@ -1743,10 +4117,10 @@
         <v>13</v>
       </c>
       <c r="K39" s="8">
-        <v>42011.4607523148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>42011.460752314801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -1756,8 +4130,8 @@
       <c r="C40" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="6" t="str">
-        <v>Dean</v>
+      <c r="D40" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>37</v>
@@ -1765,8 +4139,8 @@
       <c r="F40" s="7">
         <v>8655765229</v>
       </c>
-      <c r="G40" s="6" t="str">
-        <v>deandj@ornl.gov</v>
+      <c r="G40" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>24</v>
@@ -1781,7 +4155,7 @@
         <v>42018.6089236111</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:12">
       <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
@@ -1789,17 +4163,17 @@
         <v>53</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6" t="str">
-        <v>Deichert</v>
+      <c r="D41" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="7" t="str">
-        <v>865-241-3946</v>
-      </c>
-      <c r="G41" s="6" t="str">
-        <v>deichertgg@ornl.gov</v>
+      <c r="F41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>8</v>
@@ -1814,16 +4188,16 @@
         <v>41985.6411689815</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:12">
       <c r="A42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="6" t="str">
-        <v>Freija</v>
+      <c r="B42" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6" t="str">
-        <v>Descamps</v>
+      <c r="D42" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>54</v>
@@ -1831,8 +4205,8 @@
       <c r="F42" s="7">
         <v>5104991929</v>
       </c>
-      <c r="G42" s="6" t="str">
-        <v>fbdescamps@lbl.gov</v>
+      <c r="G42" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>2</v>
@@ -1844,26 +4218,26 @@
         <v>32</v>
       </c>
       <c r="K42" s="8">
-        <v>42020.824525463</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>42020.824525463002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="6"/>
-      <c r="B43" s="6" t="str">
-        <v>Tyce</v>
+      <c r="B43" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6" t="str">
-        <v>DeYoung</v>
-      </c>
-      <c r="E43" s="6" t="str">
-        <v>Michigan State University</v>
+      <c r="D43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="F43" s="7">
         <v>5178845715</v>
       </c>
-      <c r="G43" s="6" t="str">
-        <v>deyoung@pa.msu.edu</v>
+      <c r="G43" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>24</v>
@@ -1875,28 +4249,28 @@
         <v>32</v>
       </c>
       <c r="K43" s="8">
-        <v>42010.6525462963</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>42010.652546296304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="6"/>
-      <c r="B44" s="6" t="str">
-        <v>Milind</v>
-      </c>
-      <c r="C44" s="6" t="str">
-        <v>V</v>
-      </c>
-      <c r="D44" s="6" t="str">
-        <v>Diwan</v>
+      <c r="B44" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="7" t="str">
-        <v>631-344-3327</v>
-      </c>
-      <c r="G44" s="6" t="str">
-        <v>diwan@bnl.gov</v>
+      <c r="F44" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>34</v>
@@ -1908,19 +4282,19 @@
         <v>32</v>
       </c>
       <c r="K44" s="8">
-        <v>42014.4883796296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>42014.488379629598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="6" t="str">
-        <v>Zelimir</v>
+      <c r="B45" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45" s="6" t="str">
-        <v>Djurcic</v>
+      <c r="D45" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>55</v>
@@ -1928,8 +4302,8 @@
       <c r="F45" s="7">
         <v>6302527549</v>
       </c>
-      <c r="G45" s="6" t="str">
-        <v>zdjurcic@anl.gov</v>
+      <c r="G45" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>8</v>
@@ -1941,24 +4315,24 @@
         <v>18</v>
       </c>
       <c r="K45" s="8">
-        <v>41995.7395601852</v>
+        <v>41995.739560185197</v>
       </c>
       <c r="L45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:12">
       <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="6" t="str">
-        <v>Michelle</v>
+      <c r="B46" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="6" t="str">
-        <v>Dolinski</v>
+      <c r="D46" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>56</v>
@@ -1966,8 +4340,8 @@
       <c r="F46" s="7">
         <v>2158956860</v>
       </c>
-      <c r="G46" s="6" t="str">
-        <v>dolinski@drexel.edu</v>
+      <c r="G46" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>8</v>
@@ -1979,26 +4353,26 @@
         <v>18</v>
       </c>
       <c r="K46" s="8">
-        <v>42010.6900578704</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>42010.690057870401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="6" t="str">
-        <v>Dolph</v>
+      <c r="D47" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="7" t="str">
-        <v>631-344-5777</v>
-      </c>
-      <c r="G47" s="6" t="str">
-        <v>jdolph@bnl.gov</v>
+      <c r="F47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>34</v>
@@ -2010,26 +4384,26 @@
         <v>18</v>
       </c>
       <c r="K47" s="8">
-        <v>42010.3547337963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>42010.354733796303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="6"/>
-      <c r="B48" s="6" t="str">
-        <v>Bill</v>
+      <c r="B48" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6" t="str">
-        <v>Donnelly</v>
+      <c r="D48" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="7" t="str">
-        <v>617-253-4847</v>
-      </c>
-      <c r="G48" s="6" t="str">
-        <v>donnelly@mit.edu</v>
+      <c r="F48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>24</v>
@@ -2041,7 +4415,7 @@
         <v>13</v>
       </c>
       <c r="K48" s="8">
-        <v>42024.4534259259</v>
+        <v>42024.453425925902</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2054,17 +4428,17 @@
       <c r="C49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="6" t="str">
-        <v>Dwyer</v>
+      <c r="D49" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="7" t="str">
-        <v>510-486-4254</v>
-      </c>
-      <c r="G49" s="6" t="str">
-        <v>dadwyer@lbl.gov</v>
+      <c r="F49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>8</v>
@@ -2076,7 +4450,7 @@
         <v>18</v>
       </c>
       <c r="K49" s="8">
-        <v>41979.3997569444</v>
+        <v>41979.399756944404</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2087,17 +4461,17 @@
         <v>59</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="6" t="str">
-        <v>Dytman</v>
-      </c>
-      <c r="E50" s="6" t="str">
-        <v>University of Pittsburgh</v>
+      <c r="D50" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="F50" s="7">
         <v>4126249244</v>
       </c>
-      <c r="G50" s="6" t="str">
-        <v>dytman@pitt.edu</v>
+      <c r="G50" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>24</v>
@@ -2109,28 +4483,28 @@
         <v>4</v>
       </c>
       <c r="K50" s="8">
-        <v>42030.9406597222</v>
+        <v>42030.940659722197</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="6" t="str">
-        <v>Yuri</v>
+      <c r="B51" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="6" t="str">
-        <v>Efremenko</v>
+      <c r="D51" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F51" s="7" t="str">
-        <v>865-406-4846</v>
-      </c>
-      <c r="G51" s="6" t="str">
-        <v>yefremen@utk.edu</v>
+      <c r="F51" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>8</v>
@@ -2142,7 +4516,7 @@
         <v>9</v>
       </c>
       <c r="K51" s="8">
-        <v>41983.7103472222</v>
+        <v>41983.710347222201</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2155,8 +4529,8 @@
       <c r="C52" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="6" t="str">
-        <v>Everett</v>
+      <c r="D52" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>62</v>
@@ -2164,8 +4538,8 @@
       <c r="F52" s="7">
         <v>6086956320</v>
       </c>
-      <c r="G52" s="6" t="str">
-        <v>leverett@wisc.edu</v>
+      <c r="G52" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>24</v>
@@ -2177,28 +4551,28 @@
         <v>13</v>
       </c>
       <c r="K52" s="8">
-        <v>42016.6988541667</v>
+        <v>42016.698854166701</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="6" t="str">
-        <v>Angela</v>
+      <c r="B53" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="6" t="str">
-        <v>Fava</v>
+      <c r="D53" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="7" t="str">
-        <v>393495226817</v>
-      </c>
-      <c r="G53" s="6" t="str">
-        <v>fava@pd.infn.it</v>
+      <c r="F53" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>24</v>
@@ -2210,28 +4584,28 @@
         <v>4</v>
       </c>
       <c r="K53" s="8">
-        <v>42031.1525</v>
+        <v>42031.152499999997</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="6" t="str">
-        <v>Enectali</v>
+      <c r="B54" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="6" t="str">
-        <v>Figueroa-Feliciano</v>
+      <c r="D54" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="7" t="str">
-        <v>617-304-0003</v>
-      </c>
-      <c r="G54" s="6" t="str">
-        <v>enectali@mit.edu</v>
+      <c r="F54" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>24</v>
@@ -2243,26 +4617,26 @@
         <v>18</v>
       </c>
       <c r="K54" s="8">
-        <v>42027.6119444444</v>
+        <v>42027.611944444398</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="6"/>
-      <c r="B55" s="6" t="str">
-        <v>Bonnie</v>
+      <c r="B55" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="6" t="str">
-        <v>Fleming</v>
+      <c r="D55" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="7" t="str">
-        <v>203-231-0733</v>
-      </c>
-      <c r="G55" s="6" t="str">
-        <v>bonnie.fleming@yale.edu</v>
+      <c r="F55" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>8</v>
@@ -2274,7 +4648,7 @@
         <v>4</v>
       </c>
       <c r="K55" s="8">
-        <v>41976.3975578704</v>
+        <v>41976.397557870398</v>
       </c>
       <c r="M55" t="s">
         <v>21</v>
@@ -2284,21 +4658,21 @@
       <c r="A56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="6" t="str">
-        <v>Alexander</v>
+      <c r="B56" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="6" t="str">
-        <v>Friedland</v>
+      <c r="D56" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F56" s="7" t="str">
-        <v>505-664-0083</v>
-      </c>
-      <c r="G56" s="6" t="str">
-        <v>alexfriedland@gmail.com</v>
+      <c r="F56" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>24</v>
@@ -2326,8 +4700,8 @@
       <c r="C57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="6" t="str">
-        <v>Fujikawa</v>
+      <c r="D57" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>54</v>
@@ -2335,8 +4709,8 @@
       <c r="F57" s="7">
         <v>5104864398</v>
       </c>
-      <c r="G57" s="6" t="str">
-        <v>bkfujikawa@lbl.gov</v>
+      <c r="G57" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>8</v>
@@ -2348,7 +4722,7 @@
         <v>9</v>
       </c>
       <c r="K57" s="8">
-        <v>42013.7073032407</v>
+        <v>42013.707303240699</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2359,17 +4733,17 @@
       <c r="C58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="6" t="str">
-        <v>Gaisser</v>
+      <c r="D58" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="7" t="str">
-        <v>302-831-8113</v>
-      </c>
-      <c r="G58" s="6" t="str">
-        <v>gaisser@udel.edu</v>
+      <c r="F58" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>24</v>
@@ -2381,28 +4755,28 @@
         <v>13</v>
       </c>
       <c r="K58" s="8">
-        <v>42034.4021180556</v>
+        <v>42034.402118055601</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="6" t="str">
-        <v>Massimiliano</v>
+      <c r="B59" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="6" t="str">
-        <v>Galeazzi</v>
-      </c>
-      <c r="E59" s="6" t="str">
-        <v>University of Miami</v>
-      </c>
-      <c r="F59" s="7" t="str">
-        <v>305-284-7141</v>
-      </c>
-      <c r="G59" s="6" t="str">
-        <v>galeazzi@physics.miami.edu</v>
+      <c r="D59" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>24</v>
@@ -2414,7 +4788,7 @@
         <v>32</v>
       </c>
       <c r="K59" s="8">
-        <v>42033.903587963</v>
+        <v>42033.903587963003</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2427,17 +4801,17 @@
       <c r="C60" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="6" t="str">
-        <v>Galehouse</v>
-      </c>
-      <c r="E60" s="6" t="str">
-        <v>University of Akron</v>
-      </c>
-      <c r="F60" s="7" t="str">
-        <v>330-658-3556</v>
-      </c>
-      <c r="G60" s="6" t="str">
-        <v>dcg@uakron.edu</v>
+      <c r="D60" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>8</v>
@@ -2449,19 +4823,19 @@
         <v>13</v>
       </c>
       <c r="K60" s="8">
-        <v>42013.4830902778</v>
+        <v>42013.483090277798</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="6" t="str">
-        <v>Alfredo</v>
+      <c r="B61" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="C61" s="6"/>
-      <c r="D61" s="6" t="str">
-        <v>Galindo-Uribarri</v>
+      <c r="D61" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>37</v>
@@ -2469,8 +4843,8 @@
       <c r="F61" s="7">
         <v>8655746124</v>
       </c>
-      <c r="G61" s="6" t="str">
-        <v>uribarri@ornl.gov</v>
+      <c r="G61" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>8</v>
@@ -2482,30 +4856,30 @@
         <v>18</v>
       </c>
       <c r="K61" s="8">
-        <v>41964.9727430556</v>
+        <v>41964.972743055601</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="6" t="str">
-        <v>Gerald</v>
-      </c>
-      <c r="C62" s="6" t="str">
-        <v>T</v>
-      </c>
-      <c r="D62" s="6" t="str">
-        <v>Garvey</v>
+      <c r="B62" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="7" t="str">
-        <v>505-667-9497</v>
-      </c>
-      <c r="G62" s="6" t="str">
-        <v>garvey@lanl.gov</v>
+      <c r="F62" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>8</v>
@@ -2517,7 +4891,7 @@
         <v>9</v>
       </c>
       <c r="K62" s="8">
-        <v>41995.5269675926</v>
+        <v>41995.526967592603</v>
       </c>
       <c r="L62" t="s">
         <v>21</v>
@@ -2527,21 +4901,21 @@
       <c r="A63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="6" t="str">
-        <v>Suman</v>
+      <c r="B63" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="6" t="str">
-        <v>Gautam</v>
-      </c>
-      <c r="E63" s="6" t="str">
-        <v>Tribhuvan University</v>
+      <c r="D63" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="F63" s="7">
         <v>9846142632</v>
       </c>
-      <c r="G63" s="6" t="str">
-        <v>frenzsuman@gmail.com</v>
+      <c r="G63" s="6" t="s">
+        <v>327</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>2</v>
@@ -2553,28 +4927,28 @@
         <v>13</v>
       </c>
       <c r="K63" s="8">
-        <v>42005.4768402778</v>
+        <v>42005.476840277799</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="6" t="str">
-        <v>Ardavan</v>
+      <c r="B64" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="6" t="str">
-        <v>Ghassemi</v>
-      </c>
-      <c r="E64" s="6" t="str">
-        <v>Hamamatsu Photonics USA</v>
-      </c>
-      <c r="F64" s="7" t="str">
-        <v>908-285-8483</v>
-      </c>
-      <c r="G64" s="6" t="str">
-        <v>aghassemi@hamamatsu.com</v>
+      <c r="D64" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>8</v>
@@ -2586,21 +4960,21 @@
         <v>32</v>
       </c>
       <c r="K64" s="8">
-        <v>42011.6265856481</v>
+        <v>42011.626585648097</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="6" t="str">
-        <v>Karin</v>
+      <c r="B65" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="6" t="str">
-        <v>Gilje</v>
+      <c r="D65" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>69</v>
@@ -2608,8 +4982,8 @@
       <c r="F65" s="7">
         <v>5073018908</v>
       </c>
-      <c r="G65" s="6" t="str">
-        <v>kgilje@iit.edu</v>
+      <c r="G65" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>2</v>
@@ -2621,19 +4995,19 @@
         <v>18</v>
       </c>
       <c r="K65" s="8">
-        <v>42011.6462384259</v>
+        <v>42011.646238425899</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="6" t="str">
-        <v>Maria Concepcion</v>
+      <c r="B66" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="6" t="str">
-        <v>Gonzalez-Garcia</v>
+      <c r="D66" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>70</v>
@@ -2641,8 +5015,8 @@
       <c r="F66" s="7">
         <v>6316327971</v>
       </c>
-      <c r="G66" s="6" t="str">
-        <v>maria.gonzalez-garcia@stonybrook.edu</v>
+      <c r="G66" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>24</v>
@@ -2654,7 +5028,7 @@
         <v>13</v>
       </c>
       <c r="K66" s="8">
-        <v>42025.4707407407</v>
+        <v>42025.470740740697</v>
       </c>
       <c r="L66" t="s">
         <v>21</v>
@@ -2662,23 +5036,23 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="6"/>
-      <c r="B67" s="6" t="str">
-        <v>Maury</v>
+      <c r="B67" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="6" t="str">
-        <v>Goodman</v>
+      <c r="D67" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="7" t="str">
-        <v>630-252-3646</v>
-      </c>
-      <c r="G67" s="6" t="str">
-        <v>maury.goodman@anl.gov</v>
+      <c r="F67" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>8</v>
@@ -2690,28 +5064,28 @@
         <v>18</v>
       </c>
       <c r="K67" s="8">
-        <v>41969.7479398148</v>
+        <v>41969.747939814799</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="6" t="str">
-        <v>Howard</v>
+      <c r="B68" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="6" t="str">
-        <v>Gordon</v>
+      <c r="D68" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F68" s="7" t="str">
-        <v>+1 631 344 3740</v>
-      </c>
-      <c r="G68" s="6" t="str">
-        <v>gordon@bnl.gov</v>
+      <c r="F68" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>34</v>
@@ -2723,7 +5097,7 @@
         <v>32</v>
       </c>
       <c r="K68" s="8">
-        <v>41976.5845486111</v>
+        <v>41976.584548611099</v>
       </c>
       <c r="M68" t="s">
         <v>21</v>
@@ -2731,12 +5105,12 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="6"/>
-      <c r="B69" s="6" t="str">
-        <v>Elena</v>
+      <c r="B69" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="6" t="str">
-        <v>Gramellini</v>
+      <c r="D69" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>1</v>
@@ -2744,8 +5118,8 @@
       <c r="F69" s="7">
         <v>2039016607</v>
       </c>
-      <c r="G69" s="6" t="str">
-        <v>elena.gramellini@yale.edu</v>
+      <c r="G69" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>2</v>
@@ -2757,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="K69" s="8">
-        <v>42033.5972685185</v>
+        <v>42033.597268518497</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -2767,11 +5141,11 @@
       <c r="B70" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="6" t="str">
-        <v>P</v>
-      </c>
-      <c r="D70" s="6" t="str">
-        <v>Green</v>
+      <c r="C70" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>37</v>
@@ -2779,8 +5153,8 @@
       <c r="F70" s="7">
         <v>6502488775</v>
       </c>
-      <c r="G70" s="6" t="str">
-        <v>greenmp@ornl.gov</v>
+      <c r="G70" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>8</v>
@@ -2792,15 +5166,15 @@
         <v>9</v>
       </c>
       <c r="K70" s="8">
-        <v>42009.5742361111</v>
+        <v>42009.574236111097</v>
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="B71" s="6" t="str">
-        <v>Alberto</v>
-      </c>
-      <c r="D71" t="str">
-        <v>Guglielmi</v>
+      <c r="B71" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D71" t="s">
+        <v>354</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>63</v>
@@ -2826,8 +5200,8 @@
       <c r="F72" s="7">
         <v>6313442088</v>
       </c>
-      <c r="G72" s="6" t="str">
-        <v>hack@bnl.gov</v>
+      <c r="G72" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>34</v>
@@ -2839,13 +5213,13 @@
         <v>32</v>
       </c>
       <c r="K72" s="8">
-        <v>42016.6279282407</v>
+        <v>42016.627928240698</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="6"/>
-      <c r="B73" s="6" t="str">
-        <v>Ariana</v>
+      <c r="B73" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
@@ -2857,8 +5231,8 @@
       <c r="F73" s="7">
         <v>6318917245</v>
       </c>
-      <c r="G73" s="6" t="str">
-        <v>ariana.hackenburg@yale.edu</v>
+      <c r="G73" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>2</v>
@@ -2870,26 +5244,26 @@
         <v>4</v>
       </c>
       <c r="K73" s="8">
-        <v>42032.6751041667</v>
+        <v>42032.675104166701</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="6"/>
-      <c r="B74" s="6" t="str">
-        <v>Francis</v>
+      <c r="B74" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="C74" s="6"/>
-      <c r="D74" s="6" t="str">
-        <v>Halzen</v>
+      <c r="D74" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F74" s="7" t="str">
-        <v>608-890-1124</v>
-      </c>
-      <c r="G74" s="6" t="str">
-        <v>halzen@icecube.wisc.edu</v>
+      <c r="F74" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>8</v>
@@ -2901,26 +5275,26 @@
         <v>13</v>
       </c>
       <c r="K74" s="8">
-        <v>42024.5397685185</v>
+        <v>42024.539768518502</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="6"/>
-      <c r="B75" s="6" t="str">
-        <v>Ke</v>
+      <c r="B75" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="C75" s="6"/>
-      <c r="D75" s="6" t="str">
-        <v>Han</v>
+      <c r="D75" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F75" s="7" t="str">
-        <v>203-436-9504</v>
-      </c>
-      <c r="G75" s="6" t="str">
-        <v>ke.han@yale.edu</v>
+      <c r="F75" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>8</v>
@@ -2939,21 +5313,21 @@
       <c r="A76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="6" t="str">
-        <v>Sunej</v>
+      <c r="B76" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="6" t="str">
-        <v>Hans</v>
+      <c r="D76" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F76" s="7" t="str">
-        <v>516-673-1973</v>
-      </c>
-      <c r="G76" s="6" t="str">
-        <v>shans@bnl.gov</v>
+      <c r="F76" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>34</v>
@@ -2965,19 +5339,19 @@
         <v>32</v>
       </c>
       <c r="K76" s="8">
-        <v>42011.6481365741</v>
+        <v>42011.648136574098</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="6" t="str">
-        <v>Deborah</v>
+      <c r="B77" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C77" s="6"/>
-      <c r="D77" s="6" t="str">
-        <v>Harris</v>
+      <c r="D77" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>30</v>
@@ -2985,8 +5359,8 @@
       <c r="F77" s="7">
         <v>6308404545</v>
       </c>
-      <c r="G77" s="6" t="str">
-        <v>dharris@fnal.gov</v>
+      <c r="G77" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>8</v>
@@ -2998,21 +5372,21 @@
         <v>4</v>
       </c>
       <c r="K77" s="8">
-        <v>42006.9343402778</v>
+        <v>42006.934340277803</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="6" t="str">
-        <v>Karsten</v>
+      <c r="B78" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="6" t="str">
-        <v>Heeger</v>
+      <c r="D78" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>1</v>
@@ -3020,8 +5394,8 @@
       <c r="F78" s="7">
         <v>4752012702</v>
       </c>
-      <c r="G78" s="6" t="str">
-        <v>karsten.heeger@yale.edu</v>
+      <c r="G78" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>8</v>
@@ -3033,7 +5407,7 @@
         <v>18</v>
       </c>
       <c r="K78" s="8">
-        <v>41976.3914236111</v>
+        <v>41976.391423611101</v>
       </c>
       <c r="L78" t="s">
         <v>21</v>
@@ -3050,17 +5424,17 @@
         <v>46</v>
       </c>
       <c r="C79" s="6"/>
-      <c r="D79" s="6" t="str">
-        <v>Heisel</v>
-      </c>
-      <c r="E79" s="6" t="str">
-        <v>Max-Planck-Institut fuer Kernphysik</v>
-      </c>
-      <c r="F79" s="7" t="str">
-        <v>+49-6221-516827</v>
-      </c>
-      <c r="G79" s="6" t="str">
-        <v>mark.heisel@mpi-hd.mpg.de</v>
+      <c r="D79" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>2</v>
@@ -3072,19 +5446,19 @@
         <v>32</v>
       </c>
       <c r="K79" s="8">
-        <v>42013.4805787037</v>
+        <v>42013.480578703697</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="6" t="str">
-        <v>Michal</v>
+      <c r="B80" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="C80" s="6"/>
-      <c r="D80" s="6" t="str">
-        <v>Herman</v>
+      <c r="D80" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>33</v>
@@ -3092,8 +5466,8 @@
       <c r="F80" s="7">
         <v>2802</v>
       </c>
-      <c r="G80" s="6" t="str">
-        <v>mwherman@bnl.gov</v>
+      <c r="G80" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>34</v>
@@ -3105,7 +5479,7 @@
         <v>18</v>
       </c>
       <c r="K80" s="8">
-        <v>42033.955474537</v>
+        <v>42033.955474536997</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3116,17 +5490,17 @@
         <v>74</v>
       </c>
       <c r="C81" s="6"/>
-      <c r="D81" s="6" t="str">
-        <v>Hill</v>
+      <c r="D81" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="7" t="str">
-        <v>773-702-7635</v>
-      </c>
-      <c r="G81" s="6" t="str">
-        <v>richardhill@uchicago.edu</v>
+      <c r="F81" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>8</v>
@@ -3138,28 +5512,28 @@
         <v>13</v>
       </c>
       <c r="K81" s="8">
-        <v>41965.7917708333</v>
+        <v>41965.791770833297</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="6" t="str">
-        <v>Anna</v>
+      <c r="B82" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="C82" s="6"/>
-      <c r="D82" s="6" t="str">
-        <v>Holin</v>
-      </c>
-      <c r="E82" s="6" t="str">
-        <v>University College London</v>
+      <c r="D82" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="F82" s="7">
         <v>2076797159</v>
       </c>
-      <c r="G82" s="6" t="str">
-        <v>anna.holin@ucl.ac.uk</v>
+      <c r="G82" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>8</v>
@@ -3171,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="K82" s="8">
-        <v>42032.4303009259</v>
+        <v>42032.430300925902</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3182,17 +5556,17 @@
         <v>75</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="6" t="str">
-        <v>Hotta</v>
-      </c>
-      <c r="E83" s="6" t="str">
-        <v>Hamamatsu Photonics K.K.</v>
-      </c>
-      <c r="F83" s="7" t="str">
-        <v>81-539-62-5248</v>
-      </c>
-      <c r="G83" s="6" t="str">
-        <v>hotta@etd.hpk.co.jp</v>
+      <c r="D83" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>8</v>
@@ -3204,19 +5578,19 @@
         <v>32</v>
       </c>
       <c r="K83" s="8">
-        <v>42012.1672569444</v>
+        <v>42012.167256944398</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="6" t="str">
-        <v>Patrick</v>
+      <c r="B84" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="6" t="str">
-        <v>Huber</v>
+      <c r="D84" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>11</v>
@@ -3224,8 +5598,8 @@
       <c r="F84" s="7">
         <v>5402318727</v>
       </c>
-      <c r="G84" s="6" t="str">
-        <v>pahuber@vt.edu</v>
+      <c r="G84" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>8</v>
@@ -3237,7 +5611,7 @@
         <v>9</v>
       </c>
       <c r="K84" s="8">
-        <v>41976.5922916667</v>
+        <v>41976.592291666697</v>
       </c>
       <c r="L84" t="s">
         <v>21</v>
@@ -3251,8 +5625,8 @@
       <c r="C85" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="6" t="str">
-        <v>Jaffe</v>
+      <c r="D85" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>33</v>
@@ -3260,8 +5634,8 @@
       <c r="F85" s="7">
         <v>6313445518</v>
       </c>
-      <c r="G85" s="6" t="str">
-        <v>djaffe@bnl.gov</v>
+      <c r="G85" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>34</v>
@@ -3273,28 +5647,28 @@
         <v>32</v>
       </c>
       <c r="K85" s="8">
-        <v>41962.3948032407</v>
+        <v>41962.394803240699</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="6"/>
-      <c r="B86" s="6" t="str">
-        <v>Randy</v>
+      <c r="B86" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="6" t="str">
-        <v>Johnson</v>
+      <c r="D86" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F86" s="7" t="str">
-        <v>513-376-1230</v>
-      </c>
-      <c r="G86" s="6" t="str">
-        <v>randy.johnson@uc.edu</v>
+      <c r="F86" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>24</v>
@@ -3306,28 +5680,28 @@
         <v>4</v>
       </c>
       <c r="K86" s="8">
-        <v>42019.7929976852</v>
+        <v>42019.792997685203</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B87" s="6" t="str">
-        <v>Jyoti</v>
+      <c r="B87" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="C87" s="6"/>
-      <c r="D87" s="6" t="str">
-        <v>Joshi</v>
+      <c r="D87" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F87" s="7" t="str">
-        <v>631-344-8231</v>
-      </c>
-      <c r="G87" s="6" t="str">
-        <v>jjoshi@bnl.gov</v>
+      <c r="F87" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>34</v>
@@ -3339,28 +5713,28 @@
         <v>32</v>
       </c>
       <c r="K87" s="8">
-        <v>42006.4559722222</v>
+        <v>42006.455972222197</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="6" t="str">
-        <v>Georgia</v>
+      <c r="B88" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="6" t="str">
-        <v>Karagiorgi</v>
-      </c>
-      <c r="E88" s="6" t="str">
-        <v>University of Manchester</v>
-      </c>
-      <c r="F88" s="7" t="str">
-        <v>321-604-1183</v>
-      </c>
-      <c r="G88" s="6" t="str">
-        <v>georgiak@FNAL.GOV</v>
+      <c r="D88" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>8</v>
@@ -3372,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="K88" s="8">
-        <v>41978.6928703704</v>
+        <v>41978.692870370403</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3383,17 +5757,17 @@
         <v>61</v>
       </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="6" t="str">
-        <v>Kaufman</v>
+      <c r="D89" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="7" t="str">
-        <v>413-687-3666</v>
-      </c>
-      <c r="G89" s="6" t="str">
-        <v>ljkauf@indiana.edu</v>
+      <c r="F89" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>8</v>
@@ -3405,17 +5779,17 @@
         <v>9</v>
       </c>
       <c r="K89" s="8">
-        <v>41974.9440162037</v>
+        <v>41974.944016203699</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="6"/>
-      <c r="B90" s="6" t="str">
-        <v>Boris</v>
+      <c r="B90" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="C90" s="6"/>
-      <c r="D90" s="6" t="str">
-        <v>Kayser</v>
+      <c r="D90" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>30</v>
@@ -3423,8 +5797,8 @@
       <c r="F90" s="7">
         <v>6308408196</v>
       </c>
-      <c r="G90" s="6" t="str">
-        <v>boris@fnal.gov</v>
+      <c r="G90" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>24</v>
@@ -3444,9 +5818,11 @@
       <c r="B91" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6" t="str">
-        <v>Kettell</v>
+      <c r="C91" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>33</v>
@@ -3454,8 +5830,8 @@
       <c r="F91" s="7">
         <v>6313445323</v>
       </c>
-      <c r="G91" s="6" t="str">
-        <v>kettell@bnl.gov</v>
+      <c r="G91" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>34</v>
@@ -3467,7 +5843,7 @@
         <v>18</v>
       </c>
       <c r="K91" s="8">
-        <v>41975.8153935185</v>
+        <v>41975.815393518496</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
@@ -3482,17 +5858,17 @@
         <v>77</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="6" t="str">
-        <v>Kilgore</v>
+      <c r="D92" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="7" t="str">
-        <v>631-344-3748</v>
-      </c>
-      <c r="G92" s="6" t="str">
-        <v>william.kilgore@science.doe.gov</v>
+      <c r="F92" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>34</v>
@@ -3504,7 +5880,7 @@
         <v>13</v>
       </c>
       <c r="K92" s="8">
-        <v>41988.6092476852</v>
+        <v>41988.609247685199</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3517,8 +5893,8 @@
       <c r="C93" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D93" s="6" t="str">
-        <v>Kirby</v>
+      <c r="D93" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>33</v>
@@ -3526,8 +5902,8 @@
       <c r="F93" s="7">
         <v>6313445879</v>
       </c>
-      <c r="G93" s="6" t="str">
-        <v>bkirby@bnl.gov</v>
+      <c r="G93" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>34</v>
@@ -3539,7 +5915,7 @@
         <v>32</v>
       </c>
       <c r="K93" s="8">
-        <v>42016.5635300926</v>
+        <v>42016.563530092601</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3550,17 +5926,17 @@
       <c r="C94" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="6" t="str">
-        <v>Klein</v>
+      <c r="D94" s="6" t="s">
+        <v>425</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F94" s="7" t="str">
-        <v>215-583-3599</v>
-      </c>
-      <c r="G94" s="6" t="str">
-        <v>jrk@hep.upenn.edu</v>
+      <c r="F94" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>8</v>
@@ -3572,7 +5948,7 @@
         <v>32</v>
       </c>
       <c r="K94" s="8">
-        <v>42012.6054166667</v>
+        <v>42012.605416666702</v>
       </c>
       <c r="L94" t="s">
         <v>21</v>
@@ -3585,14 +5961,14 @@
       <c r="A95" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="6" t="str">
-        <v>Yury</v>
+      <c r="B95" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="6" t="str">
-        <v>Kolomensky</v>
+      <c r="D95" s="6" t="s">
+        <v>429</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>80</v>
@@ -3600,8 +5976,8 @@
       <c r="F95" s="7">
         <v>5106429619</v>
       </c>
-      <c r="G95" s="6" t="str">
-        <v>ygkolomensky@lbl.gov</v>
+      <c r="G95" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>8</v>
@@ -3613,7 +5989,7 @@
         <v>9</v>
       </c>
       <c r="K95" s="8">
-        <v>42023.2929282407</v>
+        <v>42023.292928240699</v>
       </c>
       <c r="L95" t="s">
         <v>21</v>
@@ -3629,17 +6005,17 @@
       <c r="C96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="6" t="str">
-        <v>Kriske</v>
-      </c>
-      <c r="E96" s="6" t="str">
-        <v>University of Minnesota</v>
-      </c>
-      <c r="F96" s="7" t="str">
-        <v>612-213-7051</v>
-      </c>
-      <c r="G96" s="6" t="str">
-        <v>kis0022@umn.edu</v>
+      <c r="D96" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>8</v>
@@ -3651,30 +6027,30 @@
         <v>32</v>
       </c>
       <c r="K96" s="8">
-        <v>41984.7881481481</v>
+        <v>41984.788148148102</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="6" t="str">
-        <v>Charles</v>
+      <c r="B97" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D97" s="6" t="str">
-        <v>Lane</v>
+      <c r="D97" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F97" s="7" t="str">
-        <v>215-895-1545</v>
-      </c>
-      <c r="G97" s="6" t="str">
-        <v>lane@duphy4.physics.drexel.edu</v>
+      <c r="F97" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>8</v>
@@ -3686,7 +6062,7 @@
         <v>18</v>
       </c>
       <c r="K97" s="8">
-        <v>42012.5903240741</v>
+        <v>42012.590324074103</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -3699,8 +6075,8 @@
       <c r="C98" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D98" s="6" t="str">
-        <v>Langford</v>
+      <c r="D98" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>1</v>
@@ -3708,8 +6084,8 @@
       <c r="F98" s="7">
         <v>2402710217</v>
       </c>
-      <c r="G98" s="6" t="str">
-        <v>thomas.langford@yale.edu</v>
+      <c r="G98" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>2</v>
@@ -3721,7 +6097,7 @@
         <v>18</v>
       </c>
       <c r="K98" s="8">
-        <v>41979.4234722222</v>
+        <v>41979.423472222203</v>
       </c>
       <c r="M98" t="s">
         <v>21</v>
@@ -3729,21 +6105,21 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="6"/>
-      <c r="B99" s="6" t="str">
-        <v>Andy</v>
+      <c r="B99" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="C99" s="6"/>
-      <c r="D99" s="6" t="str">
-        <v>Lankford</v>
+      <c r="D99" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F99" s="7" t="str">
-        <v>949-824-2632</v>
-      </c>
-      <c r="G99" s="6" t="str">
-        <v>Andrew.Lankford@uci.edu</v>
+      <c r="F99" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>8</v>
@@ -3762,21 +6138,21 @@
       <c r="A100" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B100" s="6" t="str">
-        <v>Kwong</v>
+      <c r="B100" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C100" s="6"/>
-      <c r="D100" s="6" t="str">
-        <v>Lau</v>
+      <c r="D100" s="6" t="s">
+        <v>446</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F100" s="7" t="str">
-        <v>713-743-3618</v>
-      </c>
-      <c r="G100" s="6" t="str">
-        <v>lau@uh.edu</v>
+      <c r="F100" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>8</v>
@@ -3788,30 +6164,30 @@
         <v>18</v>
       </c>
       <c r="K100" s="8">
-        <v>41995.5856597222</v>
+        <v>41995.585659722201</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="6" t="str">
-        <v>John</v>
+      <c r="B101" s="6" t="s">
+        <v>449</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="6" t="str">
-        <v>Learned</v>
+      <c r="D101" s="6" t="s">
+        <v>450</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F101" s="7" t="str">
-        <v>808-722-0289</v>
-      </c>
-      <c r="G101" s="6" t="str">
-        <v>jlearned@hawaii.edu</v>
+      <c r="F101" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>452</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>8</v>
@@ -3823,19 +6199,19 @@
         <v>18</v>
       </c>
       <c r="K101" s="8">
-        <v>41975.7804050926</v>
+        <v>41975.780405092599</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="6" t="str">
-        <v>Jiajie</v>
+      <c r="B102" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="C102" s="6"/>
-      <c r="D102" s="6" t="str">
-        <v>Ling</v>
+      <c r="D102" s="6" t="s">
+        <v>454</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>83</v>
@@ -3843,8 +6219,8 @@
       <c r="F102" s="7">
         <v>6307652589</v>
       </c>
-      <c r="G102" s="6" t="str">
-        <v>jjling@illinois.edu</v>
+      <c r="G102" s="6" t="s">
+        <v>455</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>2</v>
@@ -3856,7 +6232,7 @@
         <v>18</v>
       </c>
       <c r="K102" s="8">
-        <v>42034.6728356481</v>
+        <v>42034.672835648104</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -3869,17 +6245,17 @@
       <c r="C103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="6" t="str">
-        <v>Link</v>
+      <c r="D103" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="7" t="str">
-        <v>540-231-5321</v>
-      </c>
-      <c r="G103" s="6" t="str">
-        <v>jmlink@vt.edu</v>
+      <c r="F103" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>458</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>24</v>
@@ -3891,7 +6267,7 @@
         <v>9</v>
       </c>
       <c r="K103" s="8">
-        <v>41976.4405902778</v>
+        <v>41976.440590277802</v>
       </c>
       <c r="L103" t="s">
         <v>21</v>
@@ -3906,17 +6282,17 @@
         <v>51</v>
       </c>
       <c r="C104" s="6"/>
-      <c r="D104" s="6" t="str">
-        <v>Lissauer</v>
+      <c r="D104" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F104" s="7" t="str">
-        <v>344-4864</v>
-      </c>
-      <c r="G104" s="6" t="str">
-        <v>lissauer@bnl.gov</v>
+      <c r="F104" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>34</v>
@@ -3928,7 +6304,7 @@
         <v>4</v>
       </c>
       <c r="K104" s="8">
-        <v>41975.7772222222</v>
+        <v>41975.777222222197</v>
       </c>
       <c r="M104" t="s">
         <v>21</v>
@@ -3938,21 +6314,21 @@
       <c r="A105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="6" t="str">
-        <v>Laurence</v>
+      <c r="B105" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="C105" s="6"/>
-      <c r="D105" s="6" t="str">
-        <v>Littenberg</v>
+      <c r="D105" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F105" s="7" t="str">
-        <v>631 344-3811</v>
-      </c>
-      <c r="G105" s="6" t="str">
-        <v>littenbe@bnl.gov</v>
+      <c r="F105" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>34</v>
@@ -3964,7 +6340,7 @@
         <v>18</v>
       </c>
       <c r="K105" s="8">
-        <v>41976.3737268519</v>
+        <v>41976.373726851903</v>
       </c>
       <c r="M105" t="s">
         <v>21</v>
@@ -3974,14 +6350,14 @@
       <c r="A106" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B106" s="6" t="str">
-        <v>Bryce</v>
+      <c r="B106" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="6" t="str">
-        <v>Littlejohn</v>
+      <c r="D106" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>30</v>
@@ -3989,8 +6365,8 @@
       <c r="F106" s="7">
         <v>6083548279</v>
       </c>
-      <c r="G106" s="6" t="str">
-        <v>blittlej@iit.edu</v>
+      <c r="G106" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>8</v>
@@ -4002,7 +6378,7 @@
         <v>18</v>
       </c>
       <c r="K106" s="8">
-        <v>42011.8703587963</v>
+        <v>42011.870358796303</v>
       </c>
       <c r="L106" t="s">
         <v>21</v>
@@ -4012,21 +6388,21 @@
       <c r="A107" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="6" t="str">
-        <v>Marco</v>
+      <c r="B107" s="6" t="s">
+        <v>469</v>
       </c>
       <c r="C107" s="6"/>
-      <c r="D107" s="6" t="str">
-        <v>Locatelli</v>
-      </c>
-      <c r="E107" s="6" t="str">
-        <v>CAEN Technologies</v>
+      <c r="D107" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="F107" s="7">
         <v>7185015309</v>
       </c>
-      <c r="G107" s="6" t="str">
-        <v>marco@caentech.com</v>
+      <c r="G107" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>8</v>
@@ -4038,26 +6414,26 @@
         <v>18</v>
       </c>
       <c r="K107" s="8">
-        <v>42018.368587963</v>
+        <v>42018.368587962999</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="6"/>
-      <c r="B108" s="6" t="str">
-        <v>Sarah</v>
+      <c r="B108" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="C108" s="6"/>
-      <c r="D108" s="6" t="str">
-        <v>Lockwitz</v>
+      <c r="D108" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F108" s="7" t="str">
-        <v>269-932-8673</v>
-      </c>
-      <c r="G108" s="6" t="str">
-        <v>lockwitz@fnal.gov</v>
+      <c r="F108" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>2</v>
@@ -4069,26 +6445,26 @@
         <v>32</v>
       </c>
       <c r="K108" s="8">
-        <v>42018.7722106481</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>42018.772210648101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="30">
       <c r="A109" s="6"/>
-      <c r="B109" s="6" t="str">
-        <v>Milos</v>
+      <c r="B109" s="6" t="s">
+        <v>477</v>
       </c>
       <c r="C109" s="6"/>
-      <c r="D109" s="6" t="str">
-        <v>Lokajicek</v>
-      </c>
-      <c r="E109" s="6" t="str">
-        <v>Insitute of Physics of the Academy of Sciences of the Czech Republic</v>
-      </c>
-      <c r="F109" s="7" t="str">
-        <v>420604239805</v>
-      </c>
-      <c r="G109" s="6" t="str">
-        <v>lokajick@fzu.cz</v>
+      <c r="D109" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>8</v>
@@ -4100,7 +6476,7 @@
         <v>32</v>
       </c>
       <c r="K109" s="8">
-        <v>42024.3926157407</v>
+        <v>42024.392615740697</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4113,17 +6489,17 @@
       <c r="C110" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D110" s="6" t="str">
-        <v>Louis</v>
+      <c r="D110" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F110" s="7" t="str">
-        <v>505-667-6723</v>
-      </c>
-      <c r="G110" s="6" t="str">
-        <v>louis@lanl.gov</v>
+      <c r="F110" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>8</v>
@@ -4135,7 +6511,7 @@
         <v>9</v>
       </c>
       <c r="K110" s="8">
-        <v>41967.5684143519</v>
+        <v>41967.568414351903</v>
       </c>
       <c r="L110" t="s">
         <v>21</v>
@@ -4143,21 +6519,21 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="6"/>
-      <c r="B111" s="6" t="str">
-        <v>Kam-Biu</v>
+      <c r="B111" s="6" t="s">
+        <v>485</v>
       </c>
       <c r="C111" s="6"/>
-      <c r="D111" s="6" t="str">
-        <v>Luk</v>
+      <c r="D111" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F111" s="7" t="str">
-        <v>510-486-7054</v>
-      </c>
-      <c r="G111" s="6" t="str">
-        <v>k_luk@berkeley.edu</v>
+      <c r="F111" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>488</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>8</v>
@@ -4169,15 +6545,15 @@
         <v>32</v>
       </c>
       <c r="K111" s="8">
-        <v>42030.5338310185</v>
+        <v>42030.533831018503</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="B112" s="6" t="str">
-        <v>Joe</v>
-      </c>
-      <c r="D112" s="6" t="str">
-        <v>Lykken</v>
+      <c r="B112" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>490</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>30</v>
@@ -4192,7 +6568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:12">
       <c r="A113" s="6" t="s">
         <v>5</v>
       </c>
@@ -4202,8 +6578,8 @@
       <c r="C113" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D113" s="6" t="str">
-        <v>Marciano</v>
+      <c r="D113" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>33</v>
@@ -4211,8 +6587,8 @@
       <c r="F113" s="7">
         <v>6313443151</v>
       </c>
-      <c r="G113" s="6" t="str">
-        <v>marciano@bnl.gov</v>
+      <c r="G113" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>34</v>
@@ -4224,19 +6600,19 @@
         <v>13</v>
       </c>
       <c r="K113" s="8">
-        <v>42013.6672800926</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>42013.667280092603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B114" s="6" t="str">
-        <v>Jelena</v>
+      <c r="B114" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="C114" s="6"/>
-      <c r="D114" s="6" t="str">
-        <v>Maricic</v>
+      <c r="D114" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>82</v>
@@ -4244,8 +6620,8 @@
       <c r="F114" s="7">
         <v>8082061742</v>
       </c>
-      <c r="G114" s="6" t="str">
-        <v>jelena@phys.hawaii.edu</v>
+      <c r="G114" s="6" t="s">
+        <v>495</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>24</v>
@@ -4257,33 +6633,33 @@
         <v>9</v>
       </c>
       <c r="K114" s="8">
-        <v>41998.3016203704</v>
+        <v>41998.301620370403</v>
       </c>
       <c r="L114" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:12">
       <c r="A115" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="6" t="str">
-        <v>Diane</v>
+      <c r="B115" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="6" t="str">
-        <v>Markoff</v>
-      </c>
-      <c r="E115" s="6" t="str">
-        <v>North Carolina Central University</v>
-      </c>
-      <c r="F115" s="7" t="str">
-        <v>919-530-6452</v>
-      </c>
-      <c r="G115" s="6" t="str">
-        <v>dmarkoff@nccu.edu</v>
+      <c r="D115" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>8</v>
@@ -4298,7 +6674,7 @@
         <v>42008.9242592593</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:12">
       <c r="A116" s="6" t="s">
         <v>5</v>
       </c>
@@ -4308,8 +6684,8 @@
       <c r="C116" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="6" t="str">
-        <v>Martinez Caicedo</v>
+      <c r="D116" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>69</v>
@@ -4317,8 +6693,8 @@
       <c r="F116" s="7">
         <v>2193169749</v>
       </c>
-      <c r="G116" s="6" t="str">
-        <v>damartin83@gmail.com</v>
+      <c r="G116" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>2</v>
@@ -4333,7 +6709,7 @@
         <v>42013.7209953704</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:12">
       <c r="A117" s="6" t="s">
         <v>5</v>
       </c>
@@ -4341,17 +6717,17 @@
         <v>22</v>
       </c>
       <c r="C117" s="6"/>
-      <c r="D117" s="6" t="str">
-        <v>Mauger</v>
+      <c r="D117" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F117" s="7" t="str">
-        <v>505-667-6025</v>
-      </c>
-      <c r="G117" s="6" t="str">
-        <v>cmauger@lanl.gov</v>
+      <c r="F117" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>505</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>8</v>
@@ -4366,25 +6742,25 @@
         <v>42012.5160300926</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:12">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="6" t="str">
-        <v>Konstantinos</v>
+      <c r="B118" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="C118" s="6"/>
-      <c r="D118" s="6" t="str">
-        <v>Mavrokoridis</v>
-      </c>
-      <c r="E118" s="6" t="str">
-        <v>University of Liverpool</v>
+      <c r="D118" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="F118" s="7">
         <v>447737461854</v>
       </c>
-      <c r="G118" s="6" t="str">
-        <v>k.mavrokoridis@liv.ac.uk</v>
+      <c r="G118" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>8</v>
@@ -4396,17 +6772,17 @@
         <v>32</v>
       </c>
       <c r="K118" s="8">
-        <v>42019.2545949074</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>42019.254594907397</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="6"/>
-      <c r="B119" s="6" t="str">
-        <v>Elaine</v>
+      <c r="B119" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="C119" s="6"/>
-      <c r="D119" s="6" t="str">
-        <v>McCluskey</v>
+      <c r="D119" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>30</v>
@@ -4414,8 +6790,8 @@
       <c r="F119" s="7">
         <v>6308402193</v>
       </c>
-      <c r="G119" s="6" t="str">
-        <v>mccluskey@fnal.gov</v>
+      <c r="G119" s="6" t="s">
+        <v>512</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>8</v>
@@ -4430,7 +6806,7 @@
         <v>42010.7348726852</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:12">
       <c r="A120" s="6" t="s">
         <v>5</v>
       </c>
@@ -4438,17 +6814,17 @@
         <v>51</v>
       </c>
       <c r="C120" s="6"/>
-      <c r="D120" s="6" t="str">
-        <v>McKeen</v>
-      </c>
-      <c r="E120" s="6" t="str">
-        <v>University of Washington</v>
+      <c r="D120" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="F120" s="7">
         <v>7734013299</v>
       </c>
-      <c r="G120" s="6" t="str">
-        <v>mckeen@gmail.com</v>
+      <c r="G120" s="6" t="s">
+        <v>515</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>2</v>
@@ -4460,10 +6836,10 @@
         <v>13</v>
       </c>
       <c r="K120" s="8">
-        <v>42014.1110648148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>42014.111064814802</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="6" t="s">
         <v>25</v>
       </c>
@@ -4471,17 +6847,17 @@
         <v>47</v>
       </c>
       <c r="C121" s="6"/>
-      <c r="D121" s="6" t="str">
-        <v>McKeown</v>
-      </c>
-      <c r="E121" s="6" t="str">
-        <v>Thomas Jefferson National Accelerator Facility</v>
+      <c r="D121" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="F121" s="7">
         <v>6263902073</v>
       </c>
-      <c r="G121" s="6" t="str">
-        <v>bmck@jlab.org</v>
+      <c r="G121" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>8</v>
@@ -4493,10 +6869,10 @@
         <v>18</v>
       </c>
       <c r="K121" s="8">
-        <v>42011.8946296296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>42011.894629629598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="6" t="s">
         <v>5</v>
       </c>
@@ -4504,17 +6880,17 @@
         <v>53</v>
       </c>
       <c r="C122" s="6"/>
-      <c r="D122" s="6" t="str">
-        <v>Mills</v>
+      <c r="D122" s="6" t="s">
+        <v>519</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F122" s="7" t="str">
-        <v>(505)667-7330</v>
-      </c>
-      <c r="G122" s="6" t="str">
-        <v>mills@lanl.gov</v>
+      <c r="F122" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>24</v>
@@ -4526,17 +6902,17 @@
         <v>4</v>
       </c>
       <c r="K122" s="8">
-        <v>41985.5696296296</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>41985.569629629601</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="6"/>
-      <c r="B123" s="6" t="str">
-        <v>Irina</v>
+      <c r="B123" s="6" t="s">
+        <v>522</v>
       </c>
       <c r="C123" s="6"/>
-      <c r="D123" s="6" t="str">
-        <v>Mocioiu</v>
+      <c r="D123" s="6" t="s">
+        <v>523</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>50</v>
@@ -4544,8 +6920,8 @@
       <c r="F123" s="7">
         <v>8054532850</v>
       </c>
-      <c r="G123" s="6" t="str">
-        <v>irina@phys.psu.edu</v>
+      <c r="G123" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>8</v>
@@ -4560,25 +6936,25 @@
         <v>42006.5632175926</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:12">
       <c r="A124" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B124" s="6" t="str">
-        <v>Benjamin</v>
+      <c r="B124" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C124" s="6"/>
-      <c r="D124" s="6" t="str">
-        <v>Monreal</v>
-      </c>
-      <c r="E124" s="6" t="str">
-        <v>University of California, Santa Barbara</v>
+      <c r="D124" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>527</v>
       </c>
       <c r="F124" s="7">
         <v>8058933440</v>
       </c>
-      <c r="G124" s="6" t="str">
-        <v>bmonreal@physics.ucsb.edu</v>
+      <c r="G124" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>24</v>
@@ -4596,7 +6972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:12">
       <c r="A125" s="6" t="s">
         <v>5</v>
       </c>
@@ -4606,8 +6982,8 @@
       <c r="C125" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="6" t="str">
-        <v>Mooney</v>
+      <c r="D125" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>33</v>
@@ -4615,8 +6991,8 @@
       <c r="F125" s="7">
         <v>6099178510</v>
       </c>
-      <c r="G125" s="6" t="str">
-        <v>mooney@bnl.gov</v>
+      <c r="G125" s="6" t="s">
+        <v>530</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>34</v>
@@ -4628,30 +7004,30 @@
         <v>32</v>
       </c>
       <c r="K125" s="8">
-        <v>42010.0117708333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>42010.011770833298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="6" t="str">
-        <v>Jorge</v>
+      <c r="B126" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D126" s="6" t="str">
-        <v>Morfin</v>
+      <c r="D126" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F126" s="7" t="str">
-        <v>1 630 840 4561</v>
-      </c>
-      <c r="G126" s="6" t="str">
-        <v>morfin@fnal.gov</v>
+      <c r="F126" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>8</v>
@@ -4663,29 +7039,29 @@
         <v>4</v>
       </c>
       <c r="K126" s="8">
-        <v>41967.9314467593</v>
+        <v>41967.931446759299</v>
       </c>
       <c r="L126" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:12">
       <c r="A127" s="6"/>
-      <c r="B127" s="6" t="str">
-        <v>Pieter</v>
+      <c r="B127" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="C127" s="6"/>
-      <c r="D127" s="6" t="str">
-        <v>Mumm</v>
-      </c>
-      <c r="E127" s="6" t="str">
-        <v>National Institute of Standards and Technology</v>
-      </c>
-      <c r="F127" s="7" t="str">
-        <v>301.975.8355</v>
-      </c>
-      <c r="G127" s="6" t="str">
-        <v>pieter@nist.gov</v>
+      <c r="D127" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>8</v>
@@ -4697,10 +7073,10 @@
         <v>18</v>
       </c>
       <c r="K127" s="8">
-        <v>42002.3740740741</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>42002.374074074098</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="6" t="s">
         <v>25</v>
       </c>
@@ -4708,17 +7084,17 @@
         <v>85</v>
       </c>
       <c r="C128" s="6"/>
-      <c r="D128" s="6" t="str">
-        <v>Napolitano</v>
-      </c>
-      <c r="E128" s="6" t="str">
-        <v>Temple University</v>
-      </c>
-      <c r="F128" s="7" t="str">
-        <v>518-577-6630</v>
-      </c>
-      <c r="G128" s="6" t="str">
-        <v>tuf43817@temple.edu</v>
+      <c r="D128" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>8</v>
@@ -4730,19 +7106,19 @@
         <v>18</v>
       </c>
       <c r="K128" s="8">
-        <v>42013.6616435185</v>
+        <v>42013.661643518499</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B129" s="6" t="str">
-        <v>Russell</v>
+      <c r="B129" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="C129" s="6"/>
-      <c r="D129" s="6" t="str">
-        <v>Neilson</v>
+      <c r="D129" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>56</v>
@@ -4750,8 +7126,8 @@
       <c r="F129" s="7">
         <v>2158952729</v>
       </c>
-      <c r="G129" s="6" t="str">
-        <v>neilson@drexel.edu</v>
+      <c r="G129" s="6" t="s">
+        <v>546</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>8</v>
@@ -4774,17 +7150,17 @@
         <v>57</v>
       </c>
       <c r="C130" s="6"/>
-      <c r="D130" s="6" t="str">
-        <v>Nelson</v>
-      </c>
-      <c r="E130" s="6" t="str">
-        <v>William and Mary</v>
-      </c>
-      <c r="F130" s="7" t="str">
-        <v>757-259-9006</v>
-      </c>
-      <c r="G130" s="6" t="str">
-        <v>jknels@wm.edu</v>
+      <c r="D130" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>550</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>8</v>
@@ -4796,28 +7172,28 @@
         <v>32</v>
       </c>
       <c r="K130" s="8">
-        <v>42016.5972222222</v>
+        <v>42016.597222222197</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B131" s="6" t="str">
-        <v>Marzio</v>
+      <c r="B131" s="6" t="s">
+        <v>551</v>
       </c>
       <c r="C131" s="6"/>
-      <c r="D131" s="6" t="str">
-        <v>Nessi</v>
-      </c>
-      <c r="E131" s="6" t="str">
-        <v>CERN</v>
+      <c r="D131" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="F131" s="7">
         <v>41764870463</v>
       </c>
-      <c r="G131" s="6" t="str">
-        <v>marzio.nessi@cern.ch</v>
+      <c r="G131" s="6" t="s">
+        <v>554</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>8</v>
@@ -4829,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="K131" s="8">
-        <v>42012.0158796296</v>
+        <v>42012.015879629602</v>
       </c>
       <c r="L131" t="s">
         <v>21</v>
@@ -4840,21 +7216,21 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="6"/>
-      <c r="B132" s="6" t="str">
-        <v>Danielle</v>
+      <c r="B132" s="6" t="s">
+        <v>555</v>
       </c>
       <c r="C132" s="6"/>
-      <c r="D132" s="6" t="str">
-        <v>Norcini</v>
+      <c r="D132" s="6" t="s">
+        <v>556</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F132" s="7" t="str">
-        <v>203-436-9287</v>
-      </c>
-      <c r="G132" s="6" t="str">
-        <v>danielle.norcini@yale.edu</v>
+      <c r="F132" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>2</v>
@@ -4866,28 +7242,28 @@
         <v>18</v>
       </c>
       <c r="K132" s="8">
-        <v>42011.3669328704</v>
+        <v>42011.366932870398</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="6" t="str">
-        <v>Federico</v>
+      <c r="B133" s="6" t="s">
+        <v>559</v>
       </c>
       <c r="C133" s="6"/>
-      <c r="D133" s="6" t="str">
-        <v>Nova</v>
-      </c>
-      <c r="E133" s="6" t="str">
-        <v>University of Texas at Austin</v>
+      <c r="D133" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="F133" s="7">
         <v>5129659473</v>
       </c>
-      <c r="G133" s="6" t="str">
-        <v>nova@physics.utexas.edu</v>
+      <c r="G133" s="6" t="s">
+        <v>562</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>2</v>
@@ -4899,7 +7275,7 @@
         <v>13</v>
       </c>
       <c r="K133" s="8">
-        <v>42020.1154861111</v>
+        <v>42020.115486111099</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4912,17 +7288,17 @@
       <c r="C134" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="6" t="str">
-        <v>Nygren</v>
+      <c r="D134" s="6" t="s">
+        <v>563</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F134" s="7" t="str">
-        <v>510 207 4747</v>
-      </c>
-      <c r="G134" s="6" t="str">
-        <v>nygren@uta.edu</v>
+      <c r="F134" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>565</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>24</v>
@@ -4934,7 +7310,7 @@
         <v>32</v>
       </c>
       <c r="K134" s="8">
-        <v>42020.8207291667</v>
+        <v>42020.820729166699</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4947,8 +7323,8 @@
       <c r="C135" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D135" s="6" t="str">
-        <v>Orebi Gann</v>
+      <c r="D135" s="6" t="s">
+        <v>566</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>54</v>
@@ -4956,8 +7332,8 @@
       <c r="F135" s="7">
         <v>5104958235</v>
       </c>
-      <c r="G135" s="6" t="str">
-        <v>gorebigann@lbl.gov</v>
+      <c r="G135" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>8</v>
@@ -4969,7 +7345,7 @@
         <v>32</v>
       </c>
       <c r="K135" s="8">
-        <v>42014.8265277778</v>
+        <v>42014.826527777797</v>
       </c>
       <c r="L135" t="s">
         <v>21</v>
@@ -4977,12 +7353,12 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="6"/>
-      <c r="B136" s="6" t="str">
-        <v>Ornella</v>
+      <c r="B136" s="6" t="s">
+        <v>568</v>
       </c>
       <c r="C136" s="6"/>
-      <c r="D136" s="6" t="str">
-        <v>Palamara</v>
+      <c r="D136" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>30</v>
@@ -4990,8 +7366,8 @@
       <c r="F136" s="7">
         <v>6308403622</v>
       </c>
-      <c r="G136" s="6" t="str">
-        <v>palamara@fnal.gov</v>
+      <c r="G136" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>8</v>
@@ -5003,28 +7379,28 @@
         <v>4</v>
       </c>
       <c r="K136" s="8">
-        <v>42024.4591782407</v>
+        <v>42024.459178240701</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B137" s="6" t="str">
-        <v>Zohreh</v>
+      <c r="B137" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="C137" s="6"/>
-      <c r="D137" s="6" t="str">
-        <v>Parsa</v>
+      <c r="D137" s="6" t="s">
+        <v>572</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F137" s="7" t="str">
-        <v>631 344 2085</v>
-      </c>
-      <c r="G137" s="6" t="str">
-        <v>parsa@bnl.gov</v>
+      <c r="F137" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>34</v>
@@ -5036,26 +7412,26 @@
         <v>13</v>
       </c>
       <c r="K137" s="8">
-        <v>42013.6574768519</v>
+        <v>42013.657476851899</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="6"/>
-      <c r="B138" s="6" t="str">
-        <v>Ryan</v>
+      <c r="B138" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="C138" s="6"/>
-      <c r="D138" s="6" t="str">
-        <v>Patterson</v>
+      <c r="D138" s="6" t="s">
+        <v>576</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F138" s="7" t="str">
-        <v>626-395-5753</v>
-      </c>
-      <c r="G138" s="6" t="str">
-        <v>rbpatter@caltech.edu</v>
+      <c r="F138" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>24</v>
@@ -5067,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="K138" s="8">
-        <v>42014.6802430556</v>
+        <v>42014.680243055598</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5078,17 +7454,17 @@
         <v>86</v>
       </c>
       <c r="C139" s="6"/>
-      <c r="D139" s="6" t="str">
-        <v>Paul</v>
+      <c r="D139" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F139" s="7" t="str">
-        <v>632-8102</v>
-      </c>
-      <c r="G139" s="6" t="str">
-        <v>peter.paul@stonybrook.edu</v>
+      <c r="F139" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>581</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>8</v>
@@ -5100,28 +7476,28 @@
         <v>32</v>
       </c>
       <c r="K139" s="8">
-        <v>42010.4919097222</v>
+        <v>42010.491909722201</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="6" t="str">
-        <v>Orlando</v>
+      <c r="B140" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="6" t="str">
-        <v>Peres</v>
-      </c>
-      <c r="E140" s="6" t="str">
-        <v>UNICAMP</v>
-      </c>
-      <c r="F140" s="7" t="str">
-        <v>55-19-35215275</v>
-      </c>
-      <c r="G140" s="6" t="str">
-        <v>ORLANDO@IFI.UNICAMP.BR</v>
+      <c r="D140" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>8</v>
@@ -5133,28 +7509,28 @@
         <v>4</v>
       </c>
       <c r="K140" s="8">
-        <v>41963.3013888889</v>
+        <v>41963.301388888904</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B141" s="6" t="str">
-        <v>Andrea</v>
+      <c r="B141" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="C141" s="6"/>
-      <c r="D141" s="6" t="str">
-        <v>Pocar</v>
-      </c>
-      <c r="E141" s="6" t="str">
-        <v>University of Massachusetts, Amherst</v>
-      </c>
-      <c r="F141" s="7" t="str">
-        <v>650-7961853</v>
-      </c>
-      <c r="G141" s="6" t="str">
-        <v>pocar@umass.edu</v>
+      <c r="D141" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>591</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>8</v>
@@ -5166,28 +7542,28 @@
         <v>9</v>
       </c>
       <c r="K141" s="8">
-        <v>42025.5175925926</v>
+        <v>42025.517592592601</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B142" s="6" t="str">
-        <v>Xin</v>
+      <c r="B142" s="6" t="s">
+        <v>592</v>
       </c>
       <c r="C142" s="6"/>
-      <c r="D142" s="6" t="str">
-        <v>Qian</v>
+      <c r="D142" s="6" t="s">
+        <v>593</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F142" s="7" t="str">
-        <v>1-631-344-3828</v>
-      </c>
-      <c r="G142" s="6" t="str">
-        <v>xqian@bnl.gov</v>
+      <c r="F142" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>595</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>34</v>
@@ -5199,7 +7575,7 @@
         <v>18</v>
       </c>
       <c r="K142" s="8">
-        <v>41960.8024189815</v>
+        <v>41960.802418981497</v>
       </c>
       <c r="L142" s="10" t="s">
         <v>21</v>
@@ -5210,12 +7586,12 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="6"/>
-      <c r="B143" s="6" t="str">
-        <v>Jennifer</v>
+      <c r="B143" s="6" t="s">
+        <v>596</v>
       </c>
       <c r="C143" s="6"/>
-      <c r="D143" s="6" t="str">
-        <v>Raaf</v>
+      <c r="D143" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>30</v>
@@ -5223,8 +7599,8 @@
       <c r="F143" s="7">
         <v>6308408044</v>
       </c>
-      <c r="G143" s="6" t="str">
-        <v>jlraaf@fnal.gov</v>
+      <c r="G143" s="6" t="s">
+        <v>598</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>8</v>
@@ -5236,26 +7612,26 @@
         <v>32</v>
       </c>
       <c r="K143" s="8">
-        <v>42013.4389583333</v>
+        <v>42013.438958333303</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="6"/>
-      <c r="B144" s="6" t="str">
-        <v>Regina</v>
+      <c r="B144" s="6" t="s">
+        <v>599</v>
       </c>
       <c r="C144" s="6"/>
-      <c r="D144" s="6" t="str">
-        <v>Rameika</v>
+      <c r="D144" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F144" s="7" t="str">
-        <v>707-954-0945</v>
-      </c>
-      <c r="G144" s="6" t="str">
-        <v>rameika@fnal.gov</v>
+      <c r="F144" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>602</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>8</v>
@@ -5267,7 +7643,7 @@
         <v>4</v>
       </c>
       <c r="K144" s="8">
-        <v>41996.4929861111</v>
+        <v>41996.492986111101</v>
       </c>
       <c r="L144" t="s">
         <v>21</v>
@@ -5280,21 +7656,21 @@
       <c r="A145" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="6" t="str">
-        <v>Gioacchino</v>
+      <c r="B145" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="C145" s="6"/>
-      <c r="D145" s="6" t="str">
-        <v>Ranucci</v>
-      </c>
-      <c r="E145" s="6" t="str">
-        <v>Istituto Nazionale di Fisica Nucleare, Milano</v>
-      </c>
-      <c r="F145" s="7" t="str">
-        <v>393341262494</v>
-      </c>
-      <c r="G145" s="6" t="str">
-        <v>gioacchino.ranucci@mi.infn.it</v>
+      <c r="D145" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>607</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>24</v>
@@ -5306,28 +7682,28 @@
         <v>9</v>
       </c>
       <c r="K145" s="8">
-        <v>42034.1703356481</v>
+        <v>42034.170335648101</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B146" s="6" t="str">
-        <v>Heather</v>
+      <c r="B146" s="6" t="s">
+        <v>608</v>
       </c>
       <c r="C146" s="6"/>
-      <c r="D146" s="6" t="str">
-        <v>Ray</v>
-      </c>
-      <c r="E146" s="6" t="str">
-        <v>University of Florida</v>
+      <c r="D146" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="F146" s="7">
         <v>4126564725</v>
       </c>
-      <c r="G146" s="6" t="str">
-        <v>drhray@ufl.edu</v>
+      <c r="G146" s="6" t="s">
+        <v>611</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>8</v>
@@ -5350,17 +7726,17 @@
         <v>51</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="6" t="str">
-        <v>Reyna</v>
-      </c>
-      <c r="E147" s="6" t="str">
-        <v>Sandia National Laboratories</v>
-      </c>
-      <c r="F147" s="7" t="str">
-        <v>925-294-6283</v>
-      </c>
-      <c r="G147" s="6" t="str">
-        <v>dreyna@sandia.gov</v>
+      <c r="D147" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>615</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>8</v>
@@ -5372,30 +7748,30 @@
         <v>9</v>
       </c>
       <c r="K147" s="8">
-        <v>41995.7094212963</v>
+        <v>41995.709421296298</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B148" s="6" t="str">
-        <v>Grayson</v>
+      <c r="B148" s="6" t="s">
+        <v>616</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D148" s="6" t="str">
-        <v>Rich</v>
-      </c>
-      <c r="E148" s="6" t="str">
-        <v>Triangle Universities Nuclear Laboratory</v>
+      <c r="D148" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="F148" s="7">
         <v>9103153669</v>
       </c>
-      <c r="G148" s="6" t="str">
-        <v>grayson@tunl.duke.edu</v>
+      <c r="G148" s="6" t="s">
+        <v>619</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>2</v>
@@ -5407,26 +7783,26 @@
         <v>32</v>
       </c>
       <c r="K148" s="8">
-        <v>42021.6934722222</v>
+        <v>42021.693472222199</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="6"/>
-      <c r="B149" s="6" t="str">
-        <v>Philip</v>
+      <c r="B149" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="C149" s="6"/>
-      <c r="D149" s="6" t="str">
-        <v>Rodrigues</v>
-      </c>
-      <c r="E149" s="6" t="str">
-        <v>University of Rochester</v>
+      <c r="D149" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>622</v>
       </c>
       <c r="F149" s="7">
         <v>5852758529</v>
       </c>
-      <c r="G149" s="6" t="str">
-        <v>prodrigues@pas.rochester.edu</v>
+      <c r="G149" s="6" t="s">
+        <v>623</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>2</v>
@@ -5438,26 +7814,26 @@
         <v>32</v>
       </c>
       <c r="K149" s="8">
-        <v>42009.4202199074</v>
+        <v>42009.420219907399</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="6"/>
-      <c r="B150" s="6" t="str">
-        <v>Elisa</v>
+      <c r="B150" s="6" t="s">
+        <v>624</v>
       </c>
       <c r="C150" s="6"/>
-      <c r="D150" s="6" t="str">
-        <v>Romero Romero</v>
-      </c>
-      <c r="E150" s="6" t="str">
-        <v>ORNL/UTK</v>
+      <c r="D150" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="F150" s="7">
         <v>8652967581</v>
       </c>
-      <c r="G150" s="6" t="str">
-        <v>eromeror@vols.utk.edu</v>
+      <c r="G150" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>2</v>
@@ -5469,21 +7845,21 @@
         <v>18</v>
       </c>
       <c r="K150" s="8">
-        <v>41964.9577777778</v>
+        <v>41964.957777777803</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B151" s="6" t="str">
-        <v>Eli</v>
+      <c r="B151" s="6" t="s">
+        <v>628</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="6" t="str">
-        <v>Rosenberg</v>
+      <c r="D151" s="6" t="s">
+        <v>629</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>31</v>
@@ -5491,8 +7867,8 @@
       <c r="F151" s="7">
         <v>5152947881</v>
       </c>
-      <c r="G151" s="6" t="str">
-        <v>redmount@iastate.edu</v>
+      <c r="G151" s="6" t="s">
+        <v>630</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>8</v>
@@ -5504,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="K151" s="8">
-        <v>42012.4101273148</v>
+        <v>42012.410127314797</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -5513,17 +7889,17 @@
         <v>74</v>
       </c>
       <c r="C152" s="6"/>
-      <c r="D152" s="6" t="str">
-        <v>Rosero</v>
+      <c r="D152" s="6" t="s">
+        <v>631</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F152" s="7" t="str">
-        <v>631-344-4992</v>
-      </c>
-      <c r="G152" s="6" t="str">
-        <v>rrosero@bnl.gov</v>
+      <c r="F152" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>34</v>
@@ -5535,7 +7911,7 @@
         <v>32</v>
       </c>
       <c r="K152" s="8">
-        <v>42002.6275694444</v>
+        <v>42002.627569444398</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -5548,17 +7924,17 @@
       <c r="C153" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D153" s="6" t="str">
-        <v>Rountree</v>
+      <c r="D153" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F153" s="7" t="str">
-        <v>540 250 1648</v>
-      </c>
-      <c r="G153" s="6" t="str">
-        <v>rountree@vt.edu</v>
+      <c r="F153" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>636</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>2</v>
@@ -5570,28 +7946,28 @@
         <v>18</v>
       </c>
       <c r="K153" s="8">
-        <v>42013.5882523148</v>
+        <v>42013.588252314803</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="6" t="str">
-        <v>Ben</v>
+      <c r="B154" s="6" t="s">
+        <v>637</v>
       </c>
       <c r="C154" s="6"/>
-      <c r="D154" s="6" t="str">
-        <v>Rybolt</v>
+      <c r="D154" s="6" t="s">
+        <v>638</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F154" s="7" t="str">
-        <v>(865) 974-3342</v>
-      </c>
-      <c r="G154" s="6" t="str">
-        <v>brybolt@utk.edu</v>
+      <c r="F154" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>2</v>
@@ -5610,21 +7986,21 @@
       <c r="A155" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B155" s="6" t="str">
-        <v>Mayly</v>
+      <c r="B155" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="C155" s="6"/>
-      <c r="D155" s="6" t="str">
-        <v>Sanchez</v>
-      </c>
-      <c r="E155" s="6" t="str">
-        <v>Iowa State University</v>
-      </c>
-      <c r="F155" s="7" t="str">
-        <v>617-7717531</v>
-      </c>
-      <c r="G155" s="6" t="str">
-        <v>mayly.sanchez@iastate.edu</v>
+      <c r="D155" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>645</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>24</v>
@@ -5636,7 +8012,7 @@
         <v>32</v>
       </c>
       <c r="K155" s="8">
-        <v>42009.7349768519</v>
+        <v>42009.734976851898</v>
       </c>
       <c r="L155" t="s">
         <v>21</v>
@@ -5648,8 +8024,8 @@
         <v>45</v>
       </c>
       <c r="C156" s="6"/>
-      <c r="D156" s="6" t="str">
-        <v>Santucci</v>
+      <c r="D156" s="6" t="s">
+        <v>646</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>70</v>
@@ -5657,8 +8033,8 @@
       <c r="F156" s="7">
         <v>6313717222</v>
       </c>
-      <c r="G156" s="6" t="str">
-        <v>gabriel.santucci@stonybrook.edu</v>
+      <c r="G156" s="6" t="s">
+        <v>647</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>2</v>
@@ -5679,17 +8055,17 @@
         <v>51</v>
       </c>
       <c r="C157" s="6"/>
-      <c r="D157" s="6" t="str">
-        <v>Schmitz</v>
+      <c r="D157" s="6" t="s">
+        <v>648</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F157" s="7" t="str">
-        <v>773-702-7477</v>
-      </c>
-      <c r="G157" s="6" t="str">
-        <v>dwschmitz@uchicago.edu</v>
+      <c r="F157" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>650</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>8</v>
@@ -5711,12 +8087,12 @@
       <c r="A158" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="6" t="str">
-        <v>Kate</v>
+      <c r="B158" s="6" t="s">
+        <v>651</v>
       </c>
       <c r="C158" s="6"/>
-      <c r="D158" s="6" t="str">
-        <v>Scholberg</v>
+      <c r="D158" s="6" t="s">
+        <v>652</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>26</v>
@@ -5724,8 +8100,8 @@
       <c r="F158" s="7">
         <v>9196602962</v>
       </c>
-      <c r="G158" s="6" t="str">
-        <v>schol@phy.duke.edu</v>
+      <c r="G158" s="6" t="s">
+        <v>653</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>24</v>
@@ -5737,7 +8113,7 @@
         <v>9</v>
       </c>
       <c r="K158" s="8">
-        <v>41979.8965972222</v>
+        <v>41979.896597222199</v>
       </c>
       <c r="L158" t="s">
         <v>21</v>
@@ -5754,17 +8130,17 @@
         <v>51</v>
       </c>
       <c r="C159" s="6"/>
-      <c r="D159" s="6" t="str">
-        <v>Seckel</v>
+      <c r="D159" s="6" t="s">
+        <v>654</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F159" s="7" t="str">
-        <v>302-292-2198</v>
-      </c>
-      <c r="G159" s="6" t="str">
-        <v>seckel@bartol.udel.edu</v>
+      <c r="F159" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>656</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>8</v>
@@ -5776,17 +8152,17 @@
         <v>13</v>
       </c>
       <c r="K159" s="8">
-        <v>42024.8063888889</v>
+        <v>42024.806388888901</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="6"/>
-      <c r="B160" s="6" t="str">
-        <v>Mike</v>
+      <c r="B160" s="6" t="s">
+        <v>657</v>
       </c>
       <c r="C160" s="6"/>
-      <c r="D160" s="6" t="str">
-        <v>Shaevitz</v>
+      <c r="D160" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>38</v>
@@ -5794,8 +8170,8 @@
       <c r="F160" s="7">
         <v>9145912806</v>
       </c>
-      <c r="G160" s="6" t="str">
-        <v>shaevitz@nevis.columbia.edu</v>
+      <c r="G160" s="6" t="s">
+        <v>659</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>8</v>
@@ -5807,7 +8183,7 @@
         <v>9</v>
       </c>
       <c r="K160" s="8">
-        <v>42004.5159722222</v>
+        <v>42004.515972222202</v>
       </c>
       <c r="L160" t="s">
         <v>21</v>
@@ -5824,8 +8200,8 @@
         <v>47</v>
       </c>
       <c r="C161" s="6"/>
-      <c r="D161" s="6" t="str">
-        <v>Shrock</v>
+      <c r="D161" s="6" t="s">
+        <v>660</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>70</v>
@@ -5833,8 +8209,8 @@
       <c r="F161" s="7">
         <v>6316327986</v>
       </c>
-      <c r="G161" s="6" t="str">
-        <v>robert.shrock@stonybrook.edu</v>
+      <c r="G161" s="6" t="s">
+        <v>661</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>24</v>
@@ -5846,7 +8222,7 @@
         <v>13</v>
       </c>
       <c r="K161" s="8">
-        <v>42008.6037384259</v>
+        <v>42008.603738425903</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -5859,8 +8235,8 @@
       <c r="C162" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D162" s="6" t="str">
-        <v>Smy</v>
+      <c r="D162" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>42</v>
@@ -5868,8 +8244,8 @@
       <c r="F162" s="7">
         <v>9498247502</v>
       </c>
-      <c r="G162" s="6" t="str">
-        <v>smy@michael.ps.uci.edu</v>
+      <c r="G162" s="6" t="s">
+        <v>663</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>8</v>
@@ -5881,7 +8257,7 @@
         <v>9</v>
       </c>
       <c r="K162" s="8">
-        <v>42016.6984259259</v>
+        <v>42016.698425925897</v>
       </c>
       <c r="L162" t="s">
         <v>21</v>
@@ -5889,21 +8265,21 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="6"/>
-      <c r="B163" s="6" t="str">
-        <v>Mitch</v>
+      <c r="B163" s="6" t="s">
+        <v>664</v>
       </c>
       <c r="C163" s="6"/>
-      <c r="D163" s="6" t="str">
-        <v>Soderberg</v>
+      <c r="D163" s="6" t="s">
+        <v>665</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F163" s="7" t="str">
-        <v>315-443-2565</v>
-      </c>
-      <c r="G163" s="6" t="str">
-        <v>msoderbe@syr.edu</v>
+      <c r="F163" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>8</v>
@@ -5915,28 +8291,28 @@
         <v>32</v>
       </c>
       <c r="K163" s="8">
-        <v>42010.4203356481</v>
+        <v>42010.420335648101</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B164" s="6" t="str">
-        <v>Alejandro</v>
+      <c r="B164" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="C164" s="6"/>
-      <c r="D164" s="6" t="str">
-        <v>Sonzogni</v>
+      <c r="D164" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F164" s="7" t="str">
-        <v>(631) 344-5334</v>
-      </c>
-      <c r="G164" s="6" t="str">
-        <v>sonzogni@bnl.gov</v>
+      <c r="F164" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>671</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>34</v>
@@ -5948,21 +8324,21 @@
         <v>18</v>
       </c>
       <c r="K164" s="8">
-        <v>42033.5533449074</v>
+        <v>42033.553344907399</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B165" s="6" t="str">
-        <v>Alex</v>
+      <c r="B165" s="6" t="s">
+        <v>672</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D165" s="6" t="str">
-        <v>Sousa</v>
+      <c r="D165" s="6" t="s">
+        <v>673</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>76</v>
@@ -5970,8 +8346,8 @@
       <c r="F165" s="7">
         <v>5135569691</v>
       </c>
-      <c r="G165" s="6" t="str">
-        <v>Alex.Sousa@uc.edu</v>
+      <c r="G165" s="6" t="s">
+        <v>674</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>8</v>
@@ -5983,7 +8359,7 @@
         <v>32</v>
       </c>
       <c r="K165" s="8">
-        <v>41983.7229282407</v>
+        <v>41983.722928240699</v>
       </c>
       <c r="L165" t="s">
         <v>21</v>
@@ -5997,8 +8373,8 @@
         <v>78</v>
       </c>
       <c r="C166" s="6"/>
-      <c r="D166" s="6" t="str">
-        <v>Spitz</v>
+      <c r="D166" s="6" t="s">
+        <v>675</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>7</v>
@@ -6006,8 +8382,8 @@
       <c r="F166" s="7">
         <v>2032419629</v>
       </c>
-      <c r="G166" s="6" t="str">
-        <v>spitzj@mit.edu</v>
+      <c r="G166" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>2</v>
@@ -6019,28 +8395,28 @@
         <v>9</v>
       </c>
       <c r="K166" s="8">
-        <v>42006.403275463</v>
+        <v>42006.403275463003</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="6"/>
-      <c r="B167" s="6" t="str">
-        <v>Jason</v>
+      <c r="B167" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D167" s="6" t="str">
-        <v>St. John</v>
+      <c r="D167" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F167" s="7" t="str">
-        <v>205-568-6479</v>
-      </c>
-      <c r="G167" s="6" t="str">
-        <v>stjohn@fnal.gov</v>
+      <c r="F167" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>680</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>2</v>
@@ -6052,7 +8428,7 @@
         <v>9</v>
       </c>
       <c r="K167" s="8">
-        <v>42012.6708217593</v>
+        <v>42012.670821759297</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -6061,17 +8437,17 @@
         <v>85</v>
       </c>
       <c r="C168" s="6"/>
-      <c r="D168" s="6" t="str">
-        <v>Stewart</v>
+      <c r="D168" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F168" s="7" t="str">
-        <v>631 344 3262</v>
-      </c>
-      <c r="G168" s="6" t="str">
-        <v>stewart@bnl.gov</v>
+      <c r="F168" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>34</v>
@@ -6083,7 +8459,7 @@
         <v>32</v>
       </c>
       <c r="K168" s="8">
-        <v>42008.8568981482</v>
+        <v>42008.856898148202</v>
       </c>
       <c r="L168" t="s">
         <v>21</v>
@@ -6093,21 +8469,21 @@
       <c r="A169" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="6" t="str">
-        <v>Alan</v>
+      <c r="B169" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="C169" s="6"/>
-      <c r="D169" s="6" t="str">
-        <v>Stone</v>
+      <c r="D169" s="6" t="s">
+        <v>685</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F169" s="7" t="str">
-        <v>301-903-7998</v>
-      </c>
-      <c r="G169" s="6" t="str">
-        <v>alan.stone@science.doe.gov</v>
+      <c r="F169" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>687</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>8</v>
@@ -6119,21 +8495,21 @@
         <v>18</v>
       </c>
       <c r="K169" s="8">
-        <v>42031.4136342593</v>
+        <v>42031.413634259297</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B170" s="6" t="str">
-        <v>James</v>
+      <c r="B170" s="6" t="s">
+        <v>688</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D170" s="6" t="str">
-        <v>Strait</v>
+      <c r="D170" s="6" t="s">
+        <v>689</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>30</v>
@@ -6141,8 +8517,8 @@
       <c r="F170" s="7">
         <v>6308402826</v>
       </c>
-      <c r="G170" s="6" t="str">
-        <v>strait@fnal.gov</v>
+      <c r="G170" s="6" t="s">
+        <v>690</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>8</v>
@@ -6161,21 +8537,21 @@
       <c r="A171" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B171" s="6" t="str">
-        <v>Greg</v>
+      <c r="B171" s="6" t="s">
+        <v>691</v>
       </c>
       <c r="C171" s="6"/>
-      <c r="D171" s="6" t="str">
-        <v>Sullivan</v>
-      </c>
-      <c r="E171" s="6" t="str">
-        <v>University of Maryland</v>
-      </c>
-      <c r="F171" s="7" t="str">
-        <v>301-405-6035</v>
-      </c>
-      <c r="G171" s="6" t="str">
-        <v>sullivan@icecube.umd.edu</v>
+      <c r="D171" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>8</v>
@@ -6187,7 +8563,7 @@
         <v>32</v>
       </c>
       <c r="K171" s="8">
-        <v>41976.4353587963</v>
+        <v>41976.435358796298</v>
       </c>
       <c r="L171" t="s">
         <v>21</v>
@@ -6204,17 +8580,17 @@
         <v>47</v>
       </c>
       <c r="C172" s="6"/>
-      <c r="D172" s="6" t="str">
-        <v>Svoboda</v>
-      </c>
-      <c r="E172" s="6" t="str">
-        <v>University of California, Davis</v>
-      </c>
-      <c r="F172" s="7" t="str">
-        <v>916-412-8556</v>
-      </c>
-      <c r="G172" s="6" t="str">
-        <v>rsvoboda@physics.ucdavis.edu</v>
+      <c r="D172" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>24</v>
@@ -6226,7 +8602,7 @@
         <v>32</v>
       </c>
       <c r="K172" s="8">
-        <v>41976.6512615741</v>
+        <v>41976.651261574101</v>
       </c>
       <c r="L172" t="s">
         <v>21</v>
@@ -6239,14 +8615,14 @@
       <c r="A173" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B173" s="6" t="str">
-        <v>Andrzej</v>
+      <c r="B173" s="6" t="s">
+        <v>700</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D173" s="6" t="str">
-        <v>Szelc</v>
+      <c r="D173" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>1</v>
@@ -6254,8 +8630,8 @@
       <c r="F173" s="7">
         <v>6305064813</v>
       </c>
-      <c r="G173" s="6" t="str">
-        <v>andrzej.szelc@yale.edu</v>
+      <c r="G173" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>2</v>
@@ -6267,19 +8643,19 @@
         <v>32</v>
       </c>
       <c r="K173" s="8">
-        <v>42012.6655671296</v>
+        <v>42012.665567129603</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B174" s="6" t="str">
-        <v>Rex</v>
+      <c r="B174" s="6" t="s">
+        <v>703</v>
       </c>
       <c r="C174" s="6"/>
-      <c r="D174" s="6" t="str">
-        <v>Tayloe</v>
+      <c r="D174" s="6" t="s">
+        <v>704</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>49</v>
@@ -6287,8 +8663,8 @@
       <c r="F174" s="7">
         <v>8128333057</v>
       </c>
-      <c r="G174" s="6" t="str">
-        <v>rtayloe@indiana.edu</v>
+      <c r="G174" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>8</v>
@@ -6300,7 +8676,7 @@
         <v>4</v>
       </c>
       <c r="K174" s="8">
-        <v>42003.4788194444</v>
+        <v>42003.478819444397</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -6313,17 +8689,17 @@
       <c r="C175" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D175" s="6" t="str">
-        <v>Thomson</v>
-      </c>
-      <c r="E175" s="6" t="str">
-        <v>University of Cambridge</v>
-      </c>
-      <c r="F175" s="7" t="str">
-        <v>44-7512-250090</v>
-      </c>
-      <c r="G175" s="6" t="str">
-        <v>thomson@hep.phy.cam.ac.uk</v>
+      <c r="D175" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>709</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>24</v>
@@ -6335,7 +8711,7 @@
         <v>32</v>
       </c>
       <c r="K175" s="8">
-        <v>41962.1248263889</v>
+        <v>41962.124826388899</v>
       </c>
       <c r="M175" t="s">
         <v>21</v>
@@ -6345,21 +8721,21 @@
       <c r="A176" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B176" s="6" t="str">
-        <v>Matt</v>
+      <c r="B176" s="6" t="s">
+        <v>710</v>
       </c>
       <c r="C176" s="6"/>
-      <c r="D176" s="6" t="str">
-        <v>Toups</v>
+      <c r="D176" s="6" t="s">
+        <v>711</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F176" s="7" t="str">
-        <v>919-451-2633</v>
-      </c>
-      <c r="G176" s="6" t="str">
-        <v>mtoups@mit.edu</v>
+      <c r="F176" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>713</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>24</v>
@@ -6371,28 +8747,28 @@
         <v>9</v>
       </c>
       <c r="K176" s="8">
-        <v>42013.5209837963</v>
+        <v>42013.520983796298</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="6" t="str">
-        <v>Antonin</v>
+      <c r="B177" s="6" t="s">
+        <v>714</v>
       </c>
       <c r="C177" s="6"/>
-      <c r="D177" s="6" t="str">
-        <v>Vacheret</v>
-      </c>
-      <c r="E177" s="6" t="str">
-        <v>University of Oxford</v>
-      </c>
-      <c r="F177" s="7" t="str">
-        <v>441865273411</v>
-      </c>
-      <c r="G177" s="6" t="str">
-        <v>Antonin.Vacheret@physics.ox.ac.uk</v>
+      <c r="D177" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>718</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>24</v>
@@ -6404,7 +8780,7 @@
         <v>18</v>
       </c>
       <c r="K177" s="8">
-        <v>42020.5275925926</v>
+        <v>42020.527592592603</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -6415,8 +8791,8 @@
         <v>46</v>
       </c>
       <c r="C178" s="6"/>
-      <c r="D178" s="6" t="str">
-        <v>Vagins</v>
+      <c r="D178" s="6" t="s">
+        <v>719</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>42</v>
@@ -6424,8 +8800,8 @@
       <c r="F178" s="7">
         <v>9498242894</v>
       </c>
-      <c r="G178" s="6" t="str">
-        <v>mvagins@uci.edu</v>
+      <c r="G178" s="6" t="s">
+        <v>720</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>24</v>
@@ -6437,7 +8813,7 @@
         <v>32</v>
       </c>
       <c r="K178" s="8">
-        <v>42010.3780671296</v>
+        <v>42010.378067129597</v>
       </c>
       <c r="L178" t="s">
         <v>21</v>
@@ -6453,17 +8829,17 @@
       <c r="C179" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D179" s="6" t="str">
-        <v>Van de Water</v>
+      <c r="D179" s="6" t="s">
+        <v>721</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F179" s="7" t="str">
-        <v>505-695-8364</v>
-      </c>
-      <c r="G179" s="6" t="str">
-        <v>vdwater@lanl.gov</v>
+      <c r="F179" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>723</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>8</v>
@@ -6475,26 +8851,26 @@
         <v>4</v>
       </c>
       <c r="K179" s="8">
-        <v>42031.6433449074</v>
+        <v>42031.643344907403</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="6"/>
-      <c r="B180" s="6" t="str">
-        <v>R Bruce</v>
+      <c r="B180" s="6" t="s">
+        <v>724</v>
       </c>
       <c r="C180" s="6"/>
-      <c r="D180" s="6" t="str">
-        <v>Vogelaar</v>
+      <c r="D180" s="6" t="s">
+        <v>725</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F180" s="7" t="str">
-        <v>540 231 8735</v>
-      </c>
-      <c r="G180" s="6" t="str">
-        <v>vogelaar@vt.edu</v>
+      <c r="F180" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>727</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>24</v>
@@ -6513,21 +8889,21 @@
       <c r="A181" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B181" s="6" t="str">
-        <v>Michele</v>
+      <c r="B181" s="6" t="s">
+        <v>728</v>
       </c>
       <c r="C181" s="6"/>
-      <c r="D181" s="6" t="str">
-        <v>Weber</v>
-      </c>
-      <c r="E181" s="6" t="str">
-        <v>Bern</v>
+      <c r="D181" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>730</v>
       </c>
       <c r="F181" s="7">
         <v>41316315146</v>
       </c>
-      <c r="G181" s="6" t="str">
-        <v>weber@lhep.unibe.ch</v>
+      <c r="G181" s="6" t="s">
+        <v>731</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>8</v>
@@ -6546,21 +8922,21 @@
       <c r="A182" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B182" s="6" t="str">
-        <v>Wu-tsung</v>
+      <c r="B182" s="6" t="s">
+        <v>732</v>
       </c>
       <c r="C182" s="6"/>
-      <c r="D182" s="6" t="str">
-        <v>Weng</v>
+      <c r="D182" s="6" t="s">
+        <v>733</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F182" s="7" t="str">
-        <v>631-344-2135</v>
-      </c>
-      <c r="G182" s="6" t="str">
-        <v>weng@bnl.gov</v>
+      <c r="F182" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>735</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>34</v>
@@ -6572,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="K182" s="8">
-        <v>41995.2177199074</v>
+        <v>41995.217719907399</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -6583,17 +8959,17 @@
         <v>71</v>
       </c>
       <c r="C183" s="6"/>
-      <c r="D183" s="6" t="str">
-        <v>Wetstein</v>
+      <c r="D183" s="6" t="s">
+        <v>736</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F183" s="7" t="str">
-        <v>630-885-9742</v>
-      </c>
-      <c r="G183" s="6" t="str">
-        <v>mwetstein@uchicago.edu</v>
+      <c r="F183" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>738</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>2</v>
@@ -6622,11 +8998,11 @@
       <c r="E184" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F184" s="7" t="str">
-        <v>312-567-3734</v>
-      </c>
-      <c r="G184" s="6" t="str">
-        <v>whitec@iit.edu</v>
+      <c r="F184" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>740</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>8</v>
@@ -6638,15 +9014,15 @@
         <v>4</v>
       </c>
       <c r="K184" s="8">
-        <v>41979.4427083333</v>
+        <v>41979.442708333299</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="6" t="str">
-        <v>Brandon</v>
+      <c r="B185" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>6</v>
@@ -6657,11 +9033,11 @@
       <c r="E185" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F185" s="7" t="str">
-        <v>865 335-9136</v>
-      </c>
-      <c r="G185" s="6" t="str">
-        <v>whitebr@ornl.gov</v>
+      <c r="F185" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>743</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>2</v>
@@ -6673,7 +9049,7 @@
         <v>18</v>
       </c>
       <c r="K185" s="8">
-        <v>41990.5095717593</v>
+        <v>41990.509571759299</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -6684,17 +9060,17 @@
         <v>61</v>
       </c>
       <c r="C186" s="6"/>
-      <c r="D186" s="6" t="str">
-        <v>Whitehead</v>
+      <c r="D186" s="6" t="s">
+        <v>744</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F186" s="7" t="str">
-        <v>713-743-3502</v>
-      </c>
-      <c r="G186" s="6" t="str">
-        <v>lawhitehead@uh.edu</v>
+      <c r="F186" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>746</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>8</v>
@@ -6706,7 +9082,7 @@
         <v>4</v>
       </c>
       <c r="K186" s="8">
-        <v>42012.7020717593</v>
+        <v>42012.702071759297</v>
       </c>
       <c r="L186" t="s">
         <v>21</v>
@@ -6716,23 +9092,23 @@
       <c r="A187" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B187" s="6" t="str">
-        <v>Denver</v>
+      <c r="B187" s="6" t="s">
+        <v>747</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D187" s="6" t="str">
-        <v>Whittington</v>
+      <c r="D187" s="6" t="s">
+        <v>748</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F187" s="7" t="str">
-        <v>812-327-1912</v>
-      </c>
-      <c r="G187" s="6" t="str">
-        <v>dwwhitti@indiana.edu</v>
+      <c r="F187" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>750</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>2</v>
@@ -6744,7 +9120,7 @@
         <v>32</v>
       </c>
       <c r="K187" s="8">
-        <v>42030.6435300926</v>
+        <v>42030.643530092602</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -6757,17 +9133,17 @@
       <c r="C188" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D188" s="6" t="str">
-        <v>Wilking</v>
+      <c r="D188" s="6" t="s">
+        <v>751</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F188" s="7" t="str">
-        <v>631-601-4322</v>
-      </c>
-      <c r="G188" s="6" t="str">
-        <v>michael.wilking@stonybrook.edu</v>
+      <c r="F188" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>24</v>
@@ -6798,14 +9174,14 @@
       <c r="D189" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E189" s="6" t="str">
-        <v>Colorado State University</v>
+      <c r="E189" s="6" t="s">
+        <v>754</v>
       </c>
       <c r="F189" s="7">
         <v>9704915033</v>
       </c>
-      <c r="G189" s="6" t="str">
-        <v>wilson@lamar.colostate.edu</v>
+      <c r="G189" s="6" t="s">
+        <v>755</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>8</v>
@@ -6817,7 +9193,7 @@
         <v>4</v>
       </c>
       <c r="K189" s="8">
-        <v>42003.7471527778</v>
+        <v>42003.747152777803</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -6835,8 +9211,8 @@
       <c r="F190" s="7">
         <v>6308402156</v>
       </c>
-      <c r="G190" s="6" t="str">
-        <v>pjw@fnal.gov</v>
+      <c r="G190" s="6" t="s">
+        <v>756</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>24</v>
@@ -6848,7 +9224,7 @@
         <v>4</v>
       </c>
       <c r="K190" s="8">
-        <v>42010.6893287037</v>
+        <v>42010.689328703702</v>
       </c>
       <c r="M190" t="s">
         <v>21</v>
@@ -6862,17 +9238,17 @@
         <v>58</v>
       </c>
       <c r="C191" s="6"/>
-      <c r="D191" s="6" t="str">
-        <v>Winklehner</v>
+      <c r="D191" s="6" t="s">
+        <v>757</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F191" s="7" t="str">
-        <v>617 715 4280</v>
-      </c>
-      <c r="G191" s="6" t="str">
-        <v>winklehn@mit.edu</v>
+      <c r="F191" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>759</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>2</v>
@@ -6897,17 +9273,17 @@
       <c r="C192" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D192" s="6" t="str">
-        <v>Winn</v>
-      </c>
-      <c r="E192" s="6" t="str">
-        <v>Fairfield University</v>
+      <c r="D192" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>761</v>
       </c>
       <c r="F192" s="7">
         <v>2039843993</v>
       </c>
-      <c r="G192" s="6" t="str">
-        <v>winn@fairfield.edu</v>
+      <c r="G192" s="6" t="s">
+        <v>762</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>8</v>
@@ -6919,17 +9295,17 @@
         <v>32</v>
       </c>
       <c r="K192" s="8">
-        <v>42012.7212962963</v>
+        <v>42012.721296296302</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="6"/>
-      <c r="B193" s="6" t="str">
-        <v>Elizabeth</v>
+      <c r="B193" s="6" t="s">
+        <v>763</v>
       </c>
       <c r="C193" s="6"/>
-      <c r="D193" s="6" t="str">
-        <v>Worcester</v>
+      <c r="D193" s="6" t="s">
+        <v>764</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>33</v>
@@ -6937,8 +9313,8 @@
       <c r="F193" s="7">
         <v>6313445325</v>
       </c>
-      <c r="G193" s="6" t="str">
-        <v>etw@bnl.gov</v>
+      <c r="G193" s="6" t="s">
+        <v>765</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>34</v>
@@ -6950,28 +9326,28 @@
         <v>32</v>
       </c>
       <c r="K193" s="8">
-        <v>41976.6743518518</v>
+        <v>41976.674351851798</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B194" s="6" t="str">
-        <v>Liang</v>
+      <c r="B194" s="6" t="s">
+        <v>766</v>
       </c>
       <c r="C194" s="6"/>
-      <c r="D194" s="6" t="str">
-        <v>Yang</v>
+      <c r="D194" s="6" t="s">
+        <v>767</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F194" s="7" t="str">
-        <v>217-244-2792</v>
-      </c>
-      <c r="G194" s="6" t="str">
-        <v>liangyg@illinois.edu</v>
+      <c r="F194" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>769</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>24</v>
@@ -6983,19 +9359,19 @@
         <v>32</v>
       </c>
       <c r="K194" s="8">
-        <v>42023.6472106481</v>
+        <v>42023.647210648101</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B195" s="6" t="str">
-        <v>Minfang</v>
+      <c r="B195" s="6" t="s">
+        <v>770</v>
       </c>
       <c r="C195" s="6"/>
-      <c r="D195" s="6" t="str">
-        <v>Yeh</v>
+      <c r="D195" s="6" t="s">
+        <v>771</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>33</v>
@@ -7003,8 +9379,8 @@
       <c r="F195" s="7">
         <v>3442870</v>
       </c>
-      <c r="G195" s="6" t="str">
-        <v>yeh@bnl.gov</v>
+      <c r="G195" s="6" t="s">
+        <v>772</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>34</v>
@@ -7016,21 +9392,21 @@
         <v>32</v>
       </c>
       <c r="K195" s="8">
-        <v>42002.6053935185</v>
+        <v>42002.605393518497</v>
       </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B196" s="6" t="str">
-        <v>Zachary</v>
+      <c r="B196" s="6" t="s">
+        <v>773</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D196" s="6" t="str">
-        <v>Yokley</v>
+      <c r="D196" s="6" t="s">
+        <v>774</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>11</v>
@@ -7038,8 +9414,8 @@
       <c r="F196" s="7">
         <v>5402315634</v>
       </c>
-      <c r="G196" s="6" t="str">
-        <v>zwyokley@vt.edu</v>
+      <c r="G196" s="6" t="s">
+        <v>775</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>2</v>
@@ -7051,28 +9427,28 @@
         <v>18</v>
       </c>
       <c r="K196" s="8">
-        <v>42013.5737962963</v>
+        <v>42013.573796296303</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B197" s="6" t="str">
-        <v>Jonghee</v>
+      <c r="B197" s="6" t="s">
+        <v>776</v>
       </c>
       <c r="C197" s="6"/>
-      <c r="D197" s="6" t="str">
-        <v>Yoo</v>
+      <c r="D197" s="6" t="s">
+        <v>777</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F197" s="7" t="str">
-        <v>630-840-3665</v>
-      </c>
-      <c r="G197" s="6" t="str">
-        <v>yoo@fnal.gov</v>
+      <c r="F197" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>779</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>24</v>
@@ -7098,17 +9474,17 @@
         <v>75</v>
       </c>
       <c r="C198" s="6"/>
-      <c r="D198" s="6" t="str">
-        <v>Yoshizawa</v>
-      </c>
-      <c r="E198" s="6" t="str">
-        <v>Hamamatsu Photonics</v>
-      </c>
-      <c r="F198" s="7" t="str">
-        <v>81539-623151</v>
-      </c>
-      <c r="G198" s="6" t="str">
-        <v>yuji.yoshizawa@etd.hpk.co.jp</v>
+      <c r="D198" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="F198" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>783</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>8</v>
@@ -7120,13 +9496,13 @@
         <v>18</v>
       </c>
       <c r="K198" s="8">
-        <v>42012.1847916667</v>
+        <v>42012.184791666703</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="6"/>
-      <c r="B199" s="6" t="str">
-        <v>Bo</v>
+      <c r="B199" s="6" t="s">
+        <v>784</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6" t="s">
@@ -7135,11 +9511,11 @@
       <c r="E199" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F199" s="7" t="str">
-        <v>631 344 5184</v>
-      </c>
-      <c r="G199" s="6" t="str">
-        <v>yu@bnl.gov</v>
+      <c r="F199" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>34</v>
@@ -7151,7 +9527,7 @@
         <v>32</v>
       </c>
       <c r="K199" s="8">
-        <v>41961.4244675926</v>
+        <v>41961.424467592602</v>
       </c>
       <c r="M199" s="10" t="s">
         <v>21</v>
@@ -7161,8 +9537,8 @@
       <c r="A200" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B200" s="6" t="str">
-        <v>Jaehoon</v>
+      <c r="B200" s="6" t="s">
+        <v>787</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6" t="s">
@@ -7171,11 +9547,11 @@
       <c r="E200" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F200" s="7" t="str">
-        <v>(817)272-2814</v>
-      </c>
-      <c r="G200" s="6" t="str">
-        <v>jaehoonyu@uta.edu</v>
+      <c r="F200" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>789</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>8</v>
@@ -7187,19 +9563,19 @@
         <v>4</v>
       </c>
       <c r="K200" s="8">
-        <v>42032.6918287037</v>
+        <v>42032.691828703697</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="6" t="str">
-        <v>Chao</v>
+      <c r="B201" s="6" t="s">
+        <v>790</v>
       </c>
       <c r="C201" s="6"/>
-      <c r="D201" s="6" t="str">
-        <v>Zhang</v>
+      <c r="D201" s="6" t="s">
+        <v>791</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>33</v>
@@ -7207,8 +9583,8 @@
       <c r="F201" s="7">
         <v>6313448320</v>
       </c>
-      <c r="G201" s="6" t="str">
-        <v>chao@bnl.gov</v>
+      <c r="G201" s="6" t="s">
+        <v>792</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>34</v>
@@ -7220,13 +9596,12 @@
         <v>18</v>
       </c>
       <c r="K201" s="8">
-        <v>42010.0153703704</v>
+        <v>42010.015370370398</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
 </file>
--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -624,9 +624,6 @@
     <t>Shaomin</t>
   </si>
   <si>
-    <t>CHEN</t>
-  </si>
-  <si>
     <t>Tsinghua University</t>
   </si>
   <si>
@@ -2401,6 +2398,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley National Laboratory and University of California, Berkeley</t>
   </si>
 </sst>
 </file>
@@ -2781,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3723,16 +3723,16 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>8</v>
@@ -3752,20 +3752,20 @@
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>34</v>
@@ -3785,22 +3785,22 @@
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="F30" s="7">
         <v>5056033708</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>8</v>
@@ -3820,13 +3820,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>35</v>
@@ -3835,7 +3835,7 @@
         <v>7737101898</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>8</v>
@@ -3859,16 +3859,16 @@
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>2</v>
@@ -3888,22 +3888,22 @@
         <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>8</v>
@@ -3929,16 +3929,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="F34" s="7">
         <v>6507032473</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>8</v>
@@ -3965,7 +3965,7 @@
         <v>48</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>49</v>
@@ -3974,7 +3974,7 @@
         <v>8128554590</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>2</v>
@@ -3992,11 +3992,11 @@
     <row r="36" spans="1:12">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>50</v>
@@ -4005,7 +4005,7 @@
         <v>8148635943</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>8</v>
@@ -4026,20 +4026,20 @@
     <row r="37" spans="1:12">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>24</v>
@@ -4059,20 +4059,20 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>34</v>
@@ -4092,20 +4092,20 @@
         <v>25</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>24</v>
@@ -4131,7 +4131,7 @@
         <v>52</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>37</v>
@@ -4140,7 +4140,7 @@
         <v>8655765229</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>24</v>
@@ -4164,16 +4164,16 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>8</v>
@@ -4193,11 +4193,11 @@
         <v>5</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>54</v>
@@ -4206,7 +4206,7 @@
         <v>5104991929</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>2</v>
@@ -4224,20 +4224,20 @@
     <row r="43" spans="1:12">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="F43" s="7">
         <v>5178845715</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>24</v>
@@ -4255,22 +4255,22 @@
     <row r="44" spans="1:12">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>34</v>
@@ -4290,11 +4290,11 @@
         <v>5</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>55</v>
@@ -4303,7 +4303,7 @@
         <v>6302527549</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>8</v>
@@ -4326,13 +4326,13 @@
         <v>5</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>56</v>
@@ -4341,7 +4341,7 @@
         <v>2158956860</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>8</v>
@@ -4363,16 +4363,16 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>34</v>
@@ -4390,20 +4390,20 @@
     <row r="48" spans="1:12">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>24</v>
@@ -4429,16 +4429,16 @@
         <v>15</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>8</v>
@@ -4462,16 +4462,16 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="F50" s="7">
         <v>4126249244</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>24</v>
@@ -4491,20 +4491,20 @@
         <v>25</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>8</v>
@@ -4530,7 +4530,7 @@
         <v>48</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>62</v>
@@ -4539,7 +4539,7 @@
         <v>6086956320</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>24</v>
@@ -4559,20 +4559,20 @@
         <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>24</v>
@@ -4592,20 +4592,20 @@
         <v>25</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>24</v>
@@ -4623,20 +4623,20 @@
     <row r="55" spans="1:13">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>8</v>
@@ -4659,20 +4659,20 @@
         <v>5</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>24</v>
@@ -4701,7 +4701,7 @@
         <v>65</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>54</v>
@@ -4710,7 +4710,7 @@
         <v>5104864398</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>8</v>
@@ -4734,16 +4734,16 @@
         <v>65</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>24</v>
@@ -4763,20 +4763,20 @@
         <v>25</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>24</v>
@@ -4802,16 +4802,16 @@
         <v>68</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>8</v>
@@ -4831,11 +4831,11 @@
         <v>5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>37</v>
@@ -4844,7 +4844,7 @@
         <v>8655746124</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>8</v>
@@ -4864,22 +4864,22 @@
         <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>8</v>
@@ -4902,20 +4902,20 @@
         <v>19</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="F63" s="7">
         <v>9846142632</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>2</v>
@@ -4935,20 +4935,20 @@
         <v>19</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>8</v>
@@ -4968,13 +4968,13 @@
         <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>69</v>
@@ -4983,7 +4983,7 @@
         <v>5073018908</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>2</v>
@@ -5003,11 +5003,11 @@
         <v>25</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>70</v>
@@ -5016,7 +5016,7 @@
         <v>6316327971</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>24</v>
@@ -5037,22 +5037,22 @@
     <row r="67" spans="1:13">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>8</v>
@@ -5072,20 +5072,20 @@
         <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>346</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>34</v>
@@ -5106,11 +5106,11 @@
     <row r="69" spans="1:13">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>1</v>
@@ -5119,7 +5119,7 @@
         <v>2039016607</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>2</v>
@@ -5142,10 +5142,10 @@
         <v>71</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>37</v>
@@ -5154,7 +5154,7 @@
         <v>6502488775</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>8</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="71" spans="1:13">
       <c r="B71" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D71" t="s">
         <v>353</v>
-      </c>
-      <c r="D71" t="s">
-        <v>354</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>63</v>
@@ -5201,7 +5201,7 @@
         <v>6313442088</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>34</v>
@@ -5219,7 +5219,7 @@
     <row r="73" spans="1:13">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
@@ -5232,7 +5232,7 @@
         <v>6318917245</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>2</v>
@@ -5250,20 +5250,20 @@
     <row r="74" spans="1:13">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>8</v>
@@ -5281,20 +5281,20 @@
     <row r="75" spans="1:13">
       <c r="A75" s="6"/>
       <c r="B75" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>8</v>
@@ -5314,20 +5314,20 @@
         <v>5</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>34</v>
@@ -5347,11 +5347,11 @@
         <v>5</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>30</v>
@@ -5360,7 +5360,7 @@
         <v>6308404545</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>8</v>
@@ -5380,13 +5380,13 @@
         <v>25</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>1</v>
@@ -5395,7 +5395,7 @@
         <v>4752012702</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>8</v>
@@ -5425,16 +5425,16 @@
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>2</v>
@@ -5454,11 +5454,11 @@
         <v>5</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>33</v>
@@ -5467,7 +5467,7 @@
         <v>2802</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>34</v>
@@ -5491,16 +5491,16 @@
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>8</v>
@@ -5520,20 +5520,20 @@
         <v>5</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="F82" s="7">
         <v>2076797159</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>8</v>
@@ -5557,16 +5557,16 @@
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="F83" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>8</v>
@@ -5586,11 +5586,11 @@
         <v>25</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>11</v>
@@ -5599,7 +5599,7 @@
         <v>5402318727</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>8</v>
@@ -5626,7 +5626,7 @@
         <v>40</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>33</v>
@@ -5635,7 +5635,7 @@
         <v>6313445518</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>34</v>
@@ -5653,22 +5653,22 @@
     <row r="86" spans="1:13">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F86" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>24</v>
@@ -5688,20 +5688,20 @@
         <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F87" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>34</v>
@@ -5721,20 +5721,20 @@
         <v>5</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="F88" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>8</v>
@@ -5758,16 +5758,16 @@
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>8</v>
@@ -5785,11 +5785,11 @@
     <row r="90" spans="1:13">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>30</v>
@@ -5798,7 +5798,7 @@
         <v>6308408196</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>24</v>
@@ -5819,10 +5819,10 @@
         <v>36</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>33</v>
@@ -5831,7 +5831,7 @@
         <v>6313445323</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>34</v>
@@ -5859,16 +5859,16 @@
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>34</v>
@@ -5894,7 +5894,7 @@
         <v>52</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>33</v>
@@ -5903,7 +5903,7 @@
         <v>6313445879</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>34</v>
@@ -5927,16 +5927,16 @@
         <v>6</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>8</v>
@@ -5962,13 +5962,13 @@
         <v>25</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>80</v>
@@ -5977,7 +5977,7 @@
         <v>5106429619</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>8</v>
@@ -6006,16 +6006,16 @@
         <v>10</v>
       </c>
       <c r="D96" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="G96" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>8</v>
@@ -6035,22 +6035,22 @@
         <v>25</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>56</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>8</v>
@@ -6076,7 +6076,7 @@
         <v>52</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>1</v>
@@ -6085,7 +6085,7 @@
         <v>2402710217</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>2</v>
@@ -6106,20 +6106,20 @@
     <row r="99" spans="1:13">
       <c r="A99" s="6"/>
       <c r="B99" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F99" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G99" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>8</v>
@@ -6139,20 +6139,20 @@
         <v>25</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F100" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>8</v>
@@ -6172,22 +6172,22 @@
         <v>25</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>8</v>
@@ -6207,11 +6207,11 @@
         <v>5</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>83</v>
@@ -6220,7 +6220,7 @@
         <v>6307652589</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>2</v>
@@ -6246,16 +6246,16 @@
         <v>10</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>24</v>
@@ -6283,16 +6283,16 @@
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F104" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>34</v>
@@ -6315,20 +6315,20 @@
         <v>5</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F105" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>34</v>
@@ -6351,13 +6351,13 @@
         <v>25</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>30</v>
@@ -6366,7 +6366,7 @@
         <v>6083548279</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>8</v>
@@ -6389,20 +6389,20 @@
         <v>19</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E107" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="F107" s="7">
         <v>7185015309</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>8</v>
@@ -6420,20 +6420,20 @@
     <row r="108" spans="1:13">
       <c r="A108" s="6"/>
       <c r="B108" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F108" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G108" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>2</v>
@@ -6451,20 +6451,20 @@
     <row r="109" spans="1:13" ht="30">
       <c r="A109" s="6"/>
       <c r="B109" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E109" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="F109" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="G109" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>8</v>
@@ -6490,16 +6490,16 @@
         <v>68</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F110" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>484</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>8</v>
@@ -6520,20 +6520,20 @@
     <row r="111" spans="1:13">
       <c r="A111" s="6"/>
       <c r="B111" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F111" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G111" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>8</v>
@@ -6550,10 +6550,10 @@
     </row>
     <row r="112" spans="1:13">
       <c r="B112" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>30</v>
@@ -6579,7 +6579,7 @@
         <v>52</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>33</v>
@@ -6588,7 +6588,7 @@
         <v>6313443151</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>34</v>
@@ -6608,11 +6608,11 @@
         <v>25</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>82</v>
@@ -6621,7 +6621,7 @@
         <v>8082061742</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>24</v>
@@ -6644,22 +6644,22 @@
         <v>25</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E115" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="F115" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="G115" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>8</v>
@@ -6685,7 +6685,7 @@
         <v>15</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>69</v>
@@ -6694,7 +6694,7 @@
         <v>2193169749</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>2</v>
@@ -6718,16 +6718,16 @@
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F117" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G117" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>505</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>8</v>
@@ -6747,20 +6747,20 @@
         <v>5</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="F118" s="7">
         <v>447737461854</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>8</v>
@@ -6778,11 +6778,11 @@
     <row r="119" spans="1:12">
       <c r="A119" s="6"/>
       <c r="B119" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>30</v>
@@ -6791,7 +6791,7 @@
         <v>6308402193</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>8</v>
@@ -6815,16 +6815,16 @@
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E120" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="F120" s="7">
         <v>7734013299</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>2</v>
@@ -6848,16 +6848,16 @@
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E121" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>517</v>
       </c>
       <c r="F121" s="7">
         <v>6263902073</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>8</v>
@@ -6881,16 +6881,16 @@
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F122" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>24</v>
@@ -6908,11 +6908,11 @@
     <row r="123" spans="1:12">
       <c r="A123" s="6"/>
       <c r="B123" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>50</v>
@@ -6921,7 +6921,7 @@
         <v>8054532850</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>8</v>
@@ -6941,20 +6941,20 @@
         <v>25</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E124" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="F124" s="7">
         <v>8058933440</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>24</v>
@@ -6983,7 +6983,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>33</v>
@@ -6992,7 +6992,7 @@
         <v>6099178510</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>34</v>
@@ -7012,22 +7012,22 @@
         <v>5</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F126" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>8</v>
@@ -7048,20 +7048,20 @@
     <row r="127" spans="1:12">
       <c r="A127" s="6"/>
       <c r="B127" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="F127" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="G127" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>8</v>
@@ -7085,16 +7085,16 @@
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E128" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="F128" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>8</v>
@@ -7114,11 +7114,11 @@
         <v>25</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>56</v>
@@ -7127,7 +7127,7 @@
         <v>2158952729</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>8</v>
@@ -7151,16 +7151,16 @@
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="F130" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="G130" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="H130" s="6" t="s">
         <v>8</v>
@@ -7180,20 +7180,20 @@
         <v>25</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E131" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="F131" s="7">
         <v>41764870463</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>8</v>
@@ -7217,20 +7217,20 @@
     <row r="132" spans="1:13">
       <c r="A132" s="6"/>
       <c r="B132" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F132" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>2</v>
@@ -7250,20 +7250,20 @@
         <v>5</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="F133" s="7">
         <v>5129659473</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H133" s="6" t="s">
         <v>2</v>
@@ -7289,16 +7289,16 @@
         <v>6</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F134" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>24</v>
@@ -7313,7 +7313,7 @@
         <v>42020.820729166699</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" ht="30">
       <c r="A135" s="6" t="s">
         <v>25</v>
       </c>
@@ -7324,16 +7324,16 @@
         <v>43</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>54</v>
+        <v>793</v>
       </c>
       <c r="F135" s="7">
         <v>5104958235</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>8</v>
@@ -7354,11 +7354,11 @@
     <row r="136" spans="1:13">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>30</v>
@@ -7367,7 +7367,7 @@
         <v>6308403622</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>8</v>
@@ -7387,20 +7387,20 @@
         <v>5</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>34</v>
@@ -7418,20 +7418,20 @@
     <row r="138" spans="1:13">
       <c r="A138" s="6"/>
       <c r="B138" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="H138" s="6" t="s">
         <v>24</v>
@@ -7455,16 +7455,16 @@
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F139" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>8</v>
@@ -7484,20 +7484,20 @@
         <v>25</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E140" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="F140" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="G140" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>8</v>
@@ -7517,20 +7517,20 @@
         <v>19</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E141" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="F141" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="G141" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>8</v>
@@ -7550,20 +7550,20 @@
         <v>5</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>595</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>34</v>
@@ -7587,11 +7587,11 @@
     <row r="143" spans="1:13">
       <c r="A143" s="6"/>
       <c r="B143" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>30</v>
@@ -7600,7 +7600,7 @@
         <v>6308408044</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>8</v>
@@ -7618,20 +7618,20 @@
     <row r="144" spans="1:13">
       <c r="A144" s="6"/>
       <c r="B144" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G144" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="H144" s="6" t="s">
         <v>8</v>
@@ -7657,20 +7657,20 @@
         <v>5</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E145" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="F145" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="G145" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>24</v>
@@ -7690,20 +7690,20 @@
         <v>25</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="E146" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="F146" s="7">
         <v>4126564725</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>8</v>
@@ -7727,16 +7727,16 @@
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E147" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="F147" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="G147" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="H147" s="6" t="s">
         <v>8</v>
@@ -7756,22 +7756,22 @@
         <v>19</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D148" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="F148" s="7">
         <v>9103153669</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>2</v>
@@ -7789,20 +7789,20 @@
     <row r="149" spans="1:13">
       <c r="A149" s="6"/>
       <c r="B149" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="F149" s="7">
         <v>5852758529</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>2</v>
@@ -7820,20 +7820,20 @@
     <row r="150" spans="1:13">
       <c r="A150" s="6"/>
       <c r="B150" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E150" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>626</v>
       </c>
       <c r="F150" s="7">
         <v>8652967581</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>2</v>
@@ -7853,13 +7853,13 @@
         <v>25</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>31</v>
@@ -7868,7 +7868,7 @@
         <v>5152947881</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>8</v>
@@ -7890,16 +7890,16 @@
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>34</v>
@@ -7925,16 +7925,16 @@
         <v>43</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G153" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>2</v>
@@ -7954,20 +7954,20 @@
         <v>19</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>2</v>
@@ -7987,20 +7987,20 @@
         <v>25</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E155" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="F155" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="G155" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>24</v>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>70</v>
@@ -8034,7 +8034,7 @@
         <v>6313717222</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>2</v>
@@ -8056,16 +8056,16 @@
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G157" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>8</v>
@@ -8088,11 +8088,11 @@
         <v>25</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>26</v>
@@ -8101,7 +8101,7 @@
         <v>9196602962</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H158" s="6" t="s">
         <v>24</v>
@@ -8131,16 +8131,16 @@
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F159" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="G159" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="H159" s="6" t="s">
         <v>8</v>
@@ -8158,11 +8158,11 @@
     <row r="160" spans="1:13">
       <c r="A160" s="6"/>
       <c r="B160" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>38</v>
@@ -8171,7 +8171,7 @@
         <v>9145912806</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>8</v>
@@ -8201,7 +8201,7 @@
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>70</v>
@@ -8210,7 +8210,7 @@
         <v>6316327986</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H161" s="6" t="s">
         <v>24</v>
@@ -8236,7 +8236,7 @@
         <v>87</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E162" s="6" t="s">
         <v>42</v>
@@ -8245,7 +8245,7 @@
         <v>9498247502</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H162" s="6" t="s">
         <v>8</v>
@@ -8266,20 +8266,20 @@
     <row r="163" spans="1:13">
       <c r="A163" s="6"/>
       <c r="B163" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F163" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>8</v>
@@ -8299,20 +8299,20 @@
         <v>5</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F164" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>671</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>34</v>
@@ -8332,13 +8332,13 @@
         <v>25</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>76</v>
@@ -8347,7 +8347,7 @@
         <v>5135569691</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>8</v>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>7</v>
@@ -8383,7 +8383,7 @@
         <v>2032419629</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>2</v>
@@ -8401,22 +8401,22 @@
     <row r="167" spans="1:13">
       <c r="A167" s="6"/>
       <c r="B167" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F167" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>680</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>2</v>
@@ -8438,16 +8438,16 @@
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>34</v>
@@ -8470,20 +8470,20 @@
         <v>5</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F169" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>687</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>8</v>
@@ -8503,13 +8503,13 @@
         <v>5</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>30</v>
@@ -8518,7 +8518,7 @@
         <v>6308402826</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>8</v>
@@ -8538,20 +8538,20 @@
         <v>25</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="E171" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="F171" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="G171" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>695</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>8</v>
@@ -8581,16 +8581,16 @@
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E172" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="F172" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="G172" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>24</v>
@@ -8616,13 +8616,13 @@
         <v>5</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>1</v>
@@ -8631,7 +8631,7 @@
         <v>6305064813</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>2</v>
@@ -8651,11 +8651,11 @@
         <v>25</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>49</v>
@@ -8664,7 +8664,7 @@
         <v>8128333057</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>8</v>
@@ -8690,16 +8690,16 @@
         <v>15</v>
       </c>
       <c r="D175" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="E175" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="F175" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="G175" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>709</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>24</v>
@@ -8722,20 +8722,20 @@
         <v>5</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G176" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>713</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>24</v>
@@ -8755,20 +8755,20 @@
         <v>5</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E177" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="F177" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="G177" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>718</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>24</v>
@@ -8792,7 +8792,7 @@
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>42</v>
@@ -8801,7 +8801,7 @@
         <v>9498242894</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>24</v>
@@ -8830,16 +8830,16 @@
         <v>79</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F179" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G179" s="6" t="s">
         <v>722</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>723</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>8</v>
@@ -8857,20 +8857,20 @@
     <row r="180" spans="1:13">
       <c r="A180" s="6"/>
       <c r="B180" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G180" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>24</v>
@@ -8890,20 +8890,20 @@
         <v>25</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="F181" s="7">
         <v>41316315146</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>8</v>
@@ -8923,20 +8923,20 @@
         <v>5</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F182" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>34</v>
@@ -8960,16 +8960,16 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F183" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="G183" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>738</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>2</v>
@@ -8999,10 +8999,10 @@
         <v>69</v>
       </c>
       <c r="F184" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="G184" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>740</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>8</v>
@@ -9022,7 +9022,7 @@
         <v>5</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>6</v>
@@ -9034,10 +9034,10 @@
         <v>37</v>
       </c>
       <c r="F185" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="G185" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>743</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>2</v>
@@ -9061,16 +9061,16 @@
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F186" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>745</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>746</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>8</v>
@@ -9093,22 +9093,22 @@
         <v>5</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F187" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>750</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>2</v>
@@ -9134,16 +9134,16 @@
         <v>52</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E188" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F188" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>24</v>
@@ -9175,13 +9175,13 @@
         <v>89</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F189" s="7">
         <v>9704915033</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>8</v>
@@ -9212,7 +9212,7 @@
         <v>6308402156</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>24</v>
@@ -9239,16 +9239,16 @@
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E191" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F191" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="G191" s="6" t="s">
         <v>758</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>759</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>2</v>
@@ -9274,16 +9274,16 @@
         <v>6</v>
       </c>
       <c r="D192" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E192" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="F192" s="7">
         <v>2039843993</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>8</v>
@@ -9301,11 +9301,11 @@
     <row r="193" spans="1:13">
       <c r="A193" s="6"/>
       <c r="B193" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E193" s="6" t="s">
         <v>33</v>
@@ -9314,7 +9314,7 @@
         <v>6313445325</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>34</v>
@@ -9334,20 +9334,20 @@
         <v>25</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F194" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="G194" s="6" t="s">
         <v>768</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>769</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>24</v>
@@ -9367,11 +9367,11 @@
         <v>5</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E195" s="6" t="s">
         <v>33</v>
@@ -9380,7 +9380,7 @@
         <v>3442870</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H195" s="6" t="s">
         <v>34</v>
@@ -9400,13 +9400,13 @@
         <v>19</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E196" s="6" t="s">
         <v>11</v>
@@ -9415,7 +9415,7 @@
         <v>5402315634</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H196" s="6" t="s">
         <v>2</v>
@@ -9435,20 +9435,20 @@
         <v>5</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E197" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F197" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>778</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>779</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>24</v>
@@ -9475,16 +9475,16 @@
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="F198" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="G198" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>783</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>8</v>
@@ -9502,7 +9502,7 @@
     <row r="199" spans="1:13">
       <c r="A199" s="6"/>
       <c r="B199" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6" t="s">
@@ -9512,10 +9512,10 @@
         <v>33</v>
       </c>
       <c r="F199" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>785</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>786</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>34</v>
@@ -9538,7 +9538,7 @@
         <v>25</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6" t="s">
@@ -9548,10 +9548,10 @@
         <v>41</v>
       </c>
       <c r="F200" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="G200" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>789</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>8</v>
@@ -9571,11 +9571,11 @@
         <v>5</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>33</v>
@@ -9584,7 +9584,7 @@
         <v>6313448320</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>34</v>

--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="771">
   <si>
     <t>Mr.</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Fermilab</t>
   </si>
   <si>
-    <t>DOE Office of Science</t>
-  </si>
-  <si>
     <t>Detector R&amp;D</t>
   </si>
   <si>
@@ -477,18 +474,6 @@
     <t>betan009@fnal.gov</t>
   </si>
   <si>
-    <t>Anwar</t>
-  </si>
-  <si>
-    <t>Bhatti</t>
-  </si>
-  <si>
-    <t>301-903-4115</t>
-  </si>
-  <si>
-    <t>anwar.bhatti@science.doe.gov</t>
-  </si>
-  <si>
     <t>Mary</t>
   </si>
   <si>
@@ -711,18 +696,6 @@
     <t>cowen@phys.psu.edu</t>
   </si>
   <si>
-    <t>Glen</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>301-903-4829</t>
-  </si>
-  <si>
-    <t>glen.crawford@science.doe.gov</t>
-  </si>
-  <si>
     <t>Hooman</t>
   </si>
   <si>
@@ -1146,18 +1119,6 @@
     <t>karsten.heeger@yale.edu</t>
   </si>
   <si>
-    <t>Heisel</t>
-  </si>
-  <si>
-    <t>Max-Planck-Institut fuer Kernphysik</t>
-  </si>
-  <si>
-    <t>+49-6221-516827</t>
-  </si>
-  <si>
-    <t>mark.heisel@mpi-hd.mpg.de</t>
-  </si>
-  <si>
     <t>Michal</t>
   </si>
   <si>
@@ -1281,15 +1242,6 @@
     <t>kettell@bnl.gov</t>
   </si>
   <si>
-    <t>Kilgore</t>
-  </si>
-  <si>
-    <t>631-344-3748</t>
-  </si>
-  <si>
-    <t>william.kilgore@science.doe.gov</t>
-  </si>
-  <si>
     <t>Kirby</t>
   </si>
   <si>
@@ -1905,15 +1857,6 @@
     <t>eromeror@vols.utk.edu</t>
   </si>
   <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>Rosenberg</t>
-  </si>
-  <si>
-    <t>redmount@iastate.edu</t>
-  </si>
-  <si>
     <t>Rosero</t>
   </si>
   <si>
@@ -2071,18 +2014,6 @@
   </si>
   <si>
     <t>stewart@bnl.gov</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>301-903-7998</t>
-  </si>
-  <si>
-    <t>alan.stone@science.doe.gov</t>
   </si>
   <si>
     <t>James</t>
@@ -2779,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2805,43 +2736,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2849,11 +2780,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -2862,7 +2793,7 @@
         <v>6102466091</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -2882,22 +2813,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -2917,22 +2848,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
@@ -2956,16 +2887,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>2</v>
@@ -2983,20 +2914,20 @@
     <row r="6" spans="1:13">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>8</v>
@@ -3016,13 +2947,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>7</v>
@@ -3031,7 +2962,7 @@
         <v>6178523880</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -3049,20 +2980,20 @@
     <row r="8" spans="1:13">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>8</v>
@@ -3087,7 +3018,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>23</v>
@@ -3096,7 +3027,7 @@
         <v>6268407517</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>24</v>
@@ -3116,13 +3047,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1</v>
@@ -3131,7 +3062,7 @@
         <v>6599262655</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>8</v>
@@ -3151,13 +3082,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
@@ -3166,7 +3097,7 @@
         <v>7733690348</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>24</v>
@@ -3189,11 +3120,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -3202,7 +3133,7 @@
         <v>2674018088</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>2</v>
@@ -3222,20 +3153,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>24</v>
@@ -3255,20 +3186,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>2</v>
@@ -3284,67 +3215,68 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6313444877</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K15" s="8">
-        <v>42031.391446759299</v>
+        <v>41961.494039351899</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7">
-        <v>6313444877</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K16" s="8">
-        <v>41961.494039351899</v>
+        <v>42023.404398148101</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -3353,116 +3285,115 @@
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="7">
+        <v>8022498505</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K17" s="8">
-        <v>42023.404398148101</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
+        <v>42037.502951388902</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F18" s="7">
-        <v>8022498505</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K18" s="8">
-        <v>42037.502951388902</v>
+        <v>41996.630798611099</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K19" s="8">
-        <v>41996.630798611099</v>
+        <v>42034.5247453704</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>24</v>
@@ -3471,34 +3402,34 @@
         <v>3</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K20" s="8">
-        <v>42034.5247453704</v>
+        <v>42013.422488425902</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>3</v>
@@ -3507,22 +3438,25 @@
         <v>18</v>
       </c>
       <c r="K21" s="8">
-        <v>42013.422488425902</v>
+        <v>41992.696782407402</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>179</v>
@@ -3534,21 +3468,18 @@
         <v>8</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="8">
-        <v>41992.696782407402</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
+        <v>41962.954664351899</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>181</v>
@@ -3558,124 +3489,127 @@
         <v>182</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="8">
+        <v>41997.678865740701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="C24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="8">
-        <v>41962.954664351899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="K24" s="8">
+        <v>42013.535300925898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="8">
-        <v>41997.678865740701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K25" s="8">
-        <v>42013.535300925898</v>
+        <v>42026.732858796298</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>196</v>
+        <v>42</v>
+      </c>
+      <c r="F26" s="7">
+        <v>9498247291</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K26" s="8">
-        <v>42026.732858796298</v>
+        <v>41992.500590277799</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3683,68 +3617,65 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="7">
-        <v>9498247291</v>
+        <v>196</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K27" s="8">
-        <v>41992.500590277799</v>
-      </c>
-      <c r="L27" t="s">
-        <v>21</v>
+        <v>42011.846898148098</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="H28" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K28" s="8">
-        <v>42011.846898148098</v>
+        <v>42032.607002314799</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3752,55 +3683,57 @@
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="7">
+        <v>5056033708</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="H29" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K29" s="8">
-        <v>42032.607002314799</v>
+        <v>42013.427974537</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="7">
+        <v>7737101898</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" s="7">
-        <v>5056033708</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>8</v>
@@ -3809,231 +3742,231 @@
         <v>12</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K30" s="8">
-        <v>42013.427974537</v>
+        <v>41964.608414351896</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="7">
-        <v>7737101898</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="H31" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K31" s="8">
-        <v>41964.608414351896</v>
+        <v>42013.706006944398</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="H32" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K32" s="8">
-        <v>42013.706006944398</v>
+        <v>42013.4845138889</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="F33" s="7">
+        <v>6507032473</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K33" s="8">
-        <v>42013.4845138889</v>
+        <v>42027.635393518503</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="F34" s="7">
-        <v>6507032473</v>
+        <v>8128554590</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K34" s="8">
-        <v>42027.635393518503</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
+        <v>42013.705775463</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F35" s="7">
-        <v>8128554590</v>
+        <v>8148635943</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K35" s="8">
-        <v>42013.705775463</v>
+        <v>41962.714918981503</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B36" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="7">
-        <v>8148635943</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="8">
+        <v>42027.635370370401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="8">
-        <v>41962.714918981503</v>
-      </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>232</v>
@@ -4045,13 +3978,13 @@
         <v>24</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K37" s="8">
-        <v>42012.410254629598</v>
+        <v>42011.460752314801</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4059,65 +3992,67 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="7">
+        <v>8655765229</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="H38" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K38" s="8">
-        <v>42027.635370370401</v>
+        <v>42018.6089236111</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K39" s="8">
-        <v>42011.460752314801</v>
+        <v>41985.6411689815</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4125,104 +4060,102 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F40" s="7">
-        <v>8655765229</v>
+        <v>5104991929</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K40" s="8">
-        <v>42018.6089236111</v>
+        <v>42020.824525463002</v>
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>54</v>
+        <v>242</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5178845715</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="H41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="8">
+        <v>42010.652546296304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="8">
-        <v>41985.6411689815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="7">
-        <v>5104991929</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>250</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K42" s="8">
-        <v>42020.824525463002</v>
+        <v>42014.488379629598</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>251</v>
       </c>
@@ -4231,179 +4164,181 @@
         <v>252</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="7">
+        <v>6302527549</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F43" s="7">
-        <v>5178845715</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="8">
+        <v>41995.739560185197</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="8">
-        <v>42010.652546296304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="E44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="7">
+        <v>2158956860</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="H44" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K44" s="8">
-        <v>42014.488379629598</v>
+        <v>42010.690057870401</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="7">
-        <v>6302527549</v>
+        <v>32</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K45" s="8">
-        <v>41995.739560185197</v>
-      </c>
-      <c r="L45" t="s">
-        <v>21</v>
+        <v>42010.354733796303</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="8">
+        <v>42024.453425925902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2158956860</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="8">
-        <v>42010.690057870401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D47" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="H47" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K47" s="8">
-        <v>42010.354733796303</v>
+        <v>41979.399756944404</v>
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="6"/>
+      <c r="A48" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B48" s="6" t="s">
-        <v>269</v>
+        <v>59</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="F48" s="7">
+        <v>4126249244</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>24</v>
@@ -4412,45 +4347,43 @@
         <v>12</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K48" s="8">
-        <v>42024.453425925902</v>
+        <v>42030.940659722197</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K49" s="8">
-        <v>41979.399756944404</v>
+        <v>41983.710347222201</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -4458,65 +4391,67 @@
         <v>25</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D50" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>277</v>
+        <v>62</v>
       </c>
       <c r="F50" s="7">
-        <v>4126249244</v>
+        <v>6086956320</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K50" s="8">
-        <v>42030.940659722197</v>
+        <v>42016.698854166701</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K51" s="8">
-        <v>41983.710347222201</v>
+        <v>42031.152499999997</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4524,58 +4459,54 @@
         <v>25</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="7">
-        <v>6086956320</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K52" s="8">
-        <v>42016.698854166701</v>
+        <v>42027.611944444398</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="H53" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>3</v>
@@ -4584,59 +4515,69 @@
         <v>4</v>
       </c>
       <c r="K53" s="8">
-        <v>42031.152499999997</v>
+        <v>41976.397557870398</v>
+      </c>
+      <c r="M53" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K54" s="8">
-        <v>42027.611944444398</v>
+        <v>42037.6616319444</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="6"/>
+      <c r="A55" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="7">
+        <v>5104864398</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>8</v>
@@ -4645,99 +4586,93 @@
         <v>3</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K55" s="8">
-        <v>41976.397557870398</v>
-      </c>
-      <c r="M55" t="s">
-        <v>21</v>
+        <v>42013.707303240699</v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C56" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D56" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K56" s="8">
-        <v>42037.6616319444</v>
-      </c>
-      <c r="M56" t="s">
-        <v>21</v>
+        <v>42034.402118055601</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="8">
+        <v>42033.903587963003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="7">
-        <v>5104864398</v>
-      </c>
-      <c r="G57" s="6" t="s">
+      <c r="B58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="8">
-        <v>42013.707303240699</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>304</v>
@@ -4746,21 +4681,21 @@
         <v>305</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J58" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K58" s="8">
-        <v>42034.402118055601</v>
+        <v>42013.483090277798</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>306</v>
@@ -4770,25 +4705,25 @@
         <v>307</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="7">
+        <v>8655746124</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="H59" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K59" s="8">
-        <v>42033.903587963003</v>
+        <v>41964.972743055601</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4796,84 +4731,85 @@
         <v>5</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>59</v>
+        <v>309</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>311</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K60" s="8">
-        <v>42013.483090277798</v>
+        <v>41995.526967592603</v>
+      </c>
+      <c r="L60" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F61" s="7">
-        <v>8655746124</v>
+        <v>9846142632</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>317</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K61" s="8">
-        <v>41964.972743055601</v>
+        <v>42005.476840277799</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>321</v>
@@ -4888,183 +4824,181 @@
         <v>17</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K62" s="8">
-        <v>41995.526967592603</v>
-      </c>
-      <c r="L62" t="s">
-        <v>21</v>
+        <v>42011.626585648097</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D63" s="6" t="s">
         <v>324</v>
       </c>
       <c r="E63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="7">
+        <v>5073018908</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="F63" s="7">
-        <v>9846142632</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K63" s="8">
-        <v>42005.476840277799</v>
+        <v>42011.646238425899</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="7">
+        <v>6316327971</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="H64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="8">
+        <v>42025.470740740697</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="C65" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="E65" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="G65" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K64" s="8">
-        <v>42011.626585648097</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F65" s="7">
-        <v>5073018908</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="I65" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K65" s="8">
-        <v>42011.646238425899</v>
+        <v>41969.747939814799</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="7">
-        <v>6316327971</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="H66" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K66" s="8">
-        <v>42025.470740740697</v>
-      </c>
-      <c r="L66" t="s">
+        <v>41976.584548611099</v>
+      </c>
+      <c r="M66" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="E67" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2039016607</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="H67" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K67" s="8">
-        <v>41969.747939814799</v>
+        <v>42033.597268518497</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -5072,274 +5006,281 @@
         <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="7">
+        <v>6502488775</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
+      <c r="H68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="8">
+        <v>42009.574236111097</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="B69" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="D69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="9">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="7">
+        <v>6313442088</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K68" s="8">
-        <v>41976.584548611099</v>
-      </c>
-      <c r="M68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
+      <c r="I70" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="8">
+        <v>42016.627928240698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6" t="s">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="7">
+        <v>6318917245</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7">
-        <v>2039016607</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H69" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J69" s="6" t="s">
+      <c r="I71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K69" s="8">
-        <v>42033.597268518497</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="7">
-        <v>6502488775</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K70" s="8">
-        <v>42009.574236111097</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="B71" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D71" t="s">
-        <v>353</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K71" s="9">
-        <v>42056</v>
+      <c r="K71" s="8">
+        <v>42032.675104166701</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
-        <v>74</v>
+        <v>349</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F72" s="7">
-        <v>6313442088</v>
+        <v>62</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K72" s="8">
-        <v>42016.627928240698</v>
+        <v>42024.539768518502</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F73" s="7">
-        <v>6318917245</v>
+      <c r="F73" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="G73" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="8">
+        <v>41996.638912037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K73" s="8">
-        <v>42032.675104166701</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="H74" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="8">
+        <v>42011.648136574098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="8">
-        <v>42024.539768518502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="7">
+        <v>6308404545</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K75" s="8">
-        <v>41996.638912037</v>
+        <v>42006.934340277803</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>4752012702</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="H76" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K76" s="8">
-        <v>42011.648136574098</v>
+        <v>41976.391423611101</v>
+      </c>
+      <c r="L76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -5347,32 +5288,32 @@
         <v>5</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F77" s="7">
-        <v>6308404545</v>
+        <v>2802</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K77" s="8">
-        <v>42006.934340277803</v>
+        <v>42033.955474536997</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -5380,40 +5321,32 @@
         <v>25</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="7">
-        <v>4752012702</v>
+        <v>34</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K78" s="8">
-        <v>41976.391423611101</v>
-      </c>
-      <c r="L78" t="s">
-        <v>21</v>
-      </c>
-      <c r="M78" t="s">
-        <v>21</v>
+        <v>41965.791770833297</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -5421,65 +5354,65 @@
         <v>5</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>47</v>
+        <v>372</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F79" s="7">
+        <v>2076797159</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="H79" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K79" s="8">
-        <v>42013.480578703697</v>
+        <v>42032.430300925902</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F80" s="7">
-        <v>2802</v>
+        <v>377</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K80" s="8">
-        <v>42033.955474536997</v>
+        <v>42012.167256944398</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -5487,547 +5420,554 @@
         <v>25</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="7">
+        <v>5402318727</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K81" s="8">
-        <v>41965.791770833297</v>
+        <v>41976.592291666697</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="7">
+        <v>6313445518</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="8">
+        <v>41962.394803240699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6" t="s">
+      <c r="C83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F82" s="7">
-        <v>2076797159</v>
-      </c>
-      <c r="G82" s="6" t="s">
+      <c r="G83" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="6" t="s">
+      <c r="H83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K82" s="8">
-        <v>42032.430300925902</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="K83" s="8">
-        <v>42012.167256944398</v>
+        <v>42019.792997685203</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="7">
-        <v>5402318727</v>
+        <v>32</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K84" s="8">
-        <v>41976.592291666697</v>
-      </c>
-      <c r="L84" t="s">
-        <v>21</v>
+        <v>42006.455972222197</v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="6"/>
+      <c r="A85" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B85" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F85" s="7">
-        <v>6313445518</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>397</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K85" s="8">
-        <v>41962.394803240699</v>
+        <v>41978.692870370403</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="6"/>
+      <c r="A86" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B86" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="E86" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" s="7" t="s">
+      <c r="G86" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="H86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="8">
+        <v>41974.944016203699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K86" s="8">
-        <v>42019.792997685203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="7">
+        <v>6308408196</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="H87" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="8">
+        <v>42020.9531712963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K87" s="8">
-        <v>42006.455972222197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="F88" s="7">
+        <v>6313445323</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K88" s="8">
-        <v>41978.692870370403</v>
+        <v>41975.815393518496</v>
+      </c>
+      <c r="L88" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D89" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>412</v>
+        <v>32</v>
+      </c>
+      <c r="F89" s="7">
+        <v>6313445879</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K89" s="8">
-        <v>41974.944016203699</v>
+        <v>42016.563530092601</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="6"/>
       <c r="B90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="8">
+        <v>42012.605416666702</v>
+      </c>
+      <c r="L90" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" s="7">
+        <v>5106429619</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F90" s="7">
-        <v>6308408196</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K90" s="8">
-        <v>42020.9531712963</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F91" s="7">
-        <v>6313445323</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>419</v>
-      </c>
       <c r="H91" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K91" s="8">
-        <v>41975.815393518496</v>
+        <v>42023.292928240699</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
       </c>
-      <c r="M91" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="6"/>
+      <c r="A92" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B92" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D92" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K92" s="8">
-        <v>41988.609247685199</v>
+        <v>41984.788148148102</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>65</v>
+        <v>419</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D93" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="8">
+        <v>42012.590324074103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F93" s="7">
-        <v>6313445879</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="E94" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>2402710217</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="H93" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K93" s="8">
-        <v>42016.563530092601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>427</v>
-      </c>
       <c r="H94" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K94" s="8">
-        <v>42012.605416666702</v>
-      </c>
-      <c r="L94" t="s">
-        <v>21</v>
+        <v>41979.423472222203</v>
       </c>
       <c r="M94" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A95" s="6"/>
       <c r="B95" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F95" s="7">
-        <v>5106429619</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K95" s="8">
-        <v>42023.292928240699</v>
-      </c>
-      <c r="L95" t="s">
-        <v>21</v>
+        <v>42009.8496759259</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K96" s="8">
-        <v>41984.788148148102</v>
+        <v>41995.585659722201</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -6035,22 +5975,22 @@
         <v>25</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>8</v>
@@ -6062,7 +6002,7 @@
         <v>18</v>
       </c>
       <c r="K97" s="8">
-        <v>42012.590324074103</v>
+        <v>41975.780405092599</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -6070,127 +6010,131 @@
         <v>5</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F98" s="7">
+        <v>6307652589</v>
+      </c>
+      <c r="G98" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="7">
-        <v>2402710217</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K98" s="8">
-        <v>41979.423472222203</v>
-      </c>
-      <c r="M98" t="s">
-        <v>21</v>
+        <v>42034.672835648104</v>
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="6"/>
+      <c r="A99" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B99" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="H99" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K99" s="8">
-        <v>42009.8496759259</v>
+        <v>41976.440590277802</v>
+      </c>
+      <c r="L99" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A100" s="6"/>
       <c r="B100" s="6" t="s">
-        <v>445</v>
+        <v>51</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K100" s="8">
-        <v>41995.585659722201</v>
+        <v>41975.777222222197</v>
+      </c>
+      <c r="M100" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G101" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="H101" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>3</v>
@@ -6199,130 +6143,125 @@
         <v>18</v>
       </c>
       <c r="K101" s="8">
-        <v>41975.780405092599</v>
+        <v>41976.373726851903</v>
+      </c>
+      <c r="M101" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C102" s="6"/>
+        <v>450</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D102" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F102" s="7">
-        <v>6307652589</v>
+        <v>6083548279</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K102" s="8">
-        <v>42034.672835648104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>42011.870358796303</v>
+      </c>
+      <c r="L102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="409.6">
       <c r="A103" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C103" s="6"/>
       <c r="D103" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F103" s="7">
+        <v>7185015309</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>458</v>
-      </c>
       <c r="H103" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K103" s="8">
-        <v>41976.440590277802</v>
-      </c>
-      <c r="L103" t="s">
-        <v>21</v>
-      </c>
-      <c r="M103" t="s">
-        <v>21</v>
+        <v>42018.368587962999</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
-        <v>52</v>
+        <v>457</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F104" s="7" t="s">
+      <c r="G104" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="H104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="8">
+        <v>42018.772210648101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K104" s="8">
-        <v>41975.777222222197</v>
-      </c>
-      <c r="M104" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>464</v>
@@ -6331,39 +6270,36 @@
         <v>465</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K105" s="8">
-        <v>41976.373726851903</v>
-      </c>
-      <c r="M105" t="s">
-        <v>21</v>
+        <v>42024.392615740697</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="E106" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F106" s="7">
-        <v>6083548279</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>468</v>
@@ -6375,19 +6311,17 @@
         <v>3</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K106" s="8">
-        <v>42011.870358796303</v>
+        <v>41967.568414351903</v>
       </c>
       <c r="L106" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A107" s="6"/>
       <c r="B107" s="6" t="s">
         <v>469</v>
       </c>
@@ -6396,10 +6330,10 @@
         <v>470</v>
       </c>
       <c r="E107" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F107" s="7">
-        <v>7185015309</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>472</v>
@@ -6408,101 +6342,92 @@
         <v>8</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K107" s="8">
-        <v>42018.368587962999</v>
+        <v>42030.533831018503</v>
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="6"/>
       <c r="B108" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
         <v>474</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="K108" s="9">
+        <v>42056</v>
+      </c>
+      <c r="L108" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="E109" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="7">
+        <v>6313443151</v>
+      </c>
+      <c r="G109" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="H108" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I108" s="6" t="s">
+      <c r="H109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K108" s="8">
-        <v>42018.772210648101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="H109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="J109" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K109" s="8">
-        <v>42024.392615740697</v>
+        <v>42013.667280092603</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>483</v>
+        <v>82</v>
+      </c>
+      <c r="F110" s="7">
+        <v>8082061742</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>3</v>
@@ -6511,389 +6436,404 @@
         <v>9</v>
       </c>
       <c r="K110" s="8">
-        <v>41967.568414351903</v>
+        <v>41998.301620370403</v>
       </c>
       <c r="L110" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:13">
-      <c r="A111" s="6"/>
+      <c r="A111" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B111" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="C111" s="6"/>
+        <v>480</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D111" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K111" s="8">
-        <v>42030.533831018503</v>
+        <v>42008.9242592593</v>
       </c>
     </row>
     <row r="112" spans="1:13">
+      <c r="A112" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B112" s="6" t="s">
-        <v>489</v>
+        <v>51</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K112" s="9">
-        <v>42056</v>
-      </c>
-      <c r="L112" t="s">
-        <v>21</v>
-      </c>
-      <c r="M112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>69</v>
+      </c>
+      <c r="F112" s="7">
+        <v>2193169749</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K112" s="8">
+        <v>42013.7209953704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F113" s="7">
-        <v>6313443151</v>
+        <v>38</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K113" s="8">
-        <v>42013.667280092603</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>42012.5160300926</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="F114" s="7">
+        <v>447737461854</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" s="8">
+        <v>42019.254594907397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F114" s="7">
-        <v>8082061742</v>
-      </c>
-      <c r="G114" s="6" t="s">
+      <c r="C115" s="6"/>
+      <c r="D115" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="H114" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J114" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K114" s="8">
-        <v>41998.301620370403</v>
-      </c>
-      <c r="L114" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="E115" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="7">
+        <v>6308402193</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K115" s="8">
-        <v>42008.9242592593</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>42010.7348726852</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>70</v>
+        <v>498</v>
       </c>
       <c r="F116" s="7">
-        <v>2193169749</v>
+        <v>7734013299</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K116" s="8">
-        <v>42013.7209953704</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>42014.111064814802</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
+      </c>
+      <c r="F117" s="7">
+        <v>6263902073</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K117" s="8">
-        <v>42012.5160300926</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>42011.894629629598</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>506</v>
+        <v>53</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F118" s="7">
-        <v>447737461854</v>
+        <v>38</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K118" s="8">
-        <v>42019.254594907397</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>41985.569629629601</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="6"/>
       <c r="B119" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F119" s="7">
-        <v>6308402193</v>
+        <v>8054532850</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K119" s="8">
-        <v>42010.7348726852</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>42006.5632175926</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>52</v>
+        <v>509</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F120" s="7">
+        <v>8058933440</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="8">
+        <v>42013.1722800926</v>
+      </c>
+      <c r="L120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="7">
+        <v>6099178510</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F120" s="7">
-        <v>7734013299</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K120" s="8">
-        <v>42014.111064814802</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="F121" s="7">
-        <v>6263902073</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>518</v>
-      </c>
       <c r="H121" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K121" s="8">
-        <v>42011.894629629598</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>42010.011770833298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C122" s="6"/>
+        <v>515</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D122" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>12</v>
@@ -6902,126 +6842,122 @@
         <v>4</v>
       </c>
       <c r="K122" s="8">
-        <v>41985.569629629601</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>41967.931446759299</v>
+      </c>
+      <c r="L122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="6"/>
       <c r="B123" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F123" s="7">
-        <v>8054532850</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K123" s="8">
-        <v>42006.5632175926</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+        <v>42002.374074074098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>525</v>
+        <v>85</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F124" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F124" s="7">
-        <v>8058933440</v>
-      </c>
-      <c r="G124" s="6" t="s">
+      <c r="H124" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="8">
+        <v>42013.661643518499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H124" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I124" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J124" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K124" s="8">
-        <v>42013.1722800926</v>
-      </c>
-      <c r="L124" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
         <v>529</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F125" s="7">
-        <v>6099178510</v>
+        <v>2158952729</v>
       </c>
       <c r="G125" s="6" t="s">
         <v>530</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K125" s="8">
-        <v>42010.011770833298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>42037.6315972222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>533</v>
@@ -7036,17 +6972,16 @@
         <v>12</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K126" s="8">
-        <v>41967.931446759299</v>
-      </c>
-      <c r="L126" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" s="6"/>
+        <v>42016.597222222197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B127" s="6" t="s">
         <v>535</v>
       </c>
@@ -7057,11 +6992,11 @@
       <c r="E127" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="7">
+        <v>41764870463</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>8</v>
@@ -7070,34 +7005,38 @@
         <v>3</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K127" s="8">
-        <v>42002.374074074098</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>42012.015879629602</v>
+      </c>
+      <c r="L127" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="6"/>
       <c r="B128" s="6" t="s">
-        <v>86</v>
+        <v>539</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E128" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="G128" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="G128" s="6" t="s">
-        <v>543</v>
-      </c>
       <c r="H128" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>3</v>
@@ -7106,40 +7045,40 @@
         <v>18</v>
       </c>
       <c r="K128" s="8">
-        <v>42013.661643518499</v>
+        <v>42011.366932870398</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="F129" s="7">
-        <v>2158952729</v>
+        <v>5129659473</v>
       </c>
       <c r="G129" s="6" t="s">
         <v>546</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K129" s="8">
-        <v>42037.6315972222</v>
+        <v>42020.115486111099</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -7147,102 +7086,103 @@
         <v>25</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C130" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D130" s="6" t="s">
         <v>547</v>
       </c>
       <c r="E130" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="G130" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="G130" s="6" t="s">
-        <v>550</v>
-      </c>
       <c r="H130" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K130" s="8">
-        <v>42016.597222222197</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>42020.820729166699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="30">
       <c r="A131" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="F131" s="7">
+        <v>5104958235</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="F131" s="7">
-        <v>41764870463</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K131" s="8">
-        <v>42012.015879629602</v>
+        <v>42014.826527777797</v>
       </c>
       <c r="L131" t="s">
-        <v>21</v>
-      </c>
-      <c r="M131" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="6"/>
       <c r="B132" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>557</v>
+        <v>30</v>
+      </c>
+      <c r="F132" s="7">
+        <v>6308403622</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K132" s="8">
-        <v>42011.366932870398</v>
+        <v>42024.459178240701</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7250,90 +7190,84 @@
         <v>5</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="F133" s="7">
-        <v>5129659473</v>
+        <v>32</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J133" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K133" s="8">
-        <v>42020.115486111099</v>
+        <v>42013.657476851899</v>
       </c>
     </row>
     <row r="134" spans="1:13">
-      <c r="A134" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A134" s="6"/>
       <c r="B134" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K134" s="8">
-        <v>42020.820729166699</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" ht="30">
+        <v>42014.680243055598</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="F135" s="7">
-        <v>5104958235</v>
+        <v>70</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>8</v>
@@ -7342,29 +7276,28 @@
         <v>17</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K135" s="8">
-        <v>42014.826527777797</v>
-      </c>
-      <c r="L135" t="s">
-        <v>21</v>
+        <v>42010.491909722201</v>
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="6"/>
+      <c r="A136" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B136" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F136" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" s="7">
-        <v>6308403622</v>
       </c>
       <c r="G136" s="6" t="s">
         <v>570</v>
@@ -7379,12 +7312,12 @@
         <v>4</v>
       </c>
       <c r="K136" s="8">
-        <v>42024.459178240701</v>
+        <v>41963.301388888904</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>571</v>
@@ -7394,104 +7327,108 @@
         <v>572</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>33</v>
+        <v>573</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K137" s="8">
-        <v>42013.657476851899</v>
+        <v>42025.517592592601</v>
       </c>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="6"/>
+      <c r="A138" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B138" s="6" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K138" s="8">
-        <v>42014.680243055598</v>
+        <v>41960.802418981497</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:13">
-      <c r="A139" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A139" s="6"/>
       <c r="B139" s="6" t="s">
-        <v>87</v>
+        <v>580</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>580</v>
+        <v>30</v>
+      </c>
+      <c r="F139" s="7">
+        <v>6308408044</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K139" s="8">
-        <v>42010.491909722201</v>
+        <v>42013.438958333303</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A140" s="6"/>
       <c r="B140" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>584</v>
+        <v>30</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>585</v>
@@ -7509,12 +7446,18 @@
         <v>4</v>
       </c>
       <c r="K140" s="8">
-        <v>41963.301388888904</v>
+        <v>41996.492986111101</v>
+      </c>
+      <c r="L140" t="s">
+        <v>21</v>
+      </c>
+      <c r="M140" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>587</v>
@@ -7533,21 +7476,21 @@
         <v>591</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J141" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K141" s="8">
-        <v>42025.517592592601</v>
+        <v>42034.170335648101</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>592</v>
@@ -7557,138 +7500,128 @@
         <v>593</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F142" s="7" t="s">
         <v>594</v>
+      </c>
+      <c r="F142" s="7">
+        <v>4126564725</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>595</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K142" s="8">
-        <v>41960.802418981497</v>
-      </c>
-      <c r="L142" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M142" s="10" t="s">
-        <v>21</v>
+        <v>42010.5226273148</v>
       </c>
     </row>
     <row r="143" spans="1:13">
-      <c r="A143" s="6"/>
+      <c r="A143" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B143" s="6" t="s">
-        <v>596</v>
+        <v>51</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F143" s="7">
-        <v>6308408044</v>
+      <c r="F143" s="7" t="s">
+        <v>598</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K143" s="8">
-        <v>42013.438958333303</v>
+        <v>41995.709421296298</v>
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="6"/>
+      <c r="A144" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B144" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C144" s="6"/>
+        <v>600</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D144" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
+      </c>
+      <c r="F144" s="7">
+        <v>9103153669</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K144" s="8">
-        <v>41996.492986111101</v>
-      </c>
-      <c r="L144" t="s">
-        <v>21</v>
-      </c>
-      <c r="M144" t="s">
-        <v>21</v>
+        <v>42021.693472222199</v>
       </c>
     </row>
     <row r="145" spans="1:13">
-      <c r="A145" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A145" s="6"/>
       <c r="B145" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="F145" s="7" t="s">
         <v>606</v>
+      </c>
+      <c r="F145" s="7">
+        <v>5852758529</v>
       </c>
       <c r="G145" s="6" t="s">
         <v>607</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K145" s="8">
-        <v>42034.170335648101</v>
+        <v>42009.420219907399</v>
       </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A146" s="6"/>
       <c r="B146" s="6" t="s">
         <v>608</v>
       </c>
@@ -7700,478 +7633,489 @@
         <v>610</v>
       </c>
       <c r="F146" s="7">
-        <v>4126564725</v>
+        <v>8652967581</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>611</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K146" s="8">
-        <v>42010.5226273148</v>
+        <v>41964.957777777803</v>
       </c>
     </row>
     <row r="147" spans="1:13">
-      <c r="A147" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A147" s="6"/>
       <c r="B147" s="6" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6" t="s">
         <v>612</v>
       </c>
       <c r="E147" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="G147" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="G147" s="6" t="s">
-        <v>615</v>
-      </c>
       <c r="H147" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K147" s="8">
-        <v>41995.709421296298</v>
+        <v>42002.627569444398</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B148" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="G148" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="F148" s="7">
-        <v>9103153669</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>619</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K148" s="8">
-        <v>42021.693472222199</v>
+        <v>42013.588252314803</v>
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="6"/>
+      <c r="A149" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B149" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="F149" s="7">
-        <v>5852758529</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>623</v>
       </c>
       <c r="H149" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K149" s="8">
-        <v>42009.420219907399</v>
+        <v>41962.4542013889</v>
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="6"/>
+      <c r="A150" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B150" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="F150" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="G150" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="F150" s="7">
-        <v>8652967581</v>
-      </c>
-      <c r="G150" s="6" t="s">
+      <c r="H150" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="8">
+        <v>42009.734976851898</v>
+      </c>
+      <c r="L150" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="H150" s="6" t="s">
+      <c r="E151" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F151" s="7">
+        <v>6313717222</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="H151" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I150" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K150" s="8">
-        <v>41964.957777777803</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="E151" s="6" t="s">
+      <c r="I151" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F151" s="7">
-        <v>5152947881</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J151" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="K151" s="8">
-        <v>42012.410127314797</v>
+        <v>42029.736712963</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="6"/>
       <c r="B152" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>633</v>
-      </c>
       <c r="H152" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K152" s="8">
-        <v>42002.627569444398</v>
+        <v>42030.49</v>
+      </c>
+      <c r="L152" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C153" s="6"/>
       <c r="D153" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F153" s="7">
+        <v>9196602962</v>
+      </c>
+      <c r="G153" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="E153" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>636</v>
-      </c>
       <c r="H153" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K153" s="8">
-        <v>42013.588252314803</v>
+        <v>41979.896597222199</v>
+      </c>
+      <c r="L153" t="s">
+        <v>21</v>
+      </c>
+      <c r="M153" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>637</v>
+        <v>51</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K154" s="8">
+        <v>42024.806388888901</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="H154" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J154" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K154" s="8">
-        <v>41962.4542013889</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>644</v>
+        <v>37</v>
+      </c>
+      <c r="F155" s="7">
+        <v>9145912806</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K155" s="8">
-        <v>42009.734976851898</v>
+        <v>42004.515972222202</v>
       </c>
       <c r="L155" t="s">
         <v>21</v>
       </c>
+      <c r="M155" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="6"/>
+      <c r="A156" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B156" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F156" s="7">
-        <v>6313717222</v>
+        <v>6316327986</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K156" s="8">
-        <v>42029.736712963</v>
+        <v>42008.603738425903</v>
       </c>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="6"/>
+      <c r="A157" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B157" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C157" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D157" s="6" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>649</v>
+        <v>42</v>
+      </c>
+      <c r="F157" s="7">
+        <v>9498247502</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K157" s="8">
-        <v>42030.49</v>
+        <v>42016.698425925897</v>
       </c>
       <c r="L157" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="7">
-        <v>9196602962</v>
+        <v>16</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>647</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J158" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K158" s="8">
-        <v>41979.896597222199</v>
-      </c>
-      <c r="L158" t="s">
-        <v>21</v>
-      </c>
-      <c r="M158" t="s">
-        <v>21</v>
+        <v>42010.420335648101</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>52</v>
+        <v>649</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" s="8">
+        <v>42033.553344907399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F159" s="7" t="s">
+      <c r="E160" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F160" s="7">
+        <v>5135569691</v>
+      </c>
+      <c r="G160" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K159" s="8">
-        <v>42024.806388888901</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F160" s="7">
-        <v>9145912806</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>659</v>
       </c>
       <c r="H160" s="6" t="s">
         <v>8</v>
@@ -8180,118 +8124,113 @@
         <v>3</v>
       </c>
       <c r="J160" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K160" s="8">
-        <v>42004.515972222202</v>
+        <v>41983.722928240699</v>
       </c>
       <c r="L160" t="s">
         <v>21</v>
       </c>
-      <c r="M160" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="F161" s="7">
-        <v>6316327986</v>
+        <v>2032419629</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J161" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K161" s="8">
-        <v>42008.603738425903</v>
+        <v>42006.403275463003</v>
       </c>
     </row>
     <row r="162" spans="1:13">
-      <c r="A162" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A162" s="6"/>
       <c r="B162" s="6" t="s">
-        <v>85</v>
+        <v>658</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="7">
-        <v>9498247502</v>
+        <v>76</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>660</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J162" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K162" s="8">
-        <v>42016.698425925897</v>
-      </c>
-      <c r="L162" t="s">
-        <v>21</v>
+        <v>42012.670821759297</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="6"/>
       <c r="B163" s="6" t="s">
-        <v>664</v>
+        <v>85</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K163" s="8">
-        <v>42010.420335648101</v>
+        <v>42008.856898148202</v>
+      </c>
+      <c r="L163" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -8299,32 +8238,34 @@
         <v>5</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C164" s="6"/>
+        <v>665</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="D164" s="6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>670</v>
+        <v>30</v>
+      </c>
+      <c r="F164" s="7">
+        <v>6308402826</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J164" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K164" s="8">
-        <v>42033.553344907399</v>
+        <v>41992.6332638889</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -8332,74 +8273,83 @@
         <v>25</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F165" s="7">
-        <v>5135569691</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K165" s="8">
-        <v>41983.722928240699</v>
+        <v>41976.435358796298</v>
       </c>
       <c r="L165" t="s">
         <v>21</v>
       </c>
+      <c r="M165" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F166" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F166" s="7">
-        <v>2032419629</v>
       </c>
       <c r="G166" s="6" t="s">
         <v>676</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K166" s="8">
-        <v>42006.403275463003</v>
+        <v>41976.651261574101</v>
+      </c>
+      <c r="L166" t="s">
+        <v>21</v>
+      </c>
+      <c r="M166" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="6"/>
+      <c r="A167" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B167" s="6" t="s">
         <v>677</v>
       </c>
@@ -8410,13 +8360,13 @@
         <v>678</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F167" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="7">
+        <v>6305064813</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>680</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>2</v>
@@ -8425,77 +8375,81 @@
         <v>12</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K167" s="8">
-        <v>42012.670821759297</v>
+        <v>42012.665567129603</v>
       </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="6"/>
+      <c r="A168" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B168" s="6" t="s">
-        <v>86</v>
+        <v>680</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
         <v>681</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F168" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F168" s="7">
+        <v>8128333057</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>683</v>
-      </c>
       <c r="H168" s="6" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K168" s="8">
-        <v>42008.856898148202</v>
-      </c>
-      <c r="L168" t="s">
-        <v>21</v>
+        <v>42003.478819444397</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="E169" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6" t="s">
+      <c r="F169" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="G169" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F169" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I169" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J169" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="K169" s="8">
-        <v>42031.413634259297</v>
+        <v>41962.124826388899</v>
+      </c>
+      <c r="M169" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -8503,39 +8457,37 @@
         <v>5</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D170" s="6" t="s">
+      <c r="E170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F170" s="7">
-        <v>6308402826</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>690</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K170" s="8">
-        <v>41992.6332638889</v>
+        <v>42013.520983796298</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>691</v>
@@ -8554,22 +8506,16 @@
         <v>695</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K171" s="8">
-        <v>41976.435358796298</v>
-      </c>
-      <c r="L171" t="s">
-        <v>21</v>
-      </c>
-      <c r="M171" t="s">
-        <v>21</v>
+        <v>42020.527592592603</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8577,37 +8523,34 @@
         <v>25</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6" t="s">
         <v>696</v>
       </c>
       <c r="E172" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F172" s="7">
+        <v>9498242894</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K172" s="8">
-        <v>41976.651261574101</v>
+        <v>42010.378067129597</v>
       </c>
       <c r="L172" t="s">
-        <v>21</v>
-      </c>
-      <c r="M172" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8616,67 +8559,65 @@
         <v>5</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="6" t="s">
+      <c r="H173" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K173" s="8">
+        <v>42031.643344907403</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F173" s="7">
-        <v>6305064813</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I173" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J173" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K173" s="8">
-        <v>42012.665567129603</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13">
-      <c r="A174" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E174" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F174" s="7">
-        <v>8128333057</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>705</v>
-      </c>
       <c r="H174" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K174" s="8">
-        <v>42003.478819444397</v>
+        <v>42032.4612962963</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8684,37 +8625,32 @@
         <v>25</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="C175" s="6"/>
       <c r="D175" s="6" t="s">
         <v>706</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="F175" s="7">
+        <v>41316315146</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="G175" s="6" t="s">
-        <v>709</v>
-      </c>
       <c r="H175" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K175" s="8">
-        <v>41962.124826388899</v>
-      </c>
-      <c r="M175" t="s">
-        <v>21</v>
+        <v>42032.177662037</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8722,32 +8658,32 @@
         <v>5</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="E176" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" s="7" t="s">
+      <c r="G176" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="G176" s="6" t="s">
-        <v>713</v>
-      </c>
       <c r="H176" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K176" s="8">
-        <v>42013.520983796298</v>
+        <v>41995.217719907399</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -8755,32 +8691,32 @@
         <v>5</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>714</v>
+        <v>71</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="E177" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>718</v>
-      </c>
       <c r="H177" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K177" s="8">
-        <v>42020.527592592603</v>
+        <v>42034.4374537037</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8788,35 +8724,32 @@
         <v>25</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="6" t="s">
-        <v>719</v>
+        <v>88</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F178" s="7">
-        <v>9498242894</v>
+        <v>69</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>716</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K178" s="8">
-        <v>42010.378067129597</v>
-      </c>
-      <c r="L178" t="s">
-        <v>21</v>
+        <v>41979.442708333299</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8824,122 +8757,131 @@
         <v>5</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>75</v>
+        <v>718</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>721</v>
+        <v>88</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K179" s="8">
-        <v>42031.643344907403</v>
+        <v>41990.509571759299</v>
       </c>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="6"/>
+      <c r="A180" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B180" s="6" t="s">
-        <v>724</v>
+        <v>61</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="6" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J180" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K180" s="8">
-        <v>42032.4612962963</v>
+        <v>42012.702071759297</v>
+      </c>
+      <c r="L180" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="C181" s="6"/>
+        <v>724</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D181" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="F181" s="7">
-        <v>41316315146</v>
+        <v>49</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>726</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J181" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K181" s="8">
-        <v>42032.177662037</v>
+        <v>42030.643530092602</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="C182" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D182" s="6" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>20</v>
@@ -8948,64 +8890,67 @@
         <v>4</v>
       </c>
       <c r="K182" s="8">
-        <v>41995.217719907399</v>
+        <v>42009.6453819444</v>
+      </c>
+      <c r="M182" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C183" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D183" s="6" t="s">
-        <v>736</v>
+        <v>89</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
+      </c>
+      <c r="F183" s="7">
+        <v>9704915033</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K183" s="8">
-        <v>42034.4374537037</v>
+        <v>42003.747152777803</v>
       </c>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A184" s="6"/>
       <c r="B184" s="6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>739</v>
+        <v>30</v>
+      </c>
+      <c r="F184" s="7">
+        <v>6308402156</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>3</v>
@@ -9014,7 +8959,10 @@
         <v>4</v>
       </c>
       <c r="K184" s="8">
-        <v>41979.442708333299</v>
+        <v>42010.689328703702</v>
+      </c>
+      <c r="M184" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -9022,22 +8970,20 @@
         <v>5</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C185" s="6"/>
       <c r="D185" s="6" t="s">
-        <v>89</v>
+        <v>734</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="H185" s="6" t="s">
         <v>2</v>
@@ -9046,10 +8992,10 @@
         <v>3</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K185" s="8">
-        <v>41990.509571759299</v>
+        <v>42013.4891319444</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -9057,20 +9003,22 @@
         <v>25</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C186" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D186" s="6" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>745</v>
+        <v>738</v>
+      </c>
+      <c r="F186" s="7">
+        <v>2039843993</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="H186" s="6" t="s">
         <v>8</v>
@@ -9079,48 +9027,41 @@
         <v>20</v>
       </c>
       <c r="J186" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K186" s="8">
-        <v>42012.702071759297</v>
-      </c>
-      <c r="L186" t="s">
-        <v>21</v>
+        <v>42012.721296296302</v>
       </c>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A187" s="6"/>
       <c r="B187" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="C187" s="6"/>
       <c r="D187" s="6" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>749</v>
+        <v>32</v>
+      </c>
+      <c r="F187" s="7">
+        <v>6313445325</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K187" s="8">
-        <v>42030.643530092602</v>
+        <v>41976.674351851798</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -9128,106 +9069,100 @@
         <v>25</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="C188" s="6"/>
       <c r="D188" s="6" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K188" s="8">
-        <v>42009.6453819444</v>
-      </c>
-      <c r="M188" t="s">
-        <v>21</v>
+        <v>42023.647210648101</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="C189" s="6"/>
       <c r="D189" s="6" t="s">
-        <v>90</v>
+        <v>748</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>754</v>
+        <v>32</v>
       </c>
       <c r="F189" s="7">
-        <v>9704915033</v>
+        <v>3442870</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J189" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K189" s="8">
-        <v>42003.747152777803</v>
+        <v>42002.605393518497</v>
       </c>
     </row>
     <row r="190" spans="1:13">
-      <c r="A190" s="6"/>
+      <c r="A190" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B190" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C190" s="6"/>
+        <v>750</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D190" s="6" t="s">
-        <v>90</v>
+        <v>751</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F190" s="7">
-        <v>6308402156</v>
+        <v>5402315634</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I190" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K190" s="8">
-        <v>42010.689328703702</v>
-      </c>
-      <c r="M190" t="s">
-        <v>21</v>
+        <v>42013.573796296303</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -9235,55 +9170,56 @@
         <v>5</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>59</v>
+        <v>753</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J191" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K191" s="8">
-        <v>42013.4891319444</v>
+        <v>42017.4390740741</v>
+      </c>
+      <c r="L191" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C192" s="6"/>
       <c r="D192" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="G192" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="F192" s="7">
-        <v>2039843993</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>762</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>8</v>
@@ -9292,41 +9228,44 @@
         <v>20</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K192" s="8">
-        <v>42012.721296296302</v>
+        <v>42012.184791666703</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="6"/>
       <c r="B193" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="6" t="s">
-        <v>764</v>
+        <v>90</v>
       </c>
       <c r="E193" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="H193" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F193" s="7">
-        <v>6313445325</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="H193" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="I193" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J193" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K193" s="8">
-        <v>41976.674351851798</v>
+        <v>41961.424467592602</v>
+      </c>
+      <c r="M193" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -9334,32 +9273,32 @@
         <v>25</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="6" t="s">
-        <v>767</v>
+        <v>90</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J194" s="6" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="K194" s="8">
-        <v>42023.647210648101</v>
+        <v>42032.691828703697</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -9367,235 +9306,31 @@
         <v>5</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E195" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F195" s="7">
+        <v>6313448320</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="H195" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F195" s="7">
-        <v>3442870</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="H195" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="I195" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J195" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K195" s="8">
-        <v>42002.605393518497</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13">
-      <c r="A196" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" s="7">
-        <v>5402315634</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="H196" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I196" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J196" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K196" s="8">
-        <v>42013.573796296303</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I197" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J197" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K197" s="8">
-        <v>42017.4390740741</v>
-      </c>
-      <c r="L197" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13">
-      <c r="A198" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="E198" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="H198" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I198" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J198" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K198" s="8">
-        <v>42012.184791666703</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="H199" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I199" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J199" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K199" s="8">
-        <v>41961.424467592602</v>
-      </c>
-      <c r="M199" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E200" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="H200" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I200" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J200" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K200" s="8">
-        <v>42032.691828703697</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="E201" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F201" s="7">
-        <v>6313448320</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="H201" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I201" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K201" s="8">
         <v>42010.015370370398</v>
       </c>
     </row>

--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="771">
   <si>
     <t>Mr.</t>
   </si>
@@ -2712,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M195"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -6187,7 +6187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="409.6">
+    <row r="103" spans="1:13">
       <c r="A103" s="6" t="s">
         <v>19</v>
       </c>
@@ -7392,7 +7392,9 @@
       <c r="B139" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D139" s="6" t="s">
         <v>581</v>
       </c>

--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="753">
   <si>
     <t>Mr.</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Richard</t>
   </si>
   <si>
-    <t>Yuji</t>
-  </si>
-  <si>
     <t>University of Cincinnati</t>
   </si>
   <si>
@@ -975,21 +972,6 @@
     <t>frenzsuman@gmail.com</t>
   </si>
   <si>
-    <t>Ardavan</t>
-  </si>
-  <si>
-    <t>Ghassemi</t>
-  </si>
-  <si>
-    <t>Hamamatsu Photonics USA</t>
-  </si>
-  <si>
-    <t>908-285-8483</t>
-  </si>
-  <si>
-    <t>aghassemi@hamamatsu.com</t>
-  </si>
-  <si>
     <t>Karin</t>
   </si>
   <si>
@@ -1149,18 +1131,6 @@
     <t>anna.holin@ucl.ac.uk</t>
   </si>
   <si>
-    <t>Hotta</t>
-  </si>
-  <si>
-    <t>Hamamatsu Photonics K.K.</t>
-  </si>
-  <si>
-    <t>81-539-62-5248</t>
-  </si>
-  <si>
-    <t>hotta@etd.hpk.co.jp</t>
-  </si>
-  <si>
     <t>Patrick</t>
   </si>
   <si>
@@ -1380,18 +1350,6 @@
     <t>blittlej@iit.edu</t>
   </si>
   <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>Locatelli</t>
-  </si>
-  <si>
-    <t>CAEN Technologies</t>
-  </si>
-  <si>
-    <t>marco@caentech.com</t>
-  </si>
-  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -2290,18 +2248,6 @@
   </si>
   <si>
     <t>yoo@fnal.gov</t>
-  </si>
-  <si>
-    <t>Yoshizawa</t>
-  </si>
-  <si>
-    <t>Hamamatsu Photonics</t>
-  </si>
-  <si>
-    <t>81539-623151</t>
-  </si>
-  <si>
-    <t>yuji.yoshizawa@etd.hpk.co.jp</t>
   </si>
   <si>
     <t>Bo</t>
@@ -2710,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M195"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2736,43 +2682,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2780,11 +2726,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>1</v>
@@ -2793,7 +2739,7 @@
         <v>6102466091</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>2</v>
@@ -2813,22 +2759,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -2848,22 +2794,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
@@ -2887,16 +2833,16 @@
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>2</v>
@@ -2914,20 +2860,20 @@
     <row r="6" spans="1:13">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>8</v>
@@ -2947,13 +2893,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>7</v>
@@ -2962,7 +2908,7 @@
         <v>6178523880</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
@@ -2980,20 +2926,20 @@
     <row r="8" spans="1:13">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>8</v>
@@ -3018,7 +2964,7 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>23</v>
@@ -3027,7 +2973,7 @@
         <v>6268407517</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>24</v>
@@ -3047,13 +2993,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1</v>
@@ -3062,7 +3008,7 @@
         <v>6599262655</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>8</v>
@@ -3082,13 +3028,13 @@
         <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>26</v>
@@ -3097,7 +3043,7 @@
         <v>7733690348</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>24</v>
@@ -3120,11 +3066,11 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -3133,7 +3079,7 @@
         <v>2674018088</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>2</v>
@@ -3153,20 +3099,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>24</v>
@@ -3186,20 +3132,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>2</v>
@@ -3217,11 +3163,11 @@
     <row r="15" spans="1:13">
       <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>32</v>
@@ -3230,7 +3176,7 @@
         <v>6313444877</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>33</v>
@@ -3251,20 +3197,20 @@
     <row r="16" spans="1:13">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -3285,20 +3231,20 @@
     <row r="17" spans="1:13">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="F17" s="7">
         <v>8022498505</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>2</v>
@@ -3316,20 +3262,20 @@
     <row r="18" spans="1:13">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>8</v>
@@ -3351,16 +3297,16 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>24</v>
@@ -3384,16 +3330,16 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>24</v>
@@ -3413,20 +3359,20 @@
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>8</v>
@@ -3449,20 +3395,20 @@
         <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>8</v>
@@ -3482,20 +3428,20 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>24</v>
@@ -3513,22 +3459,22 @@
     <row r="24" spans="1:13">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>2</v>
@@ -3548,20 +3494,20 @@
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>2</v>
@@ -3581,7 +3527,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
@@ -3594,7 +3540,7 @@
         <v>9498247291</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>24</v>
@@ -3617,20 +3563,20 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>8</v>
@@ -3650,20 +3596,20 @@
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>33</v>
@@ -3683,22 +3629,22 @@
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="F29" s="7">
         <v>5056033708</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>8</v>
@@ -3718,13 +3664,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>34</v>
@@ -3733,7 +3679,7 @@
         <v>7737101898</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>8</v>
@@ -3757,16 +3703,16 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>2</v>
@@ -3786,22 +3732,22 @@
         <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>8</v>
@@ -3827,16 +3773,16 @@
         <v>6</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="F33" s="7">
         <v>6507032473</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>8</v>
@@ -3863,7 +3809,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>49</v>
@@ -3872,7 +3818,7 @@
         <v>8128554590</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>2</v>
@@ -3890,11 +3836,11 @@
     <row r="35" spans="1:12">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>50</v>
@@ -3903,7 +3849,7 @@
         <v>8148635943</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>8</v>
@@ -3926,20 +3872,20 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>33</v>
@@ -3959,20 +3905,20 @@
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>24</v>
@@ -3998,7 +3944,7 @@
         <v>52</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>36</v>
@@ -4007,7 +3953,7 @@
         <v>8655765229</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>24</v>
@@ -4031,16 +3977,16 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>8</v>
@@ -4060,11 +4006,11 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>54</v>
@@ -4073,7 +4019,7 @@
         <v>5104991929</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>2</v>
@@ -4091,20 +4037,20 @@
     <row r="41" spans="1:12">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="F41" s="7">
         <v>5178845715</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>24</v>
@@ -4122,22 +4068,22 @@
     <row r="42" spans="1:12">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>33</v>
@@ -4157,11 +4103,11 @@
         <v>5</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>55</v>
@@ -4170,7 +4116,7 @@
         <v>6302527549</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>8</v>
@@ -4193,13 +4139,13 @@
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>56</v>
@@ -4208,7 +4154,7 @@
         <v>2158956860</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>8</v>
@@ -4230,16 +4176,16 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>33</v>
@@ -4257,20 +4203,20 @@
     <row r="46" spans="1:12">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>24</v>
@@ -4296,16 +4242,16 @@
         <v>15</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>8</v>
@@ -4329,16 +4275,16 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="F48" s="7">
         <v>4126249244</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>24</v>
@@ -4358,20 +4304,20 @@
         <v>25</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>8</v>
@@ -4397,7 +4343,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>62</v>
@@ -4406,7 +4352,7 @@
         <v>6086956320</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>24</v>
@@ -4426,20 +4372,20 @@
         <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>24</v>
@@ -4459,20 +4405,20 @@
         <v>25</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>24</v>
@@ -4490,20 +4436,20 @@
     <row r="53" spans="1:13">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>8</v>
@@ -4526,20 +4472,20 @@
         <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>24</v>
@@ -4568,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>54</v>
@@ -4577,7 +4523,7 @@
         <v>5104864398</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>8</v>
@@ -4601,16 +4547,16 @@
         <v>65</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>24</v>
@@ -4630,20 +4576,20 @@
         <v>25</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="F57" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>24</v>
@@ -4669,16 +4615,16 @@
         <v>68</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>8</v>
@@ -4698,11 +4644,11 @@
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>36</v>
@@ -4711,7 +4657,7 @@
         <v>8655746124</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>8</v>
@@ -4731,22 +4677,22 @@
         <v>5</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>8</v>
@@ -4769,20 +4715,20 @@
         <v>19</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="F61" s="7">
         <v>9846142632</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>2</v>
@@ -4799,381 +4745,381 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="7">
+        <v>5073018908</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="H62" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K62" s="8">
-        <v>42011.626585648097</v>
+        <v>42011.646238425899</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="7">
+        <v>6316327971</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="8">
+        <v>42025.470740740697</v>
+      </c>
+      <c r="L63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C64" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="7">
-        <v>5073018908</v>
-      </c>
-      <c r="G63" s="6" t="s">
+      <c r="E64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="8">
-        <v>42011.646238425899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" s="7">
-        <v>6316327971</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="H64" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K64" s="8">
-        <v>42025.470740740697</v>
-      </c>
-      <c r="L64" t="s">
-        <v>21</v>
+        <v>41969.747939814799</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="6"/>
+      <c r="A65" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B65" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K65" s="8">
-        <v>41969.747939814799</v>
+        <v>41976.584548611099</v>
+      </c>
+      <c r="M65" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7">
+        <v>2039016607</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="8">
+        <v>42033.597268518497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="D67" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="7">
+        <v>6502488775</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="8">
+        <v>42009.574236111097</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" t="s">
+        <v>338</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" s="9">
+        <v>42056</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="H66" s="6" t="s">
+      <c r="F69" s="7">
+        <v>6313442088</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="6" t="s">
+      <c r="I69" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="8">
-        <v>41976.584548611099</v>
-      </c>
-      <c r="M66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7">
-        <v>2039016607</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K67" s="8">
-        <v>42033.597268518497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F68" s="7">
-        <v>6502488775</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="8">
-        <v>42009.574236111097</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="B69" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D69" t="s">
-        <v>344</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K69" s="9">
-        <v>42056</v>
+      <c r="K69" s="8">
+        <v>42016.627928240698</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C70" s="6"/>
       <c r="D70" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F70" s="7">
-        <v>6313442088</v>
+        <v>6318917245</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K70" s="8">
-        <v>42016.627928240698</v>
+        <v>42032.675104166701</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6" t="s">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" s="7">
-        <v>6318917245</v>
+        <v>62</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K71" s="8">
-        <v>42032.675104166701</v>
+        <v>42024.539768518502</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K72" s="8">
-        <v>42024.539768518502</v>
+        <v>41996.638912037</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="6"/>
+      <c r="A73" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B73" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>355</v>
-      </c>
       <c r="H73" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K73" s="8">
-        <v>41996.638912037</v>
+        <v>42011.648136574098</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5181,295 +5127,295 @@
         <v>5</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>358</v>
+        <v>30</v>
+      </c>
+      <c r="F74" s="7">
+        <v>6308404545</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K74" s="8">
-        <v>42011.648136574098</v>
+        <v>42006.934340277803</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="6"/>
+        <v>357</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="D75" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F75" s="7">
-        <v>6308404545</v>
+        <v>4752012702</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K75" s="8">
-        <v>42006.934340277803</v>
+        <v>41976.391423611101</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F76" s="7">
-        <v>4752012702</v>
+        <v>2802</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K76" s="8">
-        <v>41976.391423611101</v>
-      </c>
-      <c r="L76" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" t="s">
-        <v>21</v>
+        <v>42033.955474536997</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="7">
-        <v>2802</v>
+        <v>34</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K77" s="8">
-        <v>42033.955474536997</v>
+        <v>41965.791770833297</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F78" s="7">
+        <v>2076797159</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K78" s="8">
-        <v>41965.791770833297</v>
+        <v>42032.430300925902</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
       <c r="F79" s="7">
-        <v>2076797159</v>
+        <v>5402318727</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K79" s="8">
-        <v>42032.430300925902</v>
+        <v>41976.592291666697</v>
+      </c>
+      <c r="L79" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D80" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>378</v>
+        <v>32</v>
+      </c>
+      <c r="F80" s="7">
+        <v>6313445518</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K80" s="8">
-        <v>42012.167256944398</v>
+        <v>41962.394803240699</v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A81" s="6"/>
       <c r="B81" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C81" s="6"/>
+        <v>375</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D81" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="7">
-        <v>5402318727</v>
+        <v>75</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K81" s="8">
-        <v>41976.592291666697</v>
-      </c>
-      <c r="L81" t="s">
-        <v>21</v>
+        <v>42019.792997685203</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="6"/>
+      <c r="A82" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B82" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C82" s="6"/>
       <c r="D82" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F82" s="7">
-        <v>6313445518</v>
+      <c r="F82" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>33</v>
@@ -5481,31 +5427,31 @@
         <v>31</v>
       </c>
       <c r="K82" s="8">
-        <v>41962.394803240699</v>
+        <v>42006.455972222197</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="6"/>
+      <c r="A83" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B83" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="F83" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G83" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="H83" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>3</v>
@@ -5514,170 +5460,178 @@
         <v>4</v>
       </c>
       <c r="K83" s="8">
-        <v>42019.792997685203</v>
+        <v>41978.692870370403</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>389</v>
+        <v>61</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="7" t="s">
+      <c r="H84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="8">
+        <v>41974.944016203699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K84" s="8">
-        <v>42006.455972222197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>396</v>
+        <v>30</v>
+      </c>
+      <c r="F85" s="7">
+        <v>6308408196</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K85" s="8">
-        <v>41978.692870370403</v>
+        <v>42020.9531712963</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="D86" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="7">
+        <v>6313445323</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="8">
+        <v>41975.815393518496</v>
+      </c>
+      <c r="L86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="7">
+        <v>6313445879</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86" s="8">
-        <v>41974.944016203699</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" s="7">
-        <v>6308408196</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="H87" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K87" s="8">
-        <v>42020.9531712963</v>
+        <v>42016.563530092601</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>404</v>
+        <v>6</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F88" s="7">
-        <v>6313445323</v>
+        <v>27</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>400</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K88" s="8">
-        <v>41975.815393518496</v>
+        <v>42012.605416666702</v>
       </c>
       <c r="L88" t="s">
         <v>21</v>
@@ -5688,76 +5642,75 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>64</v>
+        <v>402</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" s="7">
+        <v>5106429619</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K89" s="8">
+        <v>42023.292928240699</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F89" s="7">
-        <v>6313445879</v>
-      </c>
-      <c r="G89" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K89" s="8">
-        <v>42016.563530092601</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K90" s="8">
-        <v>42012.605416666702</v>
-      </c>
-      <c r="L90" t="s">
-        <v>21</v>
-      </c>
-      <c r="M90" t="s">
-        <v>21</v>
+        <v>41984.788148148102</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -5765,37 +5718,34 @@
         <v>25</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F91" s="7">
-        <v>5106429619</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K91" s="8">
-        <v>42023.292928240699</v>
-      </c>
-      <c r="L91" t="s">
-        <v>21</v>
+        <v>42012.590324074103</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -5803,57 +5753,56 @@
         <v>5</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D92" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
+        <v>2402710217</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="8">
+        <v>41979.423472222203</v>
+      </c>
+      <c r="M92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="E93" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K92" s="8">
-        <v>41984.788148148102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>8</v>
@@ -5862,67 +5811,66 @@
         <v>3</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K93" s="8">
-        <v>42012.590324074103</v>
+        <v>42009.8496759259</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7">
-        <v>2402710217</v>
+        <v>80</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K94" s="8">
-        <v>41979.423472222203</v>
-      </c>
-      <c r="M94" t="s">
-        <v>21</v>
+        <v>41995.585659722201</v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="6"/>
+      <c r="A95" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B95" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6" t="s">
+      <c r="G95" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>8</v>
@@ -5931,43 +5879,43 @@
         <v>3</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K95" s="8">
-        <v>42009.8496759259</v>
+        <v>41975.780405092599</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>431</v>
+        <v>82</v>
+      </c>
+      <c r="F96" s="7">
+        <v>6307652589</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K96" s="8">
-        <v>41995.585659722201</v>
+        <v>42034.672835648104</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -5975,311 +5923,299 @@
         <v>25</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>433</v>
+        <v>14</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K97" s="8">
-        <v>41975.780405092599</v>
+        <v>41976.440590277802</v>
+      </c>
+      <c r="L97" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
-        <v>437</v>
+        <v>51</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F98" s="7">
-        <v>6307652589</v>
+        <v>32</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K98" s="8">
-        <v>42034.672835648104</v>
+        <v>41975.777222222197</v>
+      </c>
+      <c r="M98" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K99" s="8">
-        <v>41976.440590277802</v>
-      </c>
-      <c r="L99" t="s">
-        <v>21</v>
+        <v>41976.373726851903</v>
       </c>
       <c r="M99" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="6"/>
+      <c r="A100" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B100" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C100" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D100" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>444</v>
+        <v>30</v>
+      </c>
+      <c r="F100" s="7">
+        <v>6083548279</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K100" s="8">
-        <v>41975.777222222197</v>
-      </c>
-      <c r="M100" t="s">
+        <v>42011.870358796303</v>
+      </c>
+      <c r="L100" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A101" s="6"/>
       <c r="B101" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="8">
+        <v>42018.772210648101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E101" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F101" s="7" t="s">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="E102" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="H101" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K101" s="8">
-        <v>41976.373726851903</v>
-      </c>
-      <c r="M101" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="F102" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" s="7">
-        <v>6083548279</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K102" s="8">
-        <v>42011.870358796303</v>
-      </c>
-      <c r="L102" t="s">
-        <v>21</v>
+        <v>42024.392615740697</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="F103" s="7">
-        <v>7185015309</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K103" s="8">
-        <v>42018.368587962999</v>
+        <v>41967.568414351903</v>
+      </c>
+      <c r="L103" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="6"/>
       <c r="B104" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G104" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>460</v>
-      </c>
       <c r="H104" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K104" s="8">
-        <v>42018.772210648101</v>
+        <v>42030.533831018503</v>
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="6"/>
       <c r="B105" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C105" s="6"/>
+        <v>459</v>
+      </c>
       <c r="D105" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K105" s="8">
-        <v>42024.392615740697</v>
+        <v>30</v>
+      </c>
+      <c r="K105" s="9">
+        <v>42056</v>
+      </c>
+      <c r="L105" t="s">
+        <v>21</v>
+      </c>
+      <c r="M105" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -6287,88 +6223,105 @@
         <v>5</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>467</v>
+        <v>32</v>
+      </c>
+      <c r="F106" s="7">
+        <v>6313443151</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K106" s="8">
-        <v>41967.568414351903</v>
-      </c>
-      <c r="L106" t="s">
-        <v>21</v>
+        <v>42013.667280092603</v>
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="6"/>
+      <c r="A107" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B107" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F107" s="7">
+        <v>8082061742</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="8">
+        <v>41998.301620370403</v>
+      </c>
+      <c r="L107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G108" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="E107" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H107" s="6" t="s">
+      <c r="H108" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I107" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K107" s="8">
-        <v>42030.533831018503</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="B108" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K108" s="9">
-        <v>42056</v>
-      </c>
-      <c r="L108" t="s">
-        <v>21</v>
-      </c>
-      <c r="M108" t="s">
-        <v>21</v>
+      <c r="I108" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="8">
+        <v>42008.9242592593</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -6376,140 +6329,131 @@
         <v>5</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F109" s="7">
-        <v>6313443151</v>
+        <v>2193169749</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K109" s="8">
-        <v>42013.667280092603</v>
+        <v>42013.7209953704</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>477</v>
+        <v>22</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F110" s="7">
-        <v>8082061742</v>
+        <v>38</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K110" s="8">
-        <v>41998.301620370403</v>
-      </c>
-      <c r="L110" t="s">
-        <v>21</v>
+        <v>42012.5160300926</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C111" s="6"/>
       <c r="D111" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
+      </c>
+      <c r="F111" s="7">
+        <v>447737461854</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K111" s="8">
-        <v>42008.9242592593</v>
+        <v>42019.254594907397</v>
       </c>
     </row>
     <row r="112" spans="1:13">
-      <c r="A112" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A112" s="6"/>
       <c r="B112" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F112" s="7">
-        <v>2193169749</v>
+        <v>6308402193</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K112" s="8">
-        <v>42013.7209953704</v>
+        <v>42010.7348726852</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -6517,129 +6461,129 @@
         <v>5</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
+      </c>
+      <c r="F113" s="7">
+        <v>7734013299</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K113" s="8">
-        <v>42012.5160300926</v>
+        <v>42014.111064814802</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>490</v>
+        <v>47</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F114" s="7">
-        <v>447737461854</v>
+        <v>6263902073</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K114" s="8">
-        <v>42019.254594907397</v>
+        <v>42011.894629629598</v>
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="6"/>
+      <c r="A115" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B115" s="6" t="s">
-        <v>494</v>
+        <v>53</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" s="7">
-        <v>6308402193</v>
+        <v>38</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K115" s="8">
-        <v>42010.7348726852</v>
+        <v>41985.569629629601</v>
       </c>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A116" s="6"/>
       <c r="B116" s="6" t="s">
-        <v>51</v>
+        <v>492</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>498</v>
+        <v>50</v>
       </c>
       <c r="F116" s="7">
-        <v>7734013299</v>
+        <v>8054532850</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J116" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K116" s="8">
-        <v>42014.111064814802</v>
+        <v>42006.5632175926</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -6647,32 +6591,35 @@
         <v>25</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>47</v>
+        <v>495</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F117" s="7">
-        <v>6263902073</v>
+        <v>8058933440</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K117" s="8">
-        <v>42011.894629629598</v>
+        <v>42013.1722800926</v>
+      </c>
+      <c r="L117" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -6680,203 +6627,202 @@
         <v>5</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D118" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>504</v>
+        <v>32</v>
+      </c>
+      <c r="F118" s="7">
+        <v>6099178510</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K118" s="8">
-        <v>41985.569629629601</v>
+        <v>42010.011770833298</v>
       </c>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="6"/>
+      <c r="A119" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B119" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C119" s="6"/>
+        <v>501</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D119" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F119" s="7">
-        <v>8054532850</v>
+        <v>30</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>503</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K119" s="8">
-        <v>42006.5632175926</v>
+        <v>41967.931446759299</v>
+      </c>
+      <c r="L119" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:13">
-      <c r="A120" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="F120" s="7">
-        <v>8058933440</v>
+        <v>507</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K120" s="8">
-        <v>42013.1722800926</v>
-      </c>
-      <c r="L120" t="s">
-        <v>21</v>
+        <v>42002.374074074098</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121" s="7">
-        <v>6099178510</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>514</v>
-      </c>
       <c r="H121" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K121" s="8">
-        <v>42010.011770833298</v>
+        <v>42013.661643518499</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C122" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D122" s="6" t="s">
+      <c r="E122" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F122" s="7">
+        <v>2158952729</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K122" s="8">
-        <v>41967.931446759299</v>
-      </c>
-      <c r="L122" t="s">
-        <v>21</v>
+        <v>42037.6315972222</v>
       </c>
     </row>
     <row r="123" spans="1:13">
-      <c r="A123" s="6"/>
+      <c r="A123" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B123" s="6" t="s">
-        <v>519</v>
+        <v>57</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G123" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K123" s="8">
-        <v>42002.374074074098</v>
+        <v>42016.597222222197</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -6884,20 +6830,20 @@
         <v>25</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>85</v>
+        <v>521</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F124" s="7">
+        <v>41764870463</v>
+      </c>
+      <c r="G124" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>527</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>8</v>
@@ -6906,76 +6852,80 @@
         <v>3</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K124" s="8">
-        <v>42013.661643518499</v>
+        <v>42012.015879629602</v>
+      </c>
+      <c r="L124" t="s">
+        <v>21</v>
+      </c>
+      <c r="M124" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A125" s="6"/>
       <c r="B125" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F125" s="7">
-        <v>2158952729</v>
+        <v>1</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K125" s="8">
-        <v>42037.6315972222</v>
+        <v>42011.366932870398</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>57</v>
+        <v>529</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="F126" s="7">
+        <v>5129659473</v>
+      </c>
+      <c r="G126" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>534</v>
-      </c>
       <c r="H126" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K126" s="8">
-        <v>42016.597222222197</v>
+        <v>42020.115486111099</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -6983,285 +6933,281 @@
         <v>25</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6" t="s">
+      <c r="H127" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="8">
+        <v>42020.820729166699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="30">
+      <c r="A128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E128" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F128" s="7">
+        <v>5104958235</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F127" s="7">
-        <v>41764870463</v>
-      </c>
-      <c r="G127" s="6" t="s">
+      <c r="H128" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="8">
+        <v>42014.826527777797</v>
+      </c>
+      <c r="L128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I127" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J127" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K127" s="8">
-        <v>42012.015879629602</v>
-      </c>
-      <c r="L127" t="s">
-        <v>21</v>
-      </c>
-      <c r="M127" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K128" s="8">
-        <v>42011.366932870398</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>545</v>
+        <v>30</v>
       </c>
       <c r="F129" s="7">
-        <v>5129659473</v>
+        <v>6308403622</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K129" s="8">
-        <v>42020.115486111099</v>
+        <v>42024.459178240701</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K130" s="8">
+        <v>42013.657476851899</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K131" s="8">
+        <v>42014.680243055598</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J130" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K130" s="8">
-        <v>42020.820729166699</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" ht="30">
-      <c r="A131" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="F131" s="7">
-        <v>5104958235</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K131" s="8">
-        <v>42014.826527777797</v>
-      </c>
-      <c r="L131" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="6"/>
       <c r="B132" s="6" t="s">
-        <v>552</v>
+        <v>85</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F132" s="7">
-        <v>6308403622</v>
+        <v>70</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>550</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K132" s="8">
-        <v>42024.459178240701</v>
+        <v>42010.491909722201</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F133" s="7" t="s">
+      <c r="H133" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K133" s="8">
+        <v>41963.301388888904</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K133" s="8">
-        <v>42013.657476851899</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F134" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F134" s="7" t="s">
+      <c r="G134" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="G134" s="6" t="s">
-        <v>562</v>
-      </c>
       <c r="H134" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K134" s="8">
-        <v>42014.680243055598</v>
+        <v>42025.517592592601</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>86</v>
+        <v>562</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6" t="s">
         <v>563</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>564</v>
@@ -7270,82 +7216,92 @@
         <v>565</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K135" s="8">
-        <v>42010.491909722201</v>
+        <v>41960.802418981497</v>
+      </c>
+      <c r="L135" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M135" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:13">
-      <c r="A136" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C136" s="6"/>
+      <c r="C136" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D136" s="6" t="s">
         <v>567</v>
       </c>
       <c r="E136" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="7">
+        <v>6308408044</v>
+      </c>
+      <c r="G136" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="H136" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K136" s="8">
-        <v>41963.301388888904</v>
+        <v>42013.438958333303</v>
       </c>
     </row>
     <row r="137" spans="1:13">
-      <c r="A137" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A137" s="6"/>
       <c r="B137" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="E137" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>575</v>
       </c>
       <c r="H137" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K137" s="8">
-        <v>42025.517592592601</v>
+        <v>41996.492986111101</v>
+      </c>
+      <c r="L137" t="s">
+        <v>21</v>
+      </c>
+      <c r="M137" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -7353,292 +7309,282 @@
         <v>5</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" s="7" t="s">
+      <c r="H138" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K138" s="8">
+        <v>42034.170335648101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G138" s="6" t="s">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H138" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I138" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K138" s="8">
-        <v>41960.802418981497</v>
-      </c>
-      <c r="L138" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M138" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="6" t="s">
+      <c r="F139" s="7">
+        <v>4126564725</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" s="7">
-        <v>6308408044</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K139" s="8">
-        <v>42013.438958333303</v>
+        <v>42010.5226273148</v>
       </c>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="6"/>
+      <c r="A140" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B140" s="6" t="s">
-        <v>583</v>
+        <v>51</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="F140" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F140" s="7" t="s">
+      <c r="G140" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="H140" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K140" s="8">
-        <v>41996.492986111101</v>
-      </c>
-      <c r="L140" t="s">
-        <v>21</v>
-      </c>
-      <c r="M140" t="s">
-        <v>21</v>
+        <v>41995.709421296298</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6" t="s">
+      <c r="E141" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="F141" s="7">
+        <v>9103153669</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="H141" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141" s="8">
+        <v>42021.693472222199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K141" s="8">
-        <v>42034.170335648101</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="F142" s="7">
+        <v>5852758529</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="H142" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" s="8">
+        <v>42009.420219907399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="F142" s="7">
-        <v>4126564725</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K142" s="8">
-        <v>42010.5226273148</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="E143" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="F143" s="7">
+        <v>8652967581</v>
+      </c>
+      <c r="G143" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="H143" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K143" s="8">
+        <v>41964.957777777803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="G143" s="6" t="s">
+      <c r="E144" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="H143" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I143" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K143" s="8">
-        <v>41995.709421296298</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="E144" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="F144" s="7">
-        <v>9103153669</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>603</v>
-      </c>
       <c r="H144" s="6" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J144" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K144" s="8">
-        <v>42021.693472222199</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="6"/>
+        <v>42002.627569444398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1">
+      <c r="A145" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B145" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="C145" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D145" s="6" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="F145" s="7">
-        <v>5852758529</v>
+        <v>11</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>602</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K145" s="8">
-        <v>42009.420219907399</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="6"/>
+        <v>42013.588252314803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15" customHeight="1">
+      <c r="A146" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B146" s="6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="F146" s="7">
-        <v>8652967581</v>
+        <v>60</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>606</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>2</v>
@@ -7650,29 +7596,31 @@
         <v>18</v>
       </c>
       <c r="K146" s="8">
-        <v>41964.957777777803</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="6"/>
+        <v>41962.4542013889</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15" customHeight="1">
+      <c r="A147" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B147" s="6" t="s">
-        <v>74</v>
+        <v>608</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="H147" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>20</v>
@@ -7681,75 +7629,75 @@
         <v>31</v>
       </c>
       <c r="K147" s="8">
-        <v>42002.627569444398</v>
+        <v>42009.734976851898</v>
+      </c>
+      <c r="L147" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A148" s="6"/>
       <c r="B148" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C148" s="6"/>
       <c r="D148" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>616</v>
+        <v>70</v>
+      </c>
+      <c r="F148" s="7">
+        <v>6313717222</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H148" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K148" s="8">
-        <v>42013.588252314803</v>
+        <v>42029.736712963</v>
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A149" s="6"/>
       <c r="B149" s="6" t="s">
-        <v>618</v>
+        <v>51</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K149" s="8">
-        <v>41962.4542013889</v>
+        <v>42030.49</v>
+      </c>
+      <c r="L149" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -7757,85 +7705,90 @@
         <v>25</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>625</v>
+        <v>26</v>
+      </c>
+      <c r="F150" s="7">
+        <v>9196602962</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K150" s="8">
-        <v>42009.734976851898</v>
+        <v>41979.896597222199</v>
       </c>
       <c r="L150" t="s">
         <v>21</v>
       </c>
+      <c r="M150" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="6"/>
+      <c r="A151" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B151" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F151" s="7">
-        <v>6313717222</v>
+        <v>67</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>622</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K151" s="8">
-        <v>42029.736712963</v>
+        <v>42024.806388888901</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="6"/>
       <c r="B152" s="6" t="s">
-        <v>51</v>
+        <v>624</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>630</v>
+        <v>37</v>
+      </c>
+      <c r="F152" s="7">
+        <v>9145912806</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H152" s="6" t="s">
         <v>8</v>
@@ -7844,12 +7797,15 @@
         <v>3</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K152" s="8">
-        <v>42030.49</v>
+        <v>42004.515972222202</v>
       </c>
       <c r="L152" t="s">
+        <v>21</v>
+      </c>
+      <c r="M152" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7858,59 +7814,55 @@
         <v>25</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>632</v>
+        <v>47</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F153" s="7">
-        <v>9196602962</v>
+        <v>6316327986</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H153" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J153" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K153" s="8">
-        <v>41979.896597222199</v>
-      </c>
-      <c r="L153" t="s">
-        <v>21</v>
-      </c>
-      <c r="M153" t="s">
-        <v>21</v>
+        <v>42008.603738425903</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C154" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="D154" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>636</v>
+        <v>42</v>
+      </c>
+      <c r="F154" s="7">
+        <v>9498247502</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H154" s="6" t="s">
         <v>8</v>
@@ -7919,217 +7871,212 @@
         <v>29</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K154" s="8">
-        <v>42024.806388888901</v>
+        <v>42016.698425925897</v>
+      </c>
+      <c r="L154" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="6"/>
       <c r="B155" s="6" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="6" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F155" s="7">
-        <v>9145912806</v>
+        <v>16</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H155" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K155" s="8">
-        <v>42004.515972222202</v>
-      </c>
-      <c r="L155" t="s">
-        <v>21</v>
-      </c>
-      <c r="M155" t="s">
-        <v>21</v>
+        <v>42010.420335648101</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>47</v>
+        <v>635</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F156" s="7">
-        <v>6316327986</v>
+        <v>32</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>637</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K156" s="8">
-        <v>42008.603738425903</v>
+        <v>42033.553344907399</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>84</v>
+        <v>639</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F157" s="7">
-        <v>9498247502</v>
+        <v>5135569691</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H157" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K157" s="8">
-        <v>42016.698425925897</v>
+        <v>41983.722928240699</v>
       </c>
       <c r="L157" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="6"/>
+      <c r="A158" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B158" s="6" t="s">
-        <v>645</v>
+        <v>77</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158" s="7">
+        <v>2032419629</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K158" s="8">
+        <v>42006.403275463003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="6"/>
+      <c r="B159" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F159" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="E158" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F158" s="7" t="s">
+      <c r="G159" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="G158" s="6" t="s">
+      <c r="H159" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K159" s="8">
+        <v>42012.670821759297</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="H158" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I158" s="6" t="s">
+      <c r="E160" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I160" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K158" s="8">
-        <v>42010.420335648101</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="H159" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K159" s="8">
-        <v>42033.553344907399</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F160" s="7">
-        <v>5135569691</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="H160" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="J160" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K160" s="8">
-        <v>41983.722928240699</v>
+        <v>42008.856898148202</v>
       </c>
       <c r="L160" t="s">
         <v>21</v>
@@ -8140,98 +8087,111 @@
         <v>5</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C161" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="D161" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F161" s="7">
+        <v>6308402826</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="8">
+        <v>41992.6332638889</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E161" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" s="7">
-        <v>2032419629</v>
-      </c>
-      <c r="G161" s="6" t="s">
+      <c r="F162" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="H161" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J161" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K161" s="8">
-        <v>42006.403275463003</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6" t="s">
+      <c r="G162" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>661</v>
-      </c>
       <c r="H162" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J162" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K162" s="8">
-        <v>42012.670821759297</v>
+        <v>41976.435358796298</v>
+      </c>
+      <c r="L162" t="s">
+        <v>21</v>
+      </c>
+      <c r="M162" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:13">
-      <c r="A163" s="6"/>
+      <c r="A163" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B163" s="6" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="E163" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>664</v>
-      </c>
       <c r="H163" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J163" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K163" s="8">
-        <v>42008.856898148202</v>
+        <v>41976.651261574101</v>
       </c>
       <c r="L163" t="s">
+        <v>21</v>
+      </c>
+      <c r="M163" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8240,34 +8200,34 @@
         <v>5</v>
       </c>
       <c r="B164" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" s="7">
+        <v>6305064813</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F164" s="7">
-        <v>6308402826</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>667</v>
-      </c>
       <c r="H164" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I164" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K164" s="8">
-        <v>41992.6332638889</v>
+        <v>42012.665567129603</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -8275,38 +8235,32 @@
         <v>25</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>671</v>
+        <v>49</v>
+      </c>
+      <c r="F165" s="7">
+        <v>8128333057</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K165" s="8">
-        <v>41976.435358796298</v>
-      </c>
-      <c r="L165" t="s">
-        <v>21</v>
-      </c>
-      <c r="M165" t="s">
-        <v>21</v>
+        <v>42003.478819444397</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -8314,35 +8268,34 @@
         <v>25</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C166" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D166" s="6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J166" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K166" s="8">
-        <v>41976.651261574101</v>
-      </c>
-      <c r="L166" t="s">
-        <v>21</v>
+        <v>41962.124826388899</v>
       </c>
       <c r="M166" t="s">
         <v>21</v>
@@ -8353,67 +8306,65 @@
         <v>5</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="C167" s="6"/>
       <c r="D167" s="6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F167" s="7">
-        <v>6305064813</v>
+        <v>7</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>675</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K167" s="8">
-        <v>42012.665567129603</v>
+        <v>42013.520983796298</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F168" s="7">
-        <v>8128333057</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="H168" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K168" s="8">
-        <v>42003.478819444397</v>
+        <v>42020.527592592603</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -8423,34 +8374,32 @@
       <c r="B169" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="C169" s="6"/>
       <c r="D169" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="7">
+        <v>9498242894</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K169" s="8">
-        <v>41962.124826388899</v>
-      </c>
-      <c r="M169" t="s">
+        <v>42010.378067129597</v>
+      </c>
+      <c r="L169" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8459,53 +8408,53 @@
         <v>5</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="C170" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D170" s="6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F170" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K170" s="8">
-        <v>42013.520983796298</v>
+        <v>42031.643344907403</v>
       </c>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A171" s="6"/>
       <c r="B171" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>693</v>
+        <v>11</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>24</v>
@@ -8517,7 +8466,7 @@
         <v>18</v>
       </c>
       <c r="K171" s="8">
-        <v>42020.527592592603</v>
+        <v>42032.4612962963</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8525,35 +8474,32 @@
         <v>25</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>46</v>
+        <v>691</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>42</v>
+        <v>693</v>
       </c>
       <c r="F172" s="7">
-        <v>9498242894</v>
+        <v>41316315146</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J172" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K172" s="8">
-        <v>42010.378067129597</v>
-      </c>
-      <c r="L172" t="s">
-        <v>21</v>
+        <v>42032.177662037</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -8561,65 +8507,65 @@
         <v>5</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="C173" s="6"/>
       <c r="D173" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="E173" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>700</v>
-      </c>
       <c r="H173" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J173" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K173" s="8">
-        <v>42031.643344907403</v>
+        <v>41995.217719907399</v>
       </c>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="6"/>
+      <c r="A174" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B174" s="6" t="s">
-        <v>701</v>
+        <v>71</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K174" s="8">
-        <v>42032.4612962963</v>
+        <v>42034.4374537037</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8627,20 +8573,20 @@
         <v>25</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>705</v>
+        <v>22</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6" t="s">
-        <v>706</v>
+        <v>87</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="F175" s="7">
-        <v>41316315146</v>
+        <v>69</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>702</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>8</v>
@@ -8649,10 +8595,10 @@
         <v>3</v>
       </c>
       <c r="J175" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K175" s="8">
-        <v>42032.177662037</v>
+        <v>41979.442708333299</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8660,133 +8606,143 @@
         <v>5</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C176" s="6"/>
+        <v>704</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D176" s="6" t="s">
-        <v>710</v>
+        <v>87</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K176" s="8">
-        <v>41995.217719907399</v>
+        <v>41990.509571759299</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="6" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J177" s="6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K177" s="8">
-        <v>42034.4374537037</v>
+        <v>42012.702071759297</v>
+      </c>
+      <c r="L177" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="6"/>
+        <v>710</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D178" s="6" t="s">
-        <v>88</v>
+        <v>711</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J178" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K178" s="8">
-        <v>41979.442708333299</v>
+        <v>42030.643530092602</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>718</v>
+        <v>83</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>88</v>
+        <v>714</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H179" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J179" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K179" s="8">
-        <v>41990.509571759299</v>
+        <v>42009.6453819444</v>
+      </c>
+      <c r="M179" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -8794,108 +8750,101 @@
         <v>25</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C180" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D180" s="6" t="s">
-        <v>721</v>
+        <v>88</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
+      </c>
+      <c r="F180" s="7">
+        <v>9704915033</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J180" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K180" s="8">
-        <v>42012.702071759297</v>
-      </c>
-      <c r="L180" t="s">
+        <v>42003.747152777803</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="6"/>
+      <c r="B181" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F181" s="7">
+        <v>6308402156</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K181" s="8">
+        <v>42010.689328703702</v>
+      </c>
+      <c r="M181" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
-      <c r="A181" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K181" s="8">
-        <v>42030.643530092602</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C182" s="6"/>
       <c r="D182" s="6" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J182" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K182" s="8">
-        <v>42009.6453819444</v>
-      </c>
-      <c r="M182" t="s">
-        <v>21</v>
+        <v>42013.4891319444</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -8903,221 +8852,221 @@
         <v>25</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>89</v>
+        <v>723</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F183" s="7">
-        <v>9704915033</v>
+        <v>2039843993</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K183" s="8">
-        <v>42003.747152777803</v>
+        <v>42012.721296296302</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="6"/>
       <c r="B184" s="6" t="s">
-        <v>86</v>
+        <v>726</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6" t="s">
-        <v>89</v>
+        <v>727</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F184" s="7">
-        <v>6308402156</v>
+        <v>6313445325</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K184" s="8">
-        <v>42010.689328703702</v>
-      </c>
-      <c r="M184" t="s">
-        <v>21</v>
+        <v>41976.674351851798</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>58</v>
+        <v>729</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K185" s="8">
-        <v>42013.4891319444</v>
+        <v>42023.647210648101</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="C186" s="6"/>
       <c r="D186" s="6" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>738</v>
+        <v>32</v>
       </c>
       <c r="F186" s="7">
-        <v>2039843993</v>
+        <v>3442870</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J186" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K186" s="8">
-        <v>42012.721296296302</v>
+        <v>42002.605393518497</v>
       </c>
     </row>
     <row r="187" spans="1:13">
-      <c r="A187" s="6"/>
+      <c r="A187" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B187" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="C187" s="6"/>
+        <v>736</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D187" s="6" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F187" s="7">
-        <v>6313445325</v>
+        <v>5402315634</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J187" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K187" s="8">
-        <v>41976.674351851798</v>
+        <v>42013.573796296303</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="6" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F188" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J188" s="6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K188" s="8">
-        <v>42023.647210648101</v>
+        <v>42017.4390740741</v>
+      </c>
+      <c r="L188" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:13">
-      <c r="A189" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A189" s="6"/>
       <c r="B189" s="6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6" t="s">
-        <v>748</v>
+        <v>89</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F189" s="7">
-        <v>3442870</v>
+      <c r="F189" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>33</v>
@@ -9129,42 +9078,43 @@
         <v>31</v>
       </c>
       <c r="K189" s="8">
-        <v>42002.605393518497</v>
+        <v>41961.424467592602</v>
+      </c>
+      <c r="M189" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="C190" s="6"/>
       <c r="D190" s="6" t="s">
-        <v>751</v>
+        <v>89</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" s="7">
-        <v>5402315634</v>
+        <v>40</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I190" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J190" s="6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K190" s="8">
-        <v>42013.573796296303</v>
+        <v>42032.691828703697</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -9172,167 +9122,31 @@
         <v>5</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="6" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>755</v>
+        <v>32</v>
+      </c>
+      <c r="F191" s="7">
+        <v>6313448320</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J191" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K191" s="8">
-        <v>42017.4390740741</v>
-      </c>
-      <c r="L191" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13">
-      <c r="A192" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="E192" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="H192" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I192" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J192" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K192" s="8">
-        <v>42012.184791666703</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E193" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="H193" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I193" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J193" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K193" s="8">
-        <v>41961.424467592602</v>
-      </c>
-      <c r="M193" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13">
-      <c r="A194" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E194" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="H194" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I194" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J194" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K194" s="8">
-        <v>42032.691828703697</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="E195" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F195" s="7">
-        <v>6313448320</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="H195" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I195" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J195" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K195" s="8">
         <v>42010.015370370398</v>
       </c>
     </row>

--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="753">
   <si>
     <t>Mr.</t>
   </si>
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:XFD145"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5470,7 +5470,9 @@
       <c r="B84" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D84" s="6" t="s">
         <v>388</v>
       </c>

--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -2658,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -5642,7 +5642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" ht="30">
       <c r="A89" s="6" t="s">
         <v>25</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>403</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>79</v>
+        <v>752</v>
       </c>
       <c r="F89" s="7">
         <v>5106429619</v>

--- a/other/reginfo.xlsx
+++ b/other/reginfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90" count="90">
   <si>
     <t>Mr.</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Joshua</t>
+  </si>
+  <si>
+    <t>Yu.</t>
   </si>
   <si>
     <t>G</t>
@@ -330,9 +333,9 @@
       <right style="none">
         <color rgb="FFC7C7C7"/>
       </right>
-      <top style="none">
+      <bottom style="none">
         <color rgb="FFC7C7C7"/>
-      </top>
+      </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
       <left style="none">
@@ -3383,17 +3386,17 @@
       <c r="A89" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="6" t="str">
-        <v>Yury</v>
+      <c r="B89" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D89" s="6" t="str">
         <v>Kolomensky</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F89" s="7">
         <v>5106429619</v>
@@ -3568,7 +3571,7 @@
         <v>Lau</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F94" s="7" t="str">
         <v>713-743-3618</v>
@@ -3597,13 +3600,13 @@
         <v>John</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D95" s="6" t="str">
         <v>Learned</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F95" s="7" t="str">
         <v>808-722-0289</v>
@@ -3636,7 +3639,7 @@
         <v>Ling</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F96" s="7">
         <v>6307652589</v>
@@ -3873,7 +3876,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>67</v>
@@ -3962,7 +3965,7 @@
         <v>5</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>51</v>
@@ -4004,7 +4007,7 @@
         <v>Maricic</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F107" s="7">
         <v>8082061742</v>
@@ -4366,7 +4369,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>6</v>
@@ -4404,7 +4407,7 @@
         <v>Jorge</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D119" s="6" t="str">
         <v>Morfin</v>
@@ -4470,7 +4473,7 @@
         <v>25</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="str">
@@ -4716,7 +4719,7 @@
         <v>Orebi Gann</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F128" s="7">
         <v>5104958235</v>
@@ -4840,7 +4843,7 @@
         <v>25</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="str">
@@ -5586,10 +5589,10 @@
         <v>5</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D154" s="6" t="str">
         <v>Smy</v>
@@ -5691,7 +5694,7 @@
         <v>Alex</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D157" s="6" t="str">
         <v>Sousa</v>
@@ -5790,7 +5793,7 @@
     <row r="160" spans="1:16384">
       <c r="A160" s="6"/>
       <c r="B160" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6" t="str">
@@ -5829,7 +5832,7 @@
         <v>James</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D161" s="6" t="str">
         <v>Strait</v>
@@ -6150,7 +6153,7 @@
         <v>73</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D170" s="6" t="str">
         <v>Van de Water</v>
@@ -6316,7 +6319,7 @@
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>68</v>
@@ -6351,7 +6354,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>36</v>
@@ -6387,7 +6390,7 @@
         <v>Whitehead</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F177" s="7" t="str">
         <v>713-743-3502</v>
@@ -6451,7 +6454,7 @@
         <v>25</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>51</v>
@@ -6495,7 +6498,7 @@
         <v>51</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E180" s="6" t="str">
         <v>Colorado State University</v>
@@ -6522,11 +6525,11 @@
     <row r="181" spans="1:16384">
       <c r="A181" s="6"/>
       <c r="B181" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E181" s="6" t="s">
         <v>30</v>
@@ -6664,7 +6667,7 @@
         <v>Yang</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F185" s="7" t="str">
         <v>217-244-2792</v>
@@ -6796,7 +6799,7 @@
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E189" s="6" t="s">
         <v>31</v>
@@ -6832,7 +6835,7 @@
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>40</v>
